--- a/Data_Formatted/Combined_OUTPUT.xlsx
+++ b/Data_Formatted/Combined_OUTPUT.xlsx
@@ -68,12 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -442,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:W88"/>
+  <dimension ref="A3:W88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +447,38 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="3">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EPS change</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>new EPS vs Cons</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>P/E</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>new EPS</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Sales change</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>EBIT change</t>
+        </is>
+      </c>
+    </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
@@ -471,100 +500,64 @@
           <t>currency</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>y1_EPS chg</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>y2_EPS chg</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>y3_EPS chg</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>y1 new EPS difference to consensus</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>y2 new EPS difference to consensus</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>y2 new EPS difference to consensus</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y1_PE</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>y2_PE</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>y3_PE</t>
-        </is>
+      <c r="E4" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>2025</v>
       </c>
       <c r="N4" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>y1 new EPS</t>
-        </is>
-      </c>
-      <c r="P4" s="1" t="inlineStr">
-        <is>
-          <t>y2 new EPS</t>
-        </is>
-      </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>y3 new EPS</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>y1_sales chg</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>y2_sales chg</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>y3_sales chg</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>y1_EBIT chg</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>y2_EBIT chg</t>
-        </is>
-      </c>
-      <c r="W4" s="2" t="inlineStr">
-        <is>
-          <t>y3_EBIT chg</t>
-        </is>
+      <c r="O4" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>2025</v>
       </c>
     </row>
     <row r="5">
@@ -588,28 +581,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <v>5.840111758925737e-05</v>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n">
         <v>0.07628124203850306</v>
       </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -645,28 +638,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R5" s="3" t="n">
+      <c r="R5" s="2" t="n">
         <v>0.06575311257457761</v>
       </c>
-      <c r="S5" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T5" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U5" s="3" t="n">
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="n">
         <v>3.420357127636997e-05</v>
       </c>
-      <c r="V5" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W5" s="3" t="inlineStr">
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -693,28 +686,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.01647607365312467</v>
       </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="n">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n">
         <v>-0.1107305970149254</v>
       </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -750,30 +743,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R6" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S6" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T6" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U6" s="3" t="n">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="n">
         <v>-0.001506917629376919</v>
       </c>
-      <c r="V6" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W6" s="3" t="inlineStr">
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -800,28 +793,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <v>-0.026803076023425</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="n">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="n">
         <v>0.09112348822406124</v>
       </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -857,30 +850,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R7" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S7" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T7" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U7" s="3" t="n">
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="n">
         <v>-0.03110332438655196</v>
       </c>
-      <c r="V7" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W7" s="3" t="inlineStr">
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -907,28 +900,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.007563296748419601</v>
       </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="n">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="n">
         <v>0.07523856825180264</v>
       </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -964,28 +957,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="R8" s="2" t="n">
         <v>0.05317793560844009</v>
       </c>
-      <c r="S8" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T8" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U8" s="3" t="n">
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="n">
         <v>0.007268443312473449</v>
       </c>
-      <c r="V8" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W8" s="3" t="inlineStr">
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1012,28 +1005,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="2" t="n">
         <v>-0.0217124507019239</v>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="n">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="n">
         <v>0.04093347468857678</v>
       </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1069,30 +1062,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R9" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S9" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T9" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U9" s="3" t="n">
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="n">
         <v>-0.02111534562029498</v>
       </c>
-      <c r="V9" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W9" s="3" t="inlineStr">
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1119,28 +1112,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="2" t="n">
         <v>0.046133045636518</v>
       </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="n">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="n">
         <v>0.0268634069400631</v>
       </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1176,28 +1169,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R10" s="3" t="n">
+      <c r="R10" s="2" t="n">
         <v>0.02323066474645</v>
       </c>
-      <c r="S10" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T10" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U10" s="3" t="n">
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="n">
         <v>-0.00374109716246696</v>
       </c>
-      <c r="V10" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W10" s="3" t="inlineStr">
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1224,28 +1217,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="2" t="n">
         <v>0.0236032264056959</v>
       </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="n">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
         <v>-0.0701850928234968</v>
       </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1281,28 +1274,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R11" s="3" t="n">
+      <c r="R11" s="2" t="n">
         <v>0.0230699078884142</v>
       </c>
-      <c r="S11" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T11" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U11" s="3" t="n">
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="n">
         <v>0.0263070535172958</v>
       </c>
-      <c r="V11" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W11" s="3" t="inlineStr">
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1319,28 +1312,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="2" t="n">
         <v>-0.01667981110923226</v>
       </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="n">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
         <v>0.03664929304130848</v>
       </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1376,32 +1369,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R12" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S12" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T12" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U12" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V12" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W12" s="3" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1428,28 +1421,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="2" t="n">
         <v>-0.00587106688710932</v>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="n">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
         <v>-0.142503939705379</v>
       </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1485,28 +1478,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R13" s="3" t="n">
+      <c r="R13" s="2" t="n">
         <v>-0.0017957774468107</v>
       </c>
-      <c r="S13" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T13" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U13" s="3" t="n">
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="n">
         <v>-0.00494740942517791</v>
       </c>
-      <c r="V13" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W13" s="3" t="inlineStr">
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1523,28 +1516,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="2" t="n">
         <v>0.02200238369137142</v>
       </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="n">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n">
         <v>-0.01556527702417621</v>
       </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1580,28 +1573,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R14" s="3" t="n">
+      <c r="R14" s="2" t="n">
         <v>0.01928512855160447</v>
       </c>
-      <c r="S14" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T14" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U14" s="3" t="n">
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="n">
         <v>0.02240500074310425</v>
       </c>
-      <c r="V14" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W14" s="3" t="inlineStr">
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1618,28 +1611,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="2" t="n">
         <v>-0.0004179583631418326</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="n">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
         <v>-0.005287063026282235</v>
       </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1675,30 +1668,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R15" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S15" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T15" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U15" s="3" t="n">
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="n">
         <v>-0.0004184926800941791</v>
       </c>
-      <c r="V15" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W15" s="3" t="inlineStr">
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1725,28 +1718,28 @@
           <t>CHF</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="2" t="n">
         <v>0.02541318393800485</v>
       </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="n">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
         <v>-0.1102097053726169</v>
       </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1782,30 +1775,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R16" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S16" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T16" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U16" s="3" t="n">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="n">
         <v>0.02350090336124479</v>
       </c>
-      <c r="V16" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W16" s="3" t="inlineStr">
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1832,28 +1825,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="2" t="n">
         <v>-0.01975874205760464</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="n">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
         <v>-0.08427355828991279</v>
       </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1889,32 +1882,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R17" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S17" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T17" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U17" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V17" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W17" s="3" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1931,28 +1924,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="2" t="n">
         <v>0.04776449041011479</v>
       </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="n">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="n">
         <v>0.06057574123989218</v>
       </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1988,30 +1981,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R18" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S18" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T18" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U18" s="3" t="n">
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="n">
         <v>0.04610553215403881</v>
       </c>
-      <c r="V18" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W18" s="3" t="inlineStr">
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2038,28 +2031,28 @@
           <t>CHF</t>
         </is>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="2" t="n">
         <v>-0.4676977985512514</v>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="n">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="n">
         <v>-0.2944722807017545</v>
       </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2095,30 +2088,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R19" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S19" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T19" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U19" s="3" t="n">
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="n">
         <v>-0.2481005368590358</v>
       </c>
-      <c r="V19" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W19" s="3" t="inlineStr">
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2145,28 +2138,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="2" t="n">
         <v>0.001201234820136676</v>
       </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="n">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="n">
         <v>0.05713713148756305</v>
       </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2202,32 +2195,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R20" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S20" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T20" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U20" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V20" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W20" s="3" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2244,28 +2237,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="2" t="n">
         <v>-0.006159188135929972</v>
       </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="n">
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
         <v>0.1042460314985825</v>
       </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2301,28 +2294,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R21" s="3" t="n">
+      <c r="R21" s="2" t="n">
         <v>-0.01100614006983758</v>
       </c>
-      <c r="S21" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T21" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U21" s="3" t="n">
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="n">
         <v>-0.01100614006983724</v>
       </c>
-      <c r="V21" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W21" s="3" t="inlineStr">
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2349,28 +2342,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="2" t="n">
         <v>-0.01962953701116887</v>
       </c>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="n">
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
         <v>-0.04454035676549151</v>
       </c>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2406,28 +2399,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R22" s="3" t="n">
+      <c r="R22" s="2" t="n">
         <v>0.09586070623745746</v>
       </c>
-      <c r="S22" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T22" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U22" s="3" t="n">
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="n">
         <v>0.06333151470414689</v>
       </c>
-      <c r="V22" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W22" s="3" t="inlineStr">
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2454,28 +2447,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="2" t="n">
         <v>0.004209965498427781</v>
       </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="n">
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="n">
         <v>0.01442351470818415</v>
       </c>
-      <c r="I23" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2511,28 +2504,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R23" s="3" t="n">
+      <c r="R23" s="2" t="n">
         <v>0.002196251107029035</v>
       </c>
-      <c r="S23" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T23" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U23" s="3" t="n">
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="n">
         <v>0.004087378260795527</v>
       </c>
-      <c r="V23" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W23" s="3" t="inlineStr">
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2559,28 +2552,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="2" t="n">
         <v>-0.01757050011702127</v>
       </c>
-      <c r="F24" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="n">
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="n">
         <v>-0.1025321019672339</v>
       </c>
-      <c r="I24" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J24" s="3" t="inlineStr">
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2616,32 +2609,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R24" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S24" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T24" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U24" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V24" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W24" s="3" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2668,28 +2661,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="2" t="n">
         <v>0.06739763995636361</v>
       </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="n">
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="n">
         <v>-0.006582079147827158</v>
       </c>
-      <c r="I25" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J25" s="3" t="inlineStr">
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2725,28 +2718,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R25" s="3" t="n">
+      <c r="R25" s="2" t="n">
         <v>-0.0001756024294615743</v>
       </c>
-      <c r="S25" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T25" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U25" s="3" t="n">
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="n">
         <v>-0.01092109080564119</v>
       </c>
-      <c r="V25" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W25" s="3" t="inlineStr">
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2773,28 +2766,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="2" t="n">
         <v>0.1041172474132526</v>
       </c>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="n">
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="n">
         <v>0.1756026559014003</v>
       </c>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2830,28 +2823,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R26" s="3" t="n">
+      <c r="R26" s="2" t="n">
         <v>0.004667505873919175</v>
       </c>
-      <c r="S26" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T26" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U26" s="3" t="n">
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="n">
         <v>0.001847579835412061</v>
       </c>
-      <c r="V26" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W26" s="3" t="inlineStr">
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2878,28 +2871,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="2" t="n">
         <v>-0.0389966711609961</v>
       </c>
-      <c r="F27" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H27" s="3" t="n">
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="n">
         <v>0.108253579952267</v>
       </c>
-      <c r="I27" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J27" s="3" t="inlineStr">
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2935,28 +2928,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R27" s="3" t="n">
+      <c r="R27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="S27" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T27" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U27" s="3" t="n">
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V27" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W27" s="3" t="inlineStr">
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2983,28 +2976,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="2" t="n">
         <v>0.008162080299386131</v>
       </c>
-      <c r="F28" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G28" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H28" s="3" t="n">
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="n">
         <v>0.0417528795811519</v>
       </c>
-      <c r="I28" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J28" s="3" t="inlineStr">
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3040,28 +3033,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R28" s="3" t="n">
+      <c r="R28" s="2" t="n">
         <v>0.0183009119859956</v>
       </c>
-      <c r="S28" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T28" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U28" s="3" t="n">
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="n">
         <v>0.0431432002727963</v>
       </c>
-      <c r="V28" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W28" s="3" t="inlineStr">
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3078,24 +3071,24 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="2" t="n">
         <v>0.1012840208006442</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="2" t="n">
         <v>-0.006868188794175809</v>
       </c>
-      <c r="G29" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="n">
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="n">
         <v>-0.1825853658536585</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="2" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="J29" s="3" t="n">
+      <c r="J29" s="2" t="n">
         <v>0.2268749475451113</v>
       </c>
       <c r="K29" t="n">
@@ -3125,28 +3118,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R29" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S29" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T29" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U29" s="3" t="n">
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="n">
         <v>-0.01336559296712238</v>
       </c>
-      <c r="V29" s="3" t="n">
+      <c r="V29" s="2" t="n">
         <v>0.01796810289902097</v>
       </c>
-      <c r="W29" s="3" t="inlineStr">
+      <c r="W29" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3173,28 +3166,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="2" t="n">
         <v>-0.007805116918217836</v>
       </c>
-      <c r="F30" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="n">
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="n">
         <v>-0.4805592560755999</v>
       </c>
-      <c r="I30" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J30" s="3" t="inlineStr">
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3230,28 +3223,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R30" s="3" t="n">
+      <c r="R30" s="2" t="n">
         <v>-0.004648792603658358</v>
       </c>
-      <c r="S30" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T30" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U30" s="3" t="n">
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="n">
         <v>-0.005096362907756169</v>
       </c>
-      <c r="V30" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W30" s="3" t="inlineStr">
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3278,28 +3271,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="2" t="n">
         <v>-0.02060092726569981</v>
       </c>
-      <c r="F31" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H31" s="3" t="n">
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="n">
         <v>0.008422251506024159</v>
       </c>
-      <c r="I31" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J31" s="3" t="inlineStr">
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3335,30 +3328,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R31" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S31" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T31" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U31" s="3" t="n">
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="n">
         <v>-0.02034776293706925</v>
       </c>
-      <c r="V31" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W31" s="3" t="inlineStr">
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3375,28 +3368,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="2" t="n">
         <v>-0.00281303921806671</v>
       </c>
-      <c r="F32" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G32" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H32" s="3" t="n">
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="n">
         <v>-0.050602908277405</v>
       </c>
-      <c r="I32" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3432,28 +3425,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R32" s="3" t="n">
+      <c r="R32" s="2" t="n">
         <v>-0.00410732710221073</v>
       </c>
-      <c r="S32" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T32" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U32" s="3" t="n">
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="n">
         <v>-0.000647121030439513</v>
       </c>
-      <c r="V32" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W32" s="3" t="inlineStr">
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3480,28 +3473,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="2" t="n">
         <v>-0.008793017456359169</v>
       </c>
-      <c r="F33" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G33" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H33" s="3" t="n">
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="n">
         <v>-0.143375</v>
       </c>
-      <c r="I33" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J33" s="3" t="inlineStr">
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3537,28 +3530,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R33" s="3" t="n">
+      <c r="R33" s="2" t="n">
         <v>-0.00824623430556248</v>
       </c>
-      <c r="S33" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T33" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U33" s="3" t="n">
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="n">
         <v>-0.008246233967340699</v>
       </c>
-      <c r="V33" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W33" s="3" t="inlineStr">
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3575,28 +3568,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="2" t="n">
         <v>0.0002543725453896251</v>
       </c>
-      <c r="F34" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G34" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H34" s="3" t="n">
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="n">
         <v>-0.05270586482066297</v>
       </c>
-      <c r="I34" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3632,28 +3625,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R34" s="3" t="n">
+      <c r="R34" s="2" t="n">
         <v>-0.00113221280431719</v>
       </c>
-      <c r="S34" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T34" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U34" s="3" t="n">
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="n">
         <v>-0.0002904802886343205</v>
       </c>
-      <c r="V34" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W34" s="3" t="inlineStr">
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3680,28 +3673,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="2" t="n">
         <v>0.065071828147543</v>
       </c>
-      <c r="F35" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G35" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H35" s="3" t="n">
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="n">
         <v>0.5404417475728156</v>
       </c>
-      <c r="I35" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J35" s="3" t="inlineStr">
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3737,30 +3730,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R35" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S35" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T35" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U35" s="3" t="n">
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="n">
         <v>0.03980841717441654</v>
       </c>
-      <c r="V35" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W35" s="3" t="inlineStr">
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W35" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3787,28 +3780,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="2" t="n">
         <v>-0.05966395437627925</v>
       </c>
-      <c r="F36" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G36" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H36" s="3" t="n">
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="n">
         <v>-0.3559255396473214</v>
       </c>
-      <c r="I36" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J36" s="3" t="inlineStr">
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3844,28 +3837,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R36" s="3" t="n">
+      <c r="R36" s="2" t="n">
         <v>-0.001350241704499267</v>
       </c>
-      <c r="S36" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T36" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U36" s="3" t="n">
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="n">
         <v>-0.06570628192768624</v>
       </c>
-      <c r="V36" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W36" s="3" t="inlineStr">
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W36" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3892,28 +3885,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" s="2" t="n">
         <v>0.01196346325805142</v>
       </c>
-      <c r="F37" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G37" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H37" s="3" t="n">
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="n">
         <v>0.01209068469594632</v>
       </c>
-      <c r="I37" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J37" s="3" t="inlineStr">
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3949,32 +3942,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R37" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S37" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T37" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U37" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V37" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W37" s="3" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W37" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4001,28 +3994,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" s="2" t="n">
         <v>-0.07278866329248247</v>
       </c>
-      <c r="F38" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G38" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H38" s="3" t="n">
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="n">
         <v>-0.07072997237569045</v>
       </c>
-      <c r="I38" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J38" s="3" t="inlineStr">
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4058,30 +4051,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R38" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S38" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T38" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U38" s="3" t="n">
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="n">
         <v>0.003251911442059412</v>
       </c>
-      <c r="V38" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W38" s="3" t="inlineStr">
+      <c r="V38" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W38" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4108,28 +4101,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="2" t="n">
         <v>0.01367895472204217</v>
       </c>
-      <c r="F39" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G39" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H39" s="3" t="n">
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="n">
         <v>0.001931171938577725</v>
       </c>
-      <c r="I39" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J39" s="3" t="inlineStr">
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4165,28 +4158,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R39" s="3" t="n">
+      <c r="R39" s="2" t="n">
         <v>0.01015382467042425</v>
       </c>
-      <c r="S39" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T39" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U39" s="3" t="n">
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="n">
         <v>0.01312075177455241</v>
       </c>
-      <c r="V39" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W39" s="3" t="inlineStr">
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W39" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4213,28 +4206,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="2" t="n">
         <v>-0.0007196530191379438</v>
       </c>
-      <c r="F40" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G40" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H40" s="3" t="n">
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="n">
         <v>-0.007546052631579037</v>
       </c>
-      <c r="I40" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J40" s="3" t="inlineStr">
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4270,30 +4263,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R40" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S40" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T40" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U40" s="3" t="n">
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="n">
         <v>-0.0005882620488706101</v>
       </c>
-      <c r="V40" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W40" s="3" t="inlineStr">
+      <c r="V40" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W40" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4310,28 +4303,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E41" s="3" t="n">
+      <c r="E41" s="2" t="n">
         <v>0.00321231024660785</v>
       </c>
-      <c r="F41" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G41" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H41" s="3" t="n">
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="n">
         <v>-0.144771794871795</v>
       </c>
-      <c r="I41" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J41" s="3" t="inlineStr">
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4367,28 +4360,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R41" s="3" t="n">
+      <c r="R41" s="2" t="n">
         <v>0.00249407969908666</v>
       </c>
-      <c r="S41" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T41" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U41" s="3" t="n">
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T41" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U41" s="2" t="n">
         <v>0.00264409303708257</v>
       </c>
-      <c r="V41" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W41" s="3" t="inlineStr">
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W41" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4415,28 +4408,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" s="2" t="n">
         <v>0.004515926182184327</v>
       </c>
-      <c r="F42" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G42" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H42" s="3" t="n">
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="n">
         <v>0.04962164719629869</v>
       </c>
-      <c r="I42" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4472,28 +4465,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R42" s="3" t="n">
+      <c r="R42" s="2" t="n">
         <v>-0.0004969480003301774</v>
       </c>
-      <c r="S42" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T42" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U42" s="3" t="n">
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U42" s="2" t="n">
         <v>0.005423703568077309</v>
       </c>
-      <c r="V42" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W42" s="3" t="inlineStr">
+      <c r="V42" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W42" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4520,28 +4513,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="E43" s="2" t="n">
         <v>0.009829177400395231</v>
       </c>
-      <c r="F43" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G43" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H43" s="3" t="n">
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="n">
         <v>-0.0058939393939394</v>
       </c>
-      <c r="I43" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J43" s="3" t="inlineStr">
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4577,28 +4570,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R43" s="3" t="n">
+      <c r="R43" s="2" t="n">
         <v>0.0835907150116342</v>
       </c>
-      <c r="S43" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T43" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U43" s="3" t="n">
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U43" s="2" t="n">
         <v>0.0278155617800451</v>
       </c>
-      <c r="V43" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W43" s="3" t="inlineStr">
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W43" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4625,28 +4618,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E44" s="2" t="n">
         <v>-0.0050108387011692</v>
       </c>
-      <c r="F44" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H44" s="3" t="n">
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
         <v>0.009124869383489997</v>
       </c>
-      <c r="I44" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J44" s="3" t="inlineStr">
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4682,30 +4675,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R44" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S44" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T44" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U44" s="3" t="n">
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U44" s="2" t="n">
         <v>-0.005163277982837415</v>
       </c>
-      <c r="V44" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W44" s="3" t="inlineStr">
+      <c r="V44" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W44" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4722,28 +4715,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E45" s="3" t="n">
+      <c r="E45" s="2" t="n">
         <v>-0.008330887673331011</v>
       </c>
-      <c r="F45" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G45" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H45" s="3" t="n">
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
         <v>-0.0004003553517999414</v>
       </c>
-      <c r="I45" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J45" s="3" t="inlineStr">
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4779,28 +4772,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R45" s="3" t="n">
+      <c r="R45" s="2" t="n">
         <v>0.01032017895835247</v>
       </c>
-      <c r="S45" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T45" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U45" s="3" t="n">
+      <c r="S45" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U45" s="2" t="n">
         <v>-0.007639074754622888</v>
       </c>
-      <c r="V45" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W45" s="3" t="inlineStr">
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W45" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4827,28 +4820,28 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="E46" s="3" t="n">
+      <c r="E46" s="2" t="n">
         <v>0.01178769379423989</v>
       </c>
-      <c r="F46" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H46" s="3" t="n">
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
         <v>-0.01953487192493031</v>
       </c>
-      <c r="I46" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J46" s="3" t="inlineStr">
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4884,30 +4877,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R46" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S46" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T46" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U46" s="3" t="n">
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="n">
         <v>0.05420027465317249</v>
       </c>
-      <c r="V46" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W46" s="3" t="inlineStr">
+      <c r="V46" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W46" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4934,28 +4927,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="E47" s="2" t="n">
         <v>0.005792100892638485</v>
       </c>
-      <c r="F47" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G47" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H47" s="3" t="n">
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
         <v>-0.02978616835114367</v>
       </c>
-      <c r="I47" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J47" s="3" t="inlineStr">
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4991,28 +4984,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R47" s="3" t="n">
+      <c r="R47" s="2" t="n">
         <v>0.002055650860119718</v>
       </c>
-      <c r="S47" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T47" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U47" s="3" t="n">
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T47" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U47" s="2" t="n">
         <v>0.005118274159374492</v>
       </c>
-      <c r="V47" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W47" s="3" t="inlineStr">
+      <c r="V47" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W47" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5029,28 +5022,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E48" s="3" t="n">
+      <c r="E48" s="2" t="n">
         <v>0.0222707361134257</v>
       </c>
-      <c r="F48" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G48" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H48" s="3" t="n">
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
         <v>0.1107853846153846</v>
       </c>
-      <c r="I48" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J48" s="3" t="inlineStr">
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5086,30 +5079,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R48" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S48" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T48" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U48" s="3" t="n">
+      <c r="R48" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U48" s="2" t="n">
         <v>0.02545244027159419</v>
       </c>
-      <c r="V48" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W48" s="3" t="inlineStr">
+      <c r="V48" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W48" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5136,28 +5129,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E49" s="3" t="n">
+      <c r="E49" s="2" t="n">
         <v>0.02408235987693486</v>
       </c>
-      <c r="F49" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G49" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H49" s="3" t="n">
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="n">
         <v>0.05606788876410818</v>
       </c>
-      <c r="I49" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J49" s="3" t="inlineStr">
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5193,32 +5186,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R49" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S49" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T49" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U49" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V49" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W49" s="3" t="inlineStr">
+      <c r="R49" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S49" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T49" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U49" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V49" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W49" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5245,28 +5238,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E50" s="3" t="n">
+      <c r="E50" s="2" t="n">
         <v>0.01463869045839927</v>
       </c>
-      <c r="F50" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G50" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H50" s="3" t="n">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="n">
         <v>0.06572101297614052</v>
       </c>
-      <c r="I50" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J50" s="3" t="inlineStr">
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5302,30 +5295,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R50" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S50" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T50" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U50" s="3" t="n">
+      <c r="R50" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S50" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T50" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U50" s="2" t="n">
         <v>0.08605828450245427</v>
       </c>
-      <c r="V50" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W50" s="3" t="inlineStr">
+      <c r="V50" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W50" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5352,28 +5345,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E51" s="3" t="n">
+      <c r="E51" s="2" t="n">
         <v>0.0007359845127379305</v>
       </c>
-      <c r="F51" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G51" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H51" s="3" t="n">
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="n">
         <v>-0.02574229854971977</v>
       </c>
-      <c r="I51" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J51" s="3" t="inlineStr">
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5409,28 +5402,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R51" s="3" t="n">
+      <c r="R51" s="2" t="n">
         <v>0.006751544394446141</v>
       </c>
-      <c r="S51" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T51" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U51" s="3" t="n">
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T51" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U51" s="2" t="n">
         <v>-0.007759017395819079</v>
       </c>
-      <c r="V51" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W51" s="3" t="inlineStr">
+      <c r="V51" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W51" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5457,28 +5450,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E52" s="3" t="n">
+      <c r="E52" s="2" t="n">
         <v>-0.07203958604787</v>
       </c>
-      <c r="F52" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G52" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H52" s="3" t="n">
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="n">
         <v>-0.0750649727767695</v>
       </c>
-      <c r="I52" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J52" s="3" t="inlineStr">
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5514,28 +5507,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R52" s="3" t="n">
+      <c r="R52" s="2" t="n">
         <v>-0.0206700562551202</v>
       </c>
-      <c r="S52" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T52" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U52" s="3" t="n">
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T52" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U52" s="2" t="n">
         <v>-0.105705355946625</v>
       </c>
-      <c r="V52" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W52" s="3" t="inlineStr">
+      <c r="V52" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W52" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5552,28 +5545,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E53" s="3" t="n">
+      <c r="E53" s="2" t="n">
         <v>-0.06854784566725645</v>
       </c>
-      <c r="F53" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G53" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H53" s="3" t="n">
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="n">
         <v>-0.03744823828550681</v>
       </c>
-      <c r="I53" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J53" s="3" t="inlineStr">
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5609,30 +5602,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R53" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S53" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T53" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U53" s="3" t="n">
+      <c r="R53" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S53" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T53" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U53" s="2" t="n">
         <v>-0.06693613365619397</v>
       </c>
-      <c r="V53" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W53" s="3" t="inlineStr">
+      <c r="V53" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W53" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5659,28 +5652,28 @@
           <t>NOK</t>
         </is>
       </c>
-      <c r="E54" s="3" t="n">
+      <c r="E54" s="2" t="n">
         <v>-0.04061760451178948</v>
       </c>
-      <c r="F54" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G54" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H54" s="3" t="n">
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="n">
         <v>-0.2015862690707351</v>
       </c>
-      <c r="I54" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J54" s="3" t="inlineStr">
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5716,30 +5709,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R54" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S54" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T54" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U54" s="3" t="n">
+      <c r="R54" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U54" s="2" t="n">
         <v>-0.0406608553625455</v>
       </c>
-      <c r="V54" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W54" s="3" t="inlineStr">
+      <c r="V54" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W54" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5766,28 +5759,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E55" s="3" t="n">
+      <c r="E55" s="2" t="n">
         <v>-0.0436062007306705</v>
       </c>
-      <c r="F55" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G55" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H55" s="3" t="n">
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="n">
         <v>-0.184158964879852</v>
       </c>
-      <c r="I55" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J55" s="3" t="inlineStr">
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5823,28 +5816,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R55" s="3" t="n">
+      <c r="R55" s="2" t="n">
         <v>0.0133992335437561</v>
       </c>
-      <c r="S55" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T55" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U55" s="3" t="n">
+      <c r="S55" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T55" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U55" s="2" t="n">
         <v>-0.0215117584082215</v>
       </c>
-      <c r="V55" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W55" s="3" t="inlineStr">
+      <c r="V55" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W55" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5871,28 +5864,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E56" s="3" t="n">
+      <c r="E56" s="2" t="n">
         <v>0.004213424817720057</v>
       </c>
-      <c r="F56" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G56" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H56" s="3" t="n">
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="n">
         <v>-0.006776989247311849</v>
       </c>
-      <c r="I56" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J56" s="3" t="inlineStr">
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5928,30 +5921,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R56" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S56" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T56" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U56" s="3" t="n">
+      <c r="R56" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S56" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T56" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U56" s="2" t="n">
         <v>0.003334878108349544</v>
       </c>
-      <c r="V56" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W56" s="3" t="inlineStr">
+      <c r="V56" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W56" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5978,28 +5971,28 @@
           <t>DKK</t>
         </is>
       </c>
-      <c r="E57" s="3" t="n">
+      <c r="E57" s="2" t="n">
         <v>-0.02573619865173769</v>
       </c>
-      <c r="F57" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G57" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H57" s="3" t="n">
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="n">
         <v>-0.09563479705180111</v>
       </c>
-      <c r="I57" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J57" s="3" t="inlineStr">
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6035,30 +6028,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R57" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S57" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T57" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U57" s="3" t="n">
+      <c r="R57" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S57" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T57" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U57" s="2" t="n">
         <v>-0.02465501340595096</v>
       </c>
-      <c r="V57" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W57" s="3" t="inlineStr">
+      <c r="V57" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W57" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6085,28 +6078,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E58" s="3" t="n">
+      <c r="E58" s="2" t="n">
         <v>0.00671796508432819</v>
       </c>
-      <c r="F58" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G58" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H58" s="3" t="n">
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="n">
         <v>0.328287516170763</v>
       </c>
-      <c r="I58" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J58" s="3" t="inlineStr">
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6142,28 +6135,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R58" s="3" t="n">
+      <c r="R58" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T58" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U58" s="3" t="n">
+      <c r="S58" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T58" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U58" s="2" t="n">
         <v>-0.00691702207838096</v>
       </c>
-      <c r="V58" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W58" s="3" t="inlineStr">
+      <c r="V58" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W58" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6190,28 +6183,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E59" s="3" t="n">
+      <c r="E59" s="2" t="n">
         <v>-0.0106073922700253</v>
       </c>
-      <c r="F59" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G59" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H59" s="3" t="n">
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="n">
         <v>0.286339451786588</v>
       </c>
-      <c r="I59" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J59" s="3" t="inlineStr">
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6247,28 +6240,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R59" s="3" t="n">
+      <c r="R59" s="2" t="n">
         <v>0.0101695676939675</v>
       </c>
-      <c r="S59" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T59" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U59" s="3" t="n">
+      <c r="S59" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T59" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U59" s="2" t="n">
         <v>-0.0294926320821921</v>
       </c>
-      <c r="V59" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W59" s="3" t="inlineStr">
+      <c r="V59" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W59" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6295,28 +6288,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E60" s="3" t="n">
+      <c r="E60" s="2" t="n">
         <v>0.1804518908983005</v>
       </c>
-      <c r="F60" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G60" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H60" s="3" t="n">
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="n">
         <v>0.06823356643356648</v>
       </c>
-      <c r="I60" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J60" s="3" t="inlineStr">
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6352,30 +6345,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R60" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S60" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T60" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U60" s="3" t="n">
+      <c r="R60" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S60" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T60" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U60" s="2" t="n">
         <v>0.1608482987189881</v>
       </c>
-      <c r="V60" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W60" s="3" t="inlineStr">
+      <c r="V60" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W60" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6402,28 +6395,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E61" s="3" t="n">
+      <c r="E61" s="2" t="n">
         <v>0.3436929035885032</v>
       </c>
-      <c r="F61" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G61" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H61" s="3" t="n">
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="n">
         <v>0.4714991304347824</v>
       </c>
-      <c r="I61" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J61" s="3" t="inlineStr">
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6459,30 +6452,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R61" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S61" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T61" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U61" s="3" t="n">
+      <c r="R61" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S61" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T61" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U61" s="2" t="n">
         <v>0.03503361742307426</v>
       </c>
-      <c r="V61" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W61" s="3" t="inlineStr">
+      <c r="V61" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W61" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6509,28 +6502,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E62" s="3" t="n">
+      <c r="E62" s="2" t="n">
         <v>-0.007731128314700686</v>
       </c>
-      <c r="F62" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G62" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H62" s="3" t="n">
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="n">
         <v>0.02866867135147833</v>
       </c>
-      <c r="I62" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J62" s="3" t="inlineStr">
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6566,28 +6559,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R62" s="3" t="n">
+      <c r="R62" s="2" t="n">
         <v>0.01645409909458473</v>
       </c>
-      <c r="S62" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T62" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U62" s="3" t="n">
+      <c r="S62" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T62" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U62" s="2" t="n">
         <v>0.01075318448181317</v>
       </c>
-      <c r="V62" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W62" s="3" t="inlineStr">
+      <c r="V62" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W62" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6614,28 +6607,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E63" s="3" t="n">
+      <c r="E63" s="2" t="n">
         <v>0.0117711048807413</v>
       </c>
-      <c r="F63" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G63" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H63" s="3" t="n">
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="n">
         <v>0.07712380952380959</v>
       </c>
-      <c r="I63" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J63" s="3" t="inlineStr">
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6671,28 +6664,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R63" s="3" t="n">
+      <c r="R63" s="2" t="n">
         <v>0.0137582666355782</v>
       </c>
-      <c r="S63" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T63" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U63" s="3" t="n">
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T63" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U63" s="2" t="n">
         <v>0.0121648534418399</v>
       </c>
-      <c r="V63" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W63" s="3" t="inlineStr">
+      <c r="V63" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W63" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6719,28 +6712,28 @@
           <t>NOK</t>
         </is>
       </c>
-      <c r="E64" s="3" t="n">
+      <c r="E64" s="2" t="n">
         <v>-0.09023893724577181</v>
       </c>
-      <c r="F64" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G64" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H64" s="3" t="n">
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="n">
         <v>-0.2063768490816759</v>
       </c>
-      <c r="I64" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J64" s="3" t="inlineStr">
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6776,28 +6769,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R64" s="3" t="n">
+      <c r="R64" s="2" t="n">
         <v>0.004219208787627382</v>
       </c>
-      <c r="S64" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T64" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U64" s="3" t="n">
+      <c r="S64" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T64" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U64" s="2" t="n">
         <v>-0.06829122852755543</v>
       </c>
-      <c r="V64" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W64" s="3" t="inlineStr">
+      <c r="V64" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W64" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6824,28 +6817,28 @@
           <t>CHF</t>
         </is>
       </c>
-      <c r="E65" s="3" t="n">
+      <c r="E65" s="2" t="n">
         <v>0.01242695710466468</v>
       </c>
-      <c r="F65" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G65" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H65" s="3" t="n">
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="n">
         <v>-0.01060957799260931</v>
       </c>
-      <c r="I65" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J65" s="3" t="inlineStr">
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6881,28 +6874,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R65" s="3" t="n">
+      <c r="R65" s="2" t="n">
         <v>0.006089371222095519</v>
       </c>
-      <c r="S65" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T65" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U65" s="3" t="n">
+      <c r="S65" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T65" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U65" s="2" t="n">
         <v>0.01175865577223978</v>
       </c>
-      <c r="V65" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W65" s="3" t="inlineStr">
+      <c r="V65" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W65" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6929,28 +6922,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E66" s="3" t="n">
+      <c r="E66" s="2" t="n">
         <v>0.07738977867853447</v>
       </c>
-      <c r="F66" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G66" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H66" s="3" t="n">
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="n">
         <v>0.0322501876481911</v>
       </c>
-      <c r="I66" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J66" s="3" t="inlineStr">
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6986,28 +6979,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R66" s="3" t="n">
+      <c r="R66" s="2" t="n">
         <v>-0.2218307263517468</v>
       </c>
-      <c r="S66" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T66" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U66" s="3" t="n">
+      <c r="S66" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T66" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U66" s="2" t="n">
         <v>0.07625128302004236</v>
       </c>
-      <c r="V66" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W66" s="3" t="inlineStr">
+      <c r="V66" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W66" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7034,28 +7027,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E67" s="3" t="n">
+      <c r="E67" s="2" t="n">
         <v>0.02296225702569155</v>
       </c>
-      <c r="F67" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G67" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H67" s="3" t="n">
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="n">
         <v>0.1172414843877505</v>
       </c>
-      <c r="I67" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J67" s="3" t="inlineStr">
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7091,28 +7084,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R67" s="3" t="n">
+      <c r="R67" s="2" t="n">
         <v>0.01829457577109106</v>
       </c>
-      <c r="S67" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T67" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U67" s="3" t="n">
+      <c r="S67" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T67" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U67" s="2" t="n">
         <v>0.02059124636323229</v>
       </c>
-      <c r="V67" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W67" s="3" t="inlineStr">
+      <c r="V67" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W67" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7139,28 +7132,28 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="E68" s="3" t="n">
+      <c r="E68" s="2" t="n">
         <v>-0.03186641165543727</v>
       </c>
-      <c r="F68" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G68" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H68" s="3" t="n">
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="n">
         <v>0.0193597682780664</v>
       </c>
-      <c r="I68" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J68" s="3" t="inlineStr">
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7196,30 +7189,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R68" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S68" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T68" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U68" s="3" t="n">
+      <c r="R68" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S68" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T68" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U68" s="2" t="n">
         <v>-0.02461153135251753</v>
       </c>
-      <c r="V68" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W68" s="3" t="inlineStr">
+      <c r="V68" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W68" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7246,28 +7239,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E69" s="3" t="n">
+      <c r="E69" s="2" t="n">
         <v>0.08924111877864238</v>
       </c>
-      <c r="F69" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G69" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H69" s="3" t="n">
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="n">
         <v>0.3265140746352631</v>
       </c>
-      <c r="I69" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J69" s="3" t="inlineStr">
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7303,28 +7296,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R69" s="3" t="n">
+      <c r="R69" s="2" t="n">
         <v>0.01003245269603203</v>
       </c>
-      <c r="S69" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T69" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U69" s="3" t="n">
+      <c r="S69" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T69" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U69" s="2" t="n">
         <v>0.02761698436519655</v>
       </c>
-      <c r="V69" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W69" s="3" t="inlineStr">
+      <c r="V69" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W69" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7351,28 +7344,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E70" s="3" t="n">
+      <c r="E70" s="2" t="n">
         <v>0.03463220501952935</v>
       </c>
-      <c r="F70" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G70" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H70" s="3" t="n">
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="n">
         <v>-0.2230525258924612</v>
       </c>
-      <c r="I70" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J70" s="3" t="inlineStr">
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7408,28 +7401,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R70" s="3" t="n">
+      <c r="R70" s="2" t="n">
         <v>-0.00199943839898975</v>
       </c>
-      <c r="S70" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T70" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U70" s="3" t="n">
+      <c r="S70" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T70" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U70" s="2" t="n">
         <v>0.04748832890731847</v>
       </c>
-      <c r="V70" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W70" s="3" t="inlineStr">
+      <c r="V70" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W70" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7456,28 +7449,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E71" s="3" t="n">
+      <c r="E71" s="2" t="n">
         <v>-0.07672804903929653</v>
       </c>
-      <c r="F71" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G71" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H71" s="3" t="n">
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="n">
         <v>-0.06038781814827787</v>
       </c>
-      <c r="I71" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J71" s="3" t="inlineStr">
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7513,28 +7506,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R71" s="3" t="n">
+      <c r="R71" s="2" t="n">
         <v>0.04540866587563719</v>
       </c>
-      <c r="S71" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T71" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U71" s="3" t="n">
+      <c r="S71" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T71" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U71" s="2" t="n">
         <v>-0.0757898050099316</v>
       </c>
-      <c r="V71" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W71" s="3" t="inlineStr">
+      <c r="V71" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W71" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7561,32 +7554,32 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E72" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F72" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G72" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H72" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I72" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J72" s="3" t="inlineStr">
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7622,32 +7615,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R72" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S72" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T72" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U72" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V72" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W72" s="3" t="inlineStr">
+      <c r="R72" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S72" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T72" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U72" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V72" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W72" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7674,28 +7667,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E73" s="3" t="n">
+      <c r="E73" s="2" t="n">
         <v>-0.01004327517922798</v>
       </c>
-      <c r="F73" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G73" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H73" s="3" t="n">
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="n">
         <v>-0.004655407413474255</v>
       </c>
-      <c r="I73" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J73" s="3" t="inlineStr">
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7731,32 +7724,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R73" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S73" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T73" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U73" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V73" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W73" s="3" t="inlineStr">
+      <c r="R73" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S73" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T73" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U73" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V73" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W73" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7783,28 +7776,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E74" s="3" t="n">
+      <c r="E74" s="2" t="n">
         <v>-0.02117019684277077</v>
       </c>
-      <c r="F74" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G74" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H74" s="3" t="n">
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="n">
         <v>0.009805101807634387</v>
       </c>
-      <c r="I74" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J74" s="3" t="inlineStr">
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7840,28 +7833,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R74" s="3" t="n">
+      <c r="R74" s="2" t="n">
         <v>0.009213600243523246</v>
       </c>
-      <c r="S74" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T74" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U74" s="3" t="n">
+      <c r="S74" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T74" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U74" s="2" t="n">
         <v>-0.01994719567118897</v>
       </c>
-      <c r="V74" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W74" s="3" t="inlineStr">
+      <c r="V74" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W74" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7888,28 +7881,28 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="E75" s="3" t="n">
+      <c r="E75" s="2" t="n">
         <v>-0.06724817138712656</v>
       </c>
-      <c r="F75" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G75" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H75" s="3" t="n">
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="n">
         <v>-0.07771495198902612</v>
       </c>
-      <c r="I75" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J75" s="3" t="inlineStr">
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7945,30 +7938,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R75" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S75" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T75" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U75" s="3" t="n">
+      <c r="R75" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S75" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T75" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U75" s="2" t="n">
         <v>-0.07231881921052437</v>
       </c>
-      <c r="V75" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W75" s="3" t="inlineStr">
+      <c r="V75" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W75" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7995,28 +7988,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E76" s="3" t="n">
+      <c r="E76" s="2" t="n">
         <v>0.1110349554489376</v>
       </c>
-      <c r="F76" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G76" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H76" s="3" t="n">
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="n">
         <v>-0.1215153940743205</v>
       </c>
-      <c r="I76" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J76" s="3" t="inlineStr">
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8052,32 +8045,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R76" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S76" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T76" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U76" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V76" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W76" s="3" t="inlineStr">
+      <c r="R76" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S76" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T76" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U76" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V76" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W76" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8104,28 +8097,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E77" s="3" t="n">
+      <c r="E77" s="2" t="n">
         <v>-0.03083104420448857</v>
       </c>
-      <c r="F77" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G77" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H77" s="3" t="n">
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="n">
         <v>0.04464506734464724</v>
       </c>
-      <c r="I77" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J77" s="3" t="inlineStr">
+      <c r="I77" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8161,28 +8154,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R77" s="3" t="n">
+      <c r="R77" s="2" t="n">
         <v>0.00210380970885149</v>
       </c>
-      <c r="S77" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T77" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U77" s="3" t="n">
+      <c r="S77" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T77" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U77" s="2" t="n">
         <v>-0.03184856564869232</v>
       </c>
-      <c r="V77" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W77" s="3" t="inlineStr">
+      <c r="V77" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W77" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8209,28 +8202,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E78" s="3" t="n">
+      <c r="E78" s="2" t="n">
         <v>0.02378927329735722</v>
       </c>
-      <c r="F78" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G78" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H78" s="3" t="n">
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="n">
         <v>0.06692553487079733</v>
       </c>
-      <c r="I78" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J78" s="3" t="inlineStr">
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8266,30 +8259,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R78" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S78" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T78" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U78" s="3" t="n">
+      <c r="R78" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S78" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T78" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U78" s="2" t="n">
         <v>0.02458973359581022</v>
       </c>
-      <c r="V78" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W78" s="3" t="inlineStr">
+      <c r="V78" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W78" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8316,28 +8309,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E79" s="3" t="n">
+      <c r="E79" s="2" t="n">
         <v>0.00197990773646195</v>
       </c>
-      <c r="F79" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G79" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H79" s="3" t="n">
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="n">
         <v>-0.09454781144134961</v>
       </c>
-      <c r="I79" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J79" s="3" t="inlineStr">
+      <c r="I79" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8373,28 +8366,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R79" s="3" t="n">
+      <c r="R79" s="2" t="n">
         <v>0.001745104996523583</v>
       </c>
-      <c r="S79" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T79" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U79" s="3" t="n">
+      <c r="S79" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T79" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U79" s="2" t="n">
         <v>0.00180947796280706</v>
       </c>
-      <c r="V79" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W79" s="3" t="inlineStr">
+      <c r="V79" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W79" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8421,28 +8414,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E80" s="3" t="n">
+      <c r="E80" s="2" t="n">
         <v>0.007467311715884772</v>
       </c>
-      <c r="F80" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G80" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H80" s="3" t="n">
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="n">
         <v>0.2205594941488127</v>
       </c>
-      <c r="I80" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J80" s="3" t="inlineStr">
+      <c r="I80" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8478,28 +8471,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R80" s="3" t="n">
+      <c r="R80" s="2" t="n">
         <v>0.008594125508947226</v>
       </c>
-      <c r="S80" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T80" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U80" s="3" t="n">
+      <c r="S80" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T80" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U80" s="2" t="n">
         <v>0.005745065125134063</v>
       </c>
-      <c r="V80" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W80" s="3" t="inlineStr">
+      <c r="V80" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W80" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8526,24 +8519,24 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E81" s="3" t="n">
+      <c r="E81" s="2" t="n">
         <v>0.01873922769445155</v>
       </c>
-      <c r="F81" s="3" t="n">
+      <c r="F81" s="2" t="n">
         <v>-0.006868188794175809</v>
       </c>
-      <c r="G81" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H81" s="3" t="n">
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="n">
         <v>0.1088344864289514</v>
       </c>
-      <c r="I81" s="3" t="n">
+      <c r="I81" s="2" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="J81" s="3" t="n">
+      <c r="J81" s="2" t="n">
         <v>0.2268749475451113</v>
       </c>
       <c r="K81" t="n">
@@ -8573,28 +8566,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R81" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S81" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T81" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U81" s="3" t="n">
+      <c r="R81" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S81" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T81" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U81" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V81" s="3" t="n">
+      <c r="V81" s="2" t="n">
         <v>0.01796810289902097</v>
       </c>
-      <c r="W81" s="3" t="inlineStr">
+      <c r="W81" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8621,28 +8614,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E82" s="3" t="n">
+      <c r="E82" s="2" t="n">
         <v>0.00557674808694642</v>
       </c>
-      <c r="F82" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G82" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H82" s="3" t="n">
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="n">
         <v>0.0199288348082595</v>
       </c>
-      <c r="I82" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J82" s="3" t="inlineStr">
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8678,28 +8671,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R82" s="3" t="n">
+      <c r="R82" s="2" t="n">
         <v>0.0139448211367372</v>
       </c>
-      <c r="S82" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T82" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U82" s="3" t="n">
+      <c r="S82" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T82" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U82" s="2" t="n">
         <v>0.0165010540411326</v>
       </c>
-      <c r="V82" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W82" s="3" t="inlineStr">
+      <c r="V82" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W82" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8726,24 +8719,24 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E83" s="3" t="n">
+      <c r="E83" s="2" t="n">
         <v>-0.03953067394323685</v>
       </c>
-      <c r="F83" s="3" t="n">
+      <c r="F83" s="2" t="n">
         <v>-0.006868188794175809</v>
       </c>
-      <c r="G83" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H83" s="3" t="n">
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="n">
         <v>-0.04266160815402043</v>
       </c>
-      <c r="I83" s="3" t="n">
+      <c r="I83" s="2" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="J83" s="3" t="n">
+      <c r="J83" s="2" t="n">
         <v>0.2268749475451113</v>
       </c>
       <c r="K83" t="n">
@@ -8773,28 +8766,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R83" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S83" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T83" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U83" s="3" t="n">
+      <c r="R83" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S83" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T83" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U83" s="2" t="n">
         <v>-0.03915843276345988</v>
       </c>
-      <c r="V83" s="3" t="n">
+      <c r="V83" s="2" t="n">
         <v>0.01796810289902097</v>
       </c>
-      <c r="W83" s="3" t="inlineStr">
+      <c r="W83" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8811,28 +8804,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E84" s="3" t="n">
+      <c r="E84" s="2" t="n">
         <v>-0.0255295440605192</v>
       </c>
-      <c r="F84" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G84" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H84" s="3" t="n">
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="n">
         <v>0.0698395061728395</v>
       </c>
-      <c r="I84" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J84" s="3" t="inlineStr">
+      <c r="I84" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8868,28 +8861,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R84" s="3" t="n">
+      <c r="R84" s="2" t="n">
         <v>0.0129497967000993</v>
       </c>
-      <c r="S84" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T84" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U84" s="3" t="n">
+      <c r="S84" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T84" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U84" s="2" t="n">
         <v>-0.0581687262119664</v>
       </c>
-      <c r="V84" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W84" s="3" t="inlineStr">
+      <c r="V84" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W84" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8916,28 +8909,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E85" s="3" t="n">
+      <c r="E85" s="2" t="n">
         <v>0.00557674808694642</v>
       </c>
-      <c r="F85" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G85" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H85" s="3" t="n">
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="n">
         <v>-0.00716188083273514</v>
       </c>
-      <c r="I85" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J85" s="3" t="inlineStr">
+      <c r="I85" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8973,28 +8966,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R85" s="3" t="n">
+      <c r="R85" s="2" t="n">
         <v>0.0139448211367372</v>
       </c>
-      <c r="S85" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T85" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U85" s="3" t="n">
+      <c r="S85" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T85" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U85" s="2" t="n">
         <v>0.0165010540411326</v>
       </c>
-      <c r="V85" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W85" s="3" t="inlineStr">
+      <c r="V85" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W85" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9021,24 +9014,24 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E86" s="3" t="n">
+      <c r="E86" s="2" t="n">
         <v>-0.221475864257249</v>
       </c>
-      <c r="F86" s="3" t="n">
+      <c r="F86" s="2" t="n">
         <v>-0.006868188794175809</v>
       </c>
-      <c r="G86" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H86" s="3" t="n">
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="n">
         <v>0.1305027636524432</v>
       </c>
-      <c r="I86" s="3" t="n">
+      <c r="I86" s="2" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="J86" s="3" t="n">
+      <c r="J86" s="2" t="n">
         <v>0.2268749475451113</v>
       </c>
       <c r="K86" t="n">
@@ -9068,28 +9061,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R86" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S86" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T86" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U86" s="3" t="n">
+      <c r="R86" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S86" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T86" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U86" s="2" t="n">
         <v>-0.2673727668133168</v>
       </c>
-      <c r="V86" s="3" t="n">
+      <c r="V86" s="2" t="n">
         <v>0.01796810289902097</v>
       </c>
-      <c r="W86" s="3" t="inlineStr">
+      <c r="W86" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9116,28 +9109,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E87" s="3" t="n">
+      <c r="E87" s="2" t="n">
         <v>0.07132578764591302</v>
       </c>
-      <c r="F87" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G87" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H87" s="3" t="n">
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="n">
         <v>-0.01820113439721505</v>
       </c>
-      <c r="I87" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J87" s="3" t="inlineStr">
+      <c r="I87" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J87" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9173,28 +9166,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R87" s="3" t="n">
+      <c r="R87" s="2" t="n">
         <v>0.04807614865476206</v>
       </c>
-      <c r="S87" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T87" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U87" s="3" t="n">
+      <c r="S87" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T87" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U87" s="2" t="n">
         <v>0.06942161018011195</v>
       </c>
-      <c r="V87" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W87" s="3" t="inlineStr">
+      <c r="V87" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W87" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>

--- a/Data_Formatted/Combined_OUTPUT.xlsx
+++ b/Data_Formatted/Combined_OUTPUT.xlsx
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -41,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -64,15 +66,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -439,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:W88"/>
+  <dimension ref="A1:W88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,37 +487,61 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Analyst Estimate Changes (Exercise)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44904.65239203248</v>
+      </c>
+    </row>
     <row r="3">
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>EPS change</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>new EPS vs Cons</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>P/E</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="5" t="n"/>
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>new EPS</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="P3" s="4" t="n"/>
+      <c r="Q3" s="5" t="n"/>
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>Sales change</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="S3" s="4" t="n"/>
+      <c r="T3" s="5" t="n"/>
+      <c r="U3" s="3" t="inlineStr">
         <is>
           <t>EBIT change</t>
         </is>
       </c>
+      <c r="V3" s="4" t="n"/>
+      <c r="W3" s="5" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,28 +645,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="6" t="n">
         <v>5.840111758925737e-05</v>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="n">
         <v>0.07628124203850306</v>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="I5" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -638,28 +702,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="R5" s="6" t="n">
         <v>0.06575311257457761</v>
       </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="n">
+      <c r="S5" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T5" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U5" s="6" t="n">
         <v>3.420357127636997e-05</v>
       </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
+      <c r="V5" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W5" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -686,28 +750,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="6" t="n">
         <v>0.01647607365312467</v>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="n">
         <v>-0.1107305970149254</v>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -743,30 +807,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="n">
+      <c r="R6" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S6" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T6" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U6" s="6" t="n">
         <v>-0.001506917629376919</v>
       </c>
-      <c r="V6" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W6" s="2" t="inlineStr">
+      <c r="V6" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W6" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -793,28 +857,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="6" t="n">
         <v>-0.026803076023425</v>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="n">
         <v>0.09112348822406124</v>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -850,30 +914,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U7" s="2" t="n">
+      <c r="R7" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S7" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T7" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U7" s="6" t="n">
         <v>-0.03110332438655196</v>
       </c>
-      <c r="V7" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W7" s="2" t="inlineStr">
+      <c r="V7" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W7" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -900,28 +964,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="6" t="n">
         <v>0.007563296748419601</v>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="n">
         <v>0.07523856825180264</v>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -957,28 +1021,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="R8" s="6" t="n">
         <v>0.05317793560844009</v>
       </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U8" s="2" t="n">
+      <c r="S8" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T8" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U8" s="6" t="n">
         <v>0.007268443312473449</v>
       </c>
-      <c r="V8" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W8" s="2" t="inlineStr">
+      <c r="V8" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W8" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1005,28 +1069,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="6" t="n">
         <v>-0.0217124507019239</v>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="n">
         <v>0.04093347468857678</v>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1062,30 +1126,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S9" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U9" s="2" t="n">
+      <c r="R9" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S9" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T9" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U9" s="6" t="n">
         <v>-0.02111534562029498</v>
       </c>
-      <c r="V9" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W9" s="2" t="inlineStr">
+      <c r="V9" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W9" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1112,28 +1176,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="6" t="n">
         <v>0.046133045636518</v>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="n">
         <v>0.0268634069400631</v>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1169,28 +1233,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R10" s="2" t="n">
+      <c r="R10" s="6" t="n">
         <v>0.02323066474645</v>
       </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="n">
+      <c r="S10" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T10" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U10" s="6" t="n">
         <v>-0.00374109716246696</v>
       </c>
-      <c r="V10" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W10" s="2" t="inlineStr">
+      <c r="V10" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W10" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1217,28 +1281,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="6" t="n">
         <v>0.0236032264056959</v>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="n">
         <v>-0.0701850928234968</v>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="I11" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J11" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1274,28 +1338,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R11" s="2" t="n">
+      <c r="R11" s="6" t="n">
         <v>0.0230699078884142</v>
       </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="n">
+      <c r="S11" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T11" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U11" s="6" t="n">
         <v>0.0263070535172958</v>
       </c>
-      <c r="V11" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W11" s="2" t="inlineStr">
+      <c r="V11" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W11" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1312,28 +1376,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="6" t="n">
         <v>-0.01667981110923226</v>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="n">
         <v>0.03664929304130848</v>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="I12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1369,32 +1433,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V12" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W12" s="2" t="inlineStr">
+      <c r="R12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W12" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1421,28 +1485,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="6" t="n">
         <v>-0.00587106688710932</v>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="n">
         <v>-0.142503939705379</v>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
+      <c r="I13" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1478,28 +1542,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R13" s="2" t="n">
+      <c r="R13" s="6" t="n">
         <v>-0.0017957774468107</v>
       </c>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="n">
+      <c r="S13" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T13" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U13" s="6" t="n">
         <v>-0.00494740942517791</v>
       </c>
-      <c r="V13" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W13" s="2" t="inlineStr">
+      <c r="V13" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W13" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1516,28 +1580,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="6" t="n">
         <v>0.02200238369137142</v>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="n">
         <v>-0.01556527702417621</v>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="I14" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J14" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1573,28 +1637,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R14" s="2" t="n">
+      <c r="R14" s="6" t="n">
         <v>0.01928512855160447</v>
       </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="n">
+      <c r="S14" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T14" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U14" s="6" t="n">
         <v>0.02240500074310425</v>
       </c>
-      <c r="V14" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W14" s="2" t="inlineStr">
+      <c r="V14" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W14" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1611,28 +1675,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="6" t="n">
         <v>-0.0004179583631418326</v>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="n">
         <v>-0.005287063026282235</v>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J15" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1668,30 +1732,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S15" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U15" s="2" t="n">
+      <c r="R15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U15" s="6" t="n">
         <v>-0.0004184926800941791</v>
       </c>
-      <c r="V15" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W15" s="2" t="inlineStr">
+      <c r="V15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W15" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1718,28 +1782,28 @@
           <t>CHF</t>
         </is>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="6" t="n">
         <v>0.02541318393800485</v>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="n">
         <v>-0.1102097053726169</v>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J16" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1775,30 +1839,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="n">
+      <c r="R16" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S16" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T16" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U16" s="6" t="n">
         <v>0.02350090336124479</v>
       </c>
-      <c r="V16" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W16" s="2" t="inlineStr">
+      <c r="V16" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W16" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1825,28 +1889,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="6" t="n">
         <v>-0.01975874205760464</v>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="n">
         <v>-0.08427355828991279</v>
       </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J17" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1882,32 +1946,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W17" s="2" t="inlineStr">
+      <c r="R17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W17" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1924,28 +1988,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="6" t="n">
         <v>0.04776449041011479</v>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H18" s="6" t="n">
         <v>0.06057574123989218</v>
       </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
+      <c r="I18" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J18" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1981,30 +2045,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="n">
+      <c r="R18" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S18" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T18" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U18" s="6" t="n">
         <v>0.04610553215403881</v>
       </c>
-      <c r="V18" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W18" s="2" t="inlineStr">
+      <c r="V18" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W18" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2031,28 +2095,28 @@
           <t>CHF</t>
         </is>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="6" t="n">
         <v>-0.4676977985512514</v>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="n">
         <v>-0.2944722807017545</v>
       </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2088,30 +2152,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="n">
+      <c r="R19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U19" s="6" t="n">
         <v>-0.2481005368590358</v>
       </c>
-      <c r="V19" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W19" s="2" t="inlineStr">
+      <c r="V19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W19" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2138,28 +2202,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="6" t="n">
         <v>0.001201234820136676</v>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H20" s="6" t="n">
         <v>0.05713713148756305</v>
       </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
+      <c r="I20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J20" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2195,32 +2259,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U20" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V20" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W20" s="2" t="inlineStr">
+      <c r="R20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W20" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2237,28 +2301,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="6" t="n">
         <v>-0.006159188135929972</v>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G21" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H21" s="6" t="n">
         <v>0.1042460314985825</v>
       </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
+      <c r="I21" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J21" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2294,28 +2358,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R21" s="2" t="n">
+      <c r="R21" s="6" t="n">
         <v>-0.01100614006983758</v>
       </c>
-      <c r="S21" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U21" s="2" t="n">
+      <c r="S21" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T21" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U21" s="6" t="n">
         <v>-0.01100614006983724</v>
       </c>
-      <c r="V21" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W21" s="2" t="inlineStr">
+      <c r="V21" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W21" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2342,28 +2406,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="6" t="n">
         <v>-0.01962953701116887</v>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H22" s="6" t="n">
         <v>-0.04454035676549151</v>
       </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
+      <c r="I22" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J22" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2399,28 +2463,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R22" s="2" t="n">
+      <c r="R22" s="6" t="n">
         <v>0.09586070623745746</v>
       </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="n">
+      <c r="S22" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T22" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U22" s="6" t="n">
         <v>0.06333151470414689</v>
       </c>
-      <c r="V22" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W22" s="2" t="inlineStr">
+      <c r="V22" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W22" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2447,28 +2511,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="6" t="n">
         <v>0.004209965498427781</v>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
+      <c r="F23" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G23" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H23" s="6" t="n">
         <v>0.01442351470818415</v>
       </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
+      <c r="I23" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J23" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2504,28 +2568,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R23" s="2" t="n">
+      <c r="R23" s="6" t="n">
         <v>0.002196251107029035</v>
       </c>
-      <c r="S23" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T23" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U23" s="2" t="n">
+      <c r="S23" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T23" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U23" s="6" t="n">
         <v>0.004087378260795527</v>
       </c>
-      <c r="V23" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W23" s="2" t="inlineStr">
+      <c r="V23" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W23" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2552,28 +2616,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="6" t="n">
         <v>-0.01757050011702127</v>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
+      <c r="F24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H24" s="6" t="n">
         <v>-0.1025321019672339</v>
       </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
+      <c r="I24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J24" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2609,32 +2673,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U24" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V24" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W24" s="2" t="inlineStr">
+      <c r="R24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W24" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2661,28 +2725,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="6" t="n">
         <v>0.06739763995636361</v>
       </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
+      <c r="F25" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G25" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H25" s="6" t="n">
         <v>-0.006582079147827158</v>
       </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
+      <c r="I25" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J25" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2718,28 +2782,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R25" s="2" t="n">
+      <c r="R25" s="6" t="n">
         <v>-0.0001756024294615743</v>
       </c>
-      <c r="S25" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="n">
+      <c r="S25" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T25" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U25" s="6" t="n">
         <v>-0.01092109080564119</v>
       </c>
-      <c r="V25" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W25" s="2" t="inlineStr">
+      <c r="V25" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W25" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2766,28 +2830,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="6" t="n">
         <v>0.1041172474132526</v>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
+      <c r="F26" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G26" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H26" s="6" t="n">
         <v>0.1756026559014003</v>
       </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="I26" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J26" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2823,28 +2887,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R26" s="2" t="n">
+      <c r="R26" s="6" t="n">
         <v>0.004667505873919175</v>
       </c>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U26" s="2" t="n">
+      <c r="S26" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T26" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U26" s="6" t="n">
         <v>0.001847579835412061</v>
       </c>
-      <c r="V26" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W26" s="2" t="inlineStr">
+      <c r="V26" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W26" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2871,28 +2935,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="6" t="n">
         <v>-0.0389966711609961</v>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
+      <c r="F27" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G27" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H27" s="6" t="n">
         <v>0.108253579952267</v>
       </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
+      <c r="I27" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J27" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2928,28 +2992,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R27" s="2" t="n">
+      <c r="R27" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="S27" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T27" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U27" s="2" t="n">
+      <c r="S27" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T27" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U27" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="V27" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W27" s="2" t="inlineStr">
+      <c r="V27" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W27" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2976,28 +3040,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="6" t="n">
         <v>0.008162080299386131</v>
       </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
+      <c r="F28" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G28" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H28" s="6" t="n">
         <v>0.0417528795811519</v>
       </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
+      <c r="I28" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J28" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3033,28 +3097,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R28" s="2" t="n">
+      <c r="R28" s="6" t="n">
         <v>0.0183009119859956</v>
       </c>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U28" s="2" t="n">
+      <c r="S28" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T28" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U28" s="6" t="n">
         <v>0.0431432002727963</v>
       </c>
-      <c r="V28" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W28" s="2" t="inlineStr">
+      <c r="V28" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W28" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3071,24 +3135,24 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="6" t="n">
         <v>0.1012840208006442</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="6" t="n">
         <v>-0.006868188794175809</v>
       </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
+      <c r="G29" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H29" s="6" t="n">
         <v>-0.1825853658536585</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="6" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="J29" s="6" t="n">
         <v>0.2268749475451113</v>
       </c>
       <c r="K29" t="n">
@@ -3118,28 +3182,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S29" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T29" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U29" s="2" t="n">
+      <c r="R29" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S29" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T29" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U29" s="6" t="n">
         <v>-0.01336559296712238</v>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="6" t="n">
         <v>0.01796810289902097</v>
       </c>
-      <c r="W29" s="2" t="inlineStr">
+      <c r="W29" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3166,28 +3230,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="6" t="n">
         <v>-0.007805116918217836</v>
       </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
+      <c r="F30" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G30" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H30" s="6" t="n">
         <v>-0.4805592560755999</v>
       </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="I30" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J30" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3223,28 +3287,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R30" s="2" t="n">
+      <c r="R30" s="6" t="n">
         <v>-0.004648792603658358</v>
       </c>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="n">
+      <c r="S30" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T30" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U30" s="6" t="n">
         <v>-0.005096362907756169</v>
       </c>
-      <c r="V30" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W30" s="2" t="inlineStr">
+      <c r="V30" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W30" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3271,28 +3335,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="6" t="n">
         <v>-0.02060092726569981</v>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G31" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H31" s="6" t="n">
         <v>0.008422251506024159</v>
       </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="I31" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J31" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3328,30 +3392,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S31" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T31" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U31" s="2" t="n">
+      <c r="R31" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S31" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T31" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U31" s="6" t="n">
         <v>-0.02034776293706925</v>
       </c>
-      <c r="V31" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W31" s="2" t="inlineStr">
+      <c r="V31" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W31" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3368,28 +3432,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="6" t="n">
         <v>-0.00281303921806671</v>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
+      <c r="F32" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G32" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H32" s="6" t="n">
         <v>-0.050602908277405</v>
       </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
+      <c r="I32" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J32" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3425,28 +3489,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R32" s="2" t="n">
+      <c r="R32" s="6" t="n">
         <v>-0.00410732710221073</v>
       </c>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T32" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U32" s="2" t="n">
+      <c r="S32" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T32" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U32" s="6" t="n">
         <v>-0.000647121030439513</v>
       </c>
-      <c r="V32" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W32" s="2" t="inlineStr">
+      <c r="V32" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W32" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3473,28 +3537,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="6" t="n">
         <v>-0.008793017456359169</v>
       </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
+      <c r="F33" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G33" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H33" s="6" t="n">
         <v>-0.143375</v>
       </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
+      <c r="I33" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J33" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3530,28 +3594,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R33" s="2" t="n">
+      <c r="R33" s="6" t="n">
         <v>-0.00824623430556248</v>
       </c>
-      <c r="S33" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T33" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U33" s="2" t="n">
+      <c r="S33" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T33" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U33" s="6" t="n">
         <v>-0.008246233967340699</v>
       </c>
-      <c r="V33" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W33" s="2" t="inlineStr">
+      <c r="V33" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W33" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3568,28 +3632,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="6" t="n">
         <v>0.0002543725453896251</v>
       </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
+      <c r="F34" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G34" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H34" s="6" t="n">
         <v>-0.05270586482066297</v>
       </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
+      <c r="I34" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J34" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3625,28 +3689,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R34" s="2" t="n">
+      <c r="R34" s="6" t="n">
         <v>-0.00113221280431719</v>
       </c>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U34" s="2" t="n">
+      <c r="S34" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T34" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U34" s="6" t="n">
         <v>-0.0002904802886343205</v>
       </c>
-      <c r="V34" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W34" s="2" t="inlineStr">
+      <c r="V34" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W34" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3673,28 +3737,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="6" t="n">
         <v>0.065071828147543</v>
       </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
+      <c r="F35" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G35" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H35" s="6" t="n">
         <v>0.5404417475728156</v>
       </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
+      <c r="I35" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J35" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3730,30 +3794,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R35" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S35" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T35" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U35" s="2" t="n">
+      <c r="R35" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S35" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T35" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U35" s="6" t="n">
         <v>0.03980841717441654</v>
       </c>
-      <c r="V35" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W35" s="2" t="inlineStr">
+      <c r="V35" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W35" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3780,28 +3844,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="6" t="n">
         <v>-0.05966395437627925</v>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
+      <c r="F36" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G36" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H36" s="6" t="n">
         <v>-0.3559255396473214</v>
       </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
+      <c r="I36" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J36" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3837,28 +3901,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R36" s="2" t="n">
+      <c r="R36" s="6" t="n">
         <v>-0.001350241704499267</v>
       </c>
-      <c r="S36" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T36" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U36" s="2" t="n">
+      <c r="S36" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T36" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U36" s="6" t="n">
         <v>-0.06570628192768624</v>
       </c>
-      <c r="V36" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W36" s="2" t="inlineStr">
+      <c r="V36" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W36" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3885,28 +3949,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="6" t="n">
         <v>0.01196346325805142</v>
       </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
+      <c r="F37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H37" s="6" t="n">
         <v>0.01209068469594632</v>
       </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
+      <c r="I37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J37" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3942,32 +4006,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R37" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S37" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T37" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U37" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V37" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W37" s="2" t="inlineStr">
+      <c r="R37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W37" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3994,28 +4058,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="6" t="n">
         <v>-0.07278866329248247</v>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
+      <c r="F38" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G38" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H38" s="6" t="n">
         <v>-0.07072997237569045</v>
       </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
+      <c r="I38" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J38" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4051,30 +4115,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R38" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S38" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T38" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U38" s="2" t="n">
+      <c r="R38" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S38" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T38" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U38" s="6" t="n">
         <v>0.003251911442059412</v>
       </c>
-      <c r="V38" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W38" s="2" t="inlineStr">
+      <c r="V38" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W38" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4101,28 +4165,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="6" t="n">
         <v>0.01367895472204217</v>
       </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="n">
+      <c r="F39" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G39" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H39" s="6" t="n">
         <v>0.001931171938577725</v>
       </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
+      <c r="I39" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J39" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4158,28 +4222,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R39" s="2" t="n">
+      <c r="R39" s="6" t="n">
         <v>0.01015382467042425</v>
       </c>
-      <c r="S39" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T39" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U39" s="2" t="n">
+      <c r="S39" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T39" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U39" s="6" t="n">
         <v>0.01312075177455241</v>
       </c>
-      <c r="V39" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W39" s="2" t="inlineStr">
+      <c r="V39" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W39" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4206,28 +4270,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="6" t="n">
         <v>-0.0007196530191379438</v>
       </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
+      <c r="F40" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G40" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H40" s="6" t="n">
         <v>-0.007546052631579037</v>
       </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
+      <c r="I40" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J40" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4263,30 +4327,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R40" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S40" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T40" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U40" s="2" t="n">
+      <c r="R40" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S40" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T40" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U40" s="6" t="n">
         <v>-0.0005882620488706101</v>
       </c>
-      <c r="V40" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W40" s="2" t="inlineStr">
+      <c r="V40" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W40" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4303,28 +4367,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="6" t="n">
         <v>0.00321231024660785</v>
       </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
+      <c r="F41" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G41" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H41" s="6" t="n">
         <v>-0.144771794871795</v>
       </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
+      <c r="I41" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J41" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4360,28 +4424,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R41" s="2" t="n">
+      <c r="R41" s="6" t="n">
         <v>0.00249407969908666</v>
       </c>
-      <c r="S41" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T41" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U41" s="2" t="n">
+      <c r="S41" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T41" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U41" s="6" t="n">
         <v>0.00264409303708257</v>
       </c>
-      <c r="V41" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W41" s="2" t="inlineStr">
+      <c r="V41" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W41" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4408,28 +4472,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="6" t="n">
         <v>0.004515926182184327</v>
       </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
+      <c r="F42" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G42" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H42" s="6" t="n">
         <v>0.04962164719629869</v>
       </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
+      <c r="I42" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J42" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4465,28 +4529,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R42" s="2" t="n">
+      <c r="R42" s="6" t="n">
         <v>-0.0004969480003301774</v>
       </c>
-      <c r="S42" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T42" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U42" s="2" t="n">
+      <c r="S42" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T42" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U42" s="6" t="n">
         <v>0.005423703568077309</v>
       </c>
-      <c r="V42" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W42" s="2" t="inlineStr">
+      <c r="V42" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W42" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4513,28 +4577,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="6" t="n">
         <v>0.009829177400395231</v>
       </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="n">
+      <c r="F43" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G43" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H43" s="6" t="n">
         <v>-0.0058939393939394</v>
       </c>
-      <c r="I43" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
+      <c r="I43" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J43" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4570,28 +4634,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R43" s="2" t="n">
+      <c r="R43" s="6" t="n">
         <v>0.0835907150116342</v>
       </c>
-      <c r="S43" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T43" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U43" s="2" t="n">
+      <c r="S43" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T43" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U43" s="6" t="n">
         <v>0.0278155617800451</v>
       </c>
-      <c r="V43" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W43" s="2" t="inlineStr">
+      <c r="V43" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W43" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4618,28 +4682,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="6" t="n">
         <v>-0.0050108387011692</v>
       </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
+      <c r="F44" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G44" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H44" s="6" t="n">
         <v>0.009124869383489997</v>
       </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
+      <c r="I44" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J44" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4675,30 +4739,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R44" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S44" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T44" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U44" s="2" t="n">
+      <c r="R44" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S44" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T44" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U44" s="6" t="n">
         <v>-0.005163277982837415</v>
       </c>
-      <c r="V44" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W44" s="2" t="inlineStr">
+      <c r="V44" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W44" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4715,28 +4779,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="6" t="n">
         <v>-0.008330887673331011</v>
       </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="n">
+      <c r="F45" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G45" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H45" s="6" t="n">
         <v>-0.0004003553517999414</v>
       </c>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
+      <c r="I45" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J45" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4772,28 +4836,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R45" s="2" t="n">
+      <c r="R45" s="6" t="n">
         <v>0.01032017895835247</v>
       </c>
-      <c r="S45" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T45" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U45" s="2" t="n">
+      <c r="S45" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T45" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U45" s="6" t="n">
         <v>-0.007639074754622888</v>
       </c>
-      <c r="V45" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W45" s="2" t="inlineStr">
+      <c r="V45" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W45" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4820,28 +4884,28 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="6" t="n">
         <v>0.01178769379423989</v>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
+      <c r="F46" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G46" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H46" s="6" t="n">
         <v>-0.01953487192493031</v>
       </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
+      <c r="I46" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J46" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4877,30 +4941,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U46" s="2" t="n">
+      <c r="R46" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S46" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T46" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U46" s="6" t="n">
         <v>0.05420027465317249</v>
       </c>
-      <c r="V46" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W46" s="2" t="inlineStr">
+      <c r="V46" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W46" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4927,28 +4991,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="6" t="n">
         <v>0.005792100892638485</v>
       </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
+      <c r="F47" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G47" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H47" s="6" t="n">
         <v>-0.02978616835114367</v>
       </c>
-      <c r="I47" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J47" s="2" t="inlineStr">
+      <c r="I47" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J47" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4984,28 +5048,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R47" s="2" t="n">
+      <c r="R47" s="6" t="n">
         <v>0.002055650860119718</v>
       </c>
-      <c r="S47" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T47" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U47" s="2" t="n">
+      <c r="S47" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T47" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U47" s="6" t="n">
         <v>0.005118274159374492</v>
       </c>
-      <c r="V47" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W47" s="2" t="inlineStr">
+      <c r="V47" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W47" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5022,28 +5086,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="6" t="n">
         <v>0.0222707361134257</v>
       </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
+      <c r="F48" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G48" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H48" s="6" t="n">
         <v>0.1107853846153846</v>
       </c>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
+      <c r="I48" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J48" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5079,30 +5143,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R48" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S48" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T48" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U48" s="2" t="n">
+      <c r="R48" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S48" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T48" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U48" s="6" t="n">
         <v>0.02545244027159419</v>
       </c>
-      <c r="V48" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W48" s="2" t="inlineStr">
+      <c r="V48" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W48" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5129,28 +5193,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="6" t="n">
         <v>0.02408235987693486</v>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="n">
+      <c r="F49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H49" s="6" t="n">
         <v>0.05606788876410818</v>
       </c>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
+      <c r="I49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J49" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5186,32 +5250,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R49" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S49" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T49" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U49" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V49" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W49" s="2" t="inlineStr">
+      <c r="R49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W49" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5238,28 +5302,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="6" t="n">
         <v>0.01463869045839927</v>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="n">
+      <c r="F50" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G50" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H50" s="6" t="n">
         <v>0.06572101297614052</v>
       </c>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
+      <c r="I50" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J50" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5295,30 +5359,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R50" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S50" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T50" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U50" s="2" t="n">
+      <c r="R50" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S50" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T50" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U50" s="6" t="n">
         <v>0.08605828450245427</v>
       </c>
-      <c r="V50" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W50" s="2" t="inlineStr">
+      <c r="V50" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W50" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5345,28 +5409,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="6" t="n">
         <v>0.0007359845127379305</v>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="n">
+      <c r="F51" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G51" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H51" s="6" t="n">
         <v>-0.02574229854971977</v>
       </c>
-      <c r="I51" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
+      <c r="I51" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J51" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5402,28 +5466,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R51" s="2" t="n">
+      <c r="R51" s="6" t="n">
         <v>0.006751544394446141</v>
       </c>
-      <c r="S51" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T51" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U51" s="2" t="n">
+      <c r="S51" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T51" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U51" s="6" t="n">
         <v>-0.007759017395819079</v>
       </c>
-      <c r="V51" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W51" s="2" t="inlineStr">
+      <c r="V51" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W51" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5450,28 +5514,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="6" t="n">
         <v>-0.07203958604787</v>
       </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H52" s="2" t="n">
+      <c r="F52" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G52" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H52" s="6" t="n">
         <v>-0.0750649727767695</v>
       </c>
-      <c r="I52" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
+      <c r="I52" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J52" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5507,28 +5571,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R52" s="2" t="n">
+      <c r="R52" s="6" t="n">
         <v>-0.0206700562551202</v>
       </c>
-      <c r="S52" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T52" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U52" s="2" t="n">
+      <c r="S52" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T52" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U52" s="6" t="n">
         <v>-0.105705355946625</v>
       </c>
-      <c r="V52" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W52" s="2" t="inlineStr">
+      <c r="V52" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W52" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5545,28 +5609,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="6" t="n">
         <v>-0.06854784566725645</v>
       </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H53" s="2" t="n">
+      <c r="F53" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G53" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H53" s="6" t="n">
         <v>-0.03744823828550681</v>
       </c>
-      <c r="I53" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
+      <c r="I53" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J53" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5602,30 +5666,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R53" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S53" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T53" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U53" s="2" t="n">
+      <c r="R53" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S53" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T53" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U53" s="6" t="n">
         <v>-0.06693613365619397</v>
       </c>
-      <c r="V53" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W53" s="2" t="inlineStr">
+      <c r="V53" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W53" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5652,28 +5716,28 @@
           <t>NOK</t>
         </is>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="6" t="n">
         <v>-0.04061760451178948</v>
       </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="n">
+      <c r="F54" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G54" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H54" s="6" t="n">
         <v>-0.2015862690707351</v>
       </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
+      <c r="I54" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J54" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5709,30 +5773,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R54" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S54" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T54" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U54" s="2" t="n">
+      <c r="R54" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S54" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T54" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U54" s="6" t="n">
         <v>-0.0406608553625455</v>
       </c>
-      <c r="V54" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W54" s="2" t="inlineStr">
+      <c r="V54" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W54" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5759,28 +5823,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E55" s="2" t="n">
+      <c r="E55" s="6" t="n">
         <v>-0.0436062007306705</v>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="n">
+      <c r="F55" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G55" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H55" s="6" t="n">
         <v>-0.184158964879852</v>
       </c>
-      <c r="I55" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
+      <c r="I55" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J55" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5816,28 +5880,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R55" s="2" t="n">
+      <c r="R55" s="6" t="n">
         <v>0.0133992335437561</v>
       </c>
-      <c r="S55" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T55" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U55" s="2" t="n">
+      <c r="S55" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T55" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U55" s="6" t="n">
         <v>-0.0215117584082215</v>
       </c>
-      <c r="V55" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W55" s="2" t="inlineStr">
+      <c r="V55" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W55" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5864,28 +5928,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="6" t="n">
         <v>0.004213424817720057</v>
       </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="n">
+      <c r="F56" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G56" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H56" s="6" t="n">
         <v>-0.006776989247311849</v>
       </c>
-      <c r="I56" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
+      <c r="I56" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J56" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5921,30 +5985,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R56" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S56" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T56" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U56" s="2" t="n">
+      <c r="R56" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S56" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T56" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U56" s="6" t="n">
         <v>0.003334878108349544</v>
       </c>
-      <c r="V56" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W56" s="2" t="inlineStr">
+      <c r="V56" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W56" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5971,28 +6035,28 @@
           <t>DKK</t>
         </is>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="6" t="n">
         <v>-0.02573619865173769</v>
       </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H57" s="2" t="n">
+      <c r="F57" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G57" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H57" s="6" t="n">
         <v>-0.09563479705180111</v>
       </c>
-      <c r="I57" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
+      <c r="I57" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J57" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6028,30 +6092,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R57" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S57" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T57" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U57" s="2" t="n">
+      <c r="R57" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S57" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T57" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U57" s="6" t="n">
         <v>-0.02465501340595096</v>
       </c>
-      <c r="V57" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W57" s="2" t="inlineStr">
+      <c r="V57" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W57" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6078,28 +6142,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="E58" s="6" t="n">
         <v>0.00671796508432819</v>
       </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H58" s="2" t="n">
+      <c r="F58" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G58" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H58" s="6" t="n">
         <v>0.328287516170763</v>
       </c>
-      <c r="I58" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
+      <c r="I58" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J58" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6135,28 +6199,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R58" s="2" t="n">
+      <c r="R58" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="S58" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T58" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U58" s="2" t="n">
+      <c r="S58" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T58" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U58" s="6" t="n">
         <v>-0.00691702207838096</v>
       </c>
-      <c r="V58" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W58" s="2" t="inlineStr">
+      <c r="V58" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W58" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6183,28 +6247,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="E59" s="6" t="n">
         <v>-0.0106073922700253</v>
       </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H59" s="2" t="n">
+      <c r="F59" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G59" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H59" s="6" t="n">
         <v>0.286339451786588</v>
       </c>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
+      <c r="I59" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J59" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6240,28 +6304,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R59" s="2" t="n">
+      <c r="R59" s="6" t="n">
         <v>0.0101695676939675</v>
       </c>
-      <c r="S59" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T59" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U59" s="2" t="n">
+      <c r="S59" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T59" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U59" s="6" t="n">
         <v>-0.0294926320821921</v>
       </c>
-      <c r="V59" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W59" s="2" t="inlineStr">
+      <c r="V59" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W59" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6288,28 +6352,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="6" t="n">
         <v>0.1804518908983005</v>
       </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H60" s="2" t="n">
+      <c r="F60" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G60" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H60" s="6" t="n">
         <v>0.06823356643356648</v>
       </c>
-      <c r="I60" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
+      <c r="I60" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J60" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6345,30 +6409,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R60" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S60" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T60" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U60" s="2" t="n">
+      <c r="R60" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S60" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T60" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U60" s="6" t="n">
         <v>0.1608482987189881</v>
       </c>
-      <c r="V60" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W60" s="2" t="inlineStr">
+      <c r="V60" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W60" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6395,28 +6459,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E61" s="2" t="n">
+      <c r="E61" s="6" t="n">
         <v>0.3436929035885032</v>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="n">
+      <c r="F61" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G61" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H61" s="6" t="n">
         <v>0.4714991304347824</v>
       </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
+      <c r="I61" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J61" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6452,30 +6516,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R61" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S61" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T61" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U61" s="2" t="n">
+      <c r="R61" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S61" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T61" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U61" s="6" t="n">
         <v>0.03503361742307426</v>
       </c>
-      <c r="V61" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W61" s="2" t="inlineStr">
+      <c r="V61" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W61" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6502,28 +6566,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="6" t="n">
         <v>-0.007731128314700686</v>
       </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H62" s="2" t="n">
+      <c r="F62" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G62" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H62" s="6" t="n">
         <v>0.02866867135147833</v>
       </c>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
+      <c r="I62" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J62" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6559,28 +6623,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R62" s="2" t="n">
+      <c r="R62" s="6" t="n">
         <v>0.01645409909458473</v>
       </c>
-      <c r="S62" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T62" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U62" s="2" t="n">
+      <c r="S62" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T62" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U62" s="6" t="n">
         <v>0.01075318448181317</v>
       </c>
-      <c r="V62" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W62" s="2" t="inlineStr">
+      <c r="V62" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W62" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6607,28 +6671,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="6" t="n">
         <v>0.0117711048807413</v>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H63" s="2" t="n">
+      <c r="F63" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G63" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H63" s="6" t="n">
         <v>0.07712380952380959</v>
       </c>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
+      <c r="I63" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J63" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6664,28 +6728,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R63" s="2" t="n">
+      <c r="R63" s="6" t="n">
         <v>0.0137582666355782</v>
       </c>
-      <c r="S63" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T63" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U63" s="2" t="n">
+      <c r="S63" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T63" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U63" s="6" t="n">
         <v>0.0121648534418399</v>
       </c>
-      <c r="V63" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W63" s="2" t="inlineStr">
+      <c r="V63" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W63" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6712,28 +6776,28 @@
           <t>NOK</t>
         </is>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="6" t="n">
         <v>-0.09023893724577181</v>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H64" s="2" t="n">
+      <c r="F64" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G64" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H64" s="6" t="n">
         <v>-0.2063768490816759</v>
       </c>
-      <c r="I64" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
+      <c r="I64" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J64" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6769,28 +6833,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R64" s="2" t="n">
+      <c r="R64" s="6" t="n">
         <v>0.004219208787627382</v>
       </c>
-      <c r="S64" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T64" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U64" s="2" t="n">
+      <c r="S64" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T64" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U64" s="6" t="n">
         <v>-0.06829122852755543</v>
       </c>
-      <c r="V64" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W64" s="2" t="inlineStr">
+      <c r="V64" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W64" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6817,28 +6881,28 @@
           <t>CHF</t>
         </is>
       </c>
-      <c r="E65" s="2" t="n">
+      <c r="E65" s="6" t="n">
         <v>0.01242695710466468</v>
       </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H65" s="2" t="n">
+      <c r="F65" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G65" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H65" s="6" t="n">
         <v>-0.01060957799260931</v>
       </c>
-      <c r="I65" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
+      <c r="I65" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J65" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6874,28 +6938,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R65" s="2" t="n">
+      <c r="R65" s="6" t="n">
         <v>0.006089371222095519</v>
       </c>
-      <c r="S65" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T65" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U65" s="2" t="n">
+      <c r="S65" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T65" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U65" s="6" t="n">
         <v>0.01175865577223978</v>
       </c>
-      <c r="V65" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W65" s="2" t="inlineStr">
+      <c r="V65" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W65" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6922,28 +6986,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="6" t="n">
         <v>0.07738977867853447</v>
       </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H66" s="2" t="n">
+      <c r="F66" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G66" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H66" s="6" t="n">
         <v>0.0322501876481911</v>
       </c>
-      <c r="I66" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
+      <c r="I66" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J66" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6979,28 +7043,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R66" s="2" t="n">
+      <c r="R66" s="6" t="n">
         <v>-0.2218307263517468</v>
       </c>
-      <c r="S66" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T66" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U66" s="2" t="n">
+      <c r="S66" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T66" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U66" s="6" t="n">
         <v>0.07625128302004236</v>
       </c>
-      <c r="V66" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W66" s="2" t="inlineStr">
+      <c r="V66" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W66" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7027,28 +7091,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E67" s="2" t="n">
+      <c r="E67" s="6" t="n">
         <v>0.02296225702569155</v>
       </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H67" s="2" t="n">
+      <c r="F67" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G67" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H67" s="6" t="n">
         <v>0.1172414843877505</v>
       </c>
-      <c r="I67" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
+      <c r="I67" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J67" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7084,28 +7148,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R67" s="2" t="n">
+      <c r="R67" s="6" t="n">
         <v>0.01829457577109106</v>
       </c>
-      <c r="S67" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T67" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U67" s="2" t="n">
+      <c r="S67" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T67" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U67" s="6" t="n">
         <v>0.02059124636323229</v>
       </c>
-      <c r="V67" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W67" s="2" t="inlineStr">
+      <c r="V67" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W67" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7132,28 +7196,28 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="6" t="n">
         <v>-0.03186641165543727</v>
       </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H68" s="2" t="n">
+      <c r="F68" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G68" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H68" s="6" t="n">
         <v>0.0193597682780664</v>
       </c>
-      <c r="I68" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
+      <c r="I68" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J68" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7189,30 +7253,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R68" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S68" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T68" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U68" s="2" t="n">
+      <c r="R68" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S68" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T68" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U68" s="6" t="n">
         <v>-0.02461153135251753</v>
       </c>
-      <c r="V68" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W68" s="2" t="inlineStr">
+      <c r="V68" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W68" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7239,28 +7303,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="6" t="n">
         <v>0.08924111877864238</v>
       </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H69" s="2" t="n">
+      <c r="F69" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G69" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H69" s="6" t="n">
         <v>0.3265140746352631</v>
       </c>
-      <c r="I69" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
+      <c r="I69" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J69" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7296,28 +7360,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R69" s="2" t="n">
+      <c r="R69" s="6" t="n">
         <v>0.01003245269603203</v>
       </c>
-      <c r="S69" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T69" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U69" s="2" t="n">
+      <c r="S69" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T69" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U69" s="6" t="n">
         <v>0.02761698436519655</v>
       </c>
-      <c r="V69" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W69" s="2" t="inlineStr">
+      <c r="V69" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W69" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7344,28 +7408,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="6" t="n">
         <v>0.03463220501952935</v>
       </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H70" s="2" t="n">
+      <c r="F70" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G70" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H70" s="6" t="n">
         <v>-0.2230525258924612</v>
       </c>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
+      <c r="I70" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J70" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7401,28 +7465,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R70" s="2" t="n">
+      <c r="R70" s="6" t="n">
         <v>-0.00199943839898975</v>
       </c>
-      <c r="S70" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T70" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U70" s="2" t="n">
+      <c r="S70" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T70" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U70" s="6" t="n">
         <v>0.04748832890731847</v>
       </c>
-      <c r="V70" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W70" s="2" t="inlineStr">
+      <c r="V70" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W70" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7449,28 +7513,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E71" s="2" t="n">
+      <c r="E71" s="6" t="n">
         <v>-0.07672804903929653</v>
       </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H71" s="2" t="n">
+      <c r="F71" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G71" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H71" s="6" t="n">
         <v>-0.06038781814827787</v>
       </c>
-      <c r="I71" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
+      <c r="I71" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J71" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7506,28 +7570,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R71" s="2" t="n">
+      <c r="R71" s="6" t="n">
         <v>0.04540866587563719</v>
       </c>
-      <c r="S71" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T71" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U71" s="2" t="n">
+      <c r="S71" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T71" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U71" s="6" t="n">
         <v>-0.0757898050099316</v>
       </c>
-      <c r="V71" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W71" s="2" t="inlineStr">
+      <c r="V71" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W71" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7554,32 +7618,32 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H72" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I72" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J72" s="2" t="inlineStr">
+      <c r="E72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J72" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7615,32 +7679,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R72" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S72" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T72" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U72" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V72" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W72" s="2" t="inlineStr">
+      <c r="R72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W72" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7667,28 +7731,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E73" s="2" t="n">
+      <c r="E73" s="6" t="n">
         <v>-0.01004327517922798</v>
       </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H73" s="2" t="n">
+      <c r="F73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H73" s="6" t="n">
         <v>-0.004655407413474255</v>
       </c>
-      <c r="I73" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J73" s="2" t="inlineStr">
+      <c r="I73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J73" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7724,32 +7788,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R73" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S73" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T73" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U73" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V73" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W73" s="2" t="inlineStr">
+      <c r="R73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W73" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7776,28 +7840,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E74" s="2" t="n">
+      <c r="E74" s="6" t="n">
         <v>-0.02117019684277077</v>
       </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H74" s="2" t="n">
+      <c r="F74" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G74" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H74" s="6" t="n">
         <v>0.009805101807634387</v>
       </c>
-      <c r="I74" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J74" s="2" t="inlineStr">
+      <c r="I74" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J74" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7833,28 +7897,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R74" s="2" t="n">
+      <c r="R74" s="6" t="n">
         <v>0.009213600243523246</v>
       </c>
-      <c r="S74" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T74" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U74" s="2" t="n">
+      <c r="S74" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T74" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U74" s="6" t="n">
         <v>-0.01994719567118897</v>
       </c>
-      <c r="V74" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W74" s="2" t="inlineStr">
+      <c r="V74" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W74" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7881,28 +7945,28 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="E75" s="2" t="n">
+      <c r="E75" s="6" t="n">
         <v>-0.06724817138712656</v>
       </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H75" s="2" t="n">
+      <c r="F75" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G75" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H75" s="6" t="n">
         <v>-0.07771495198902612</v>
       </c>
-      <c r="I75" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
+      <c r="I75" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J75" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7938,30 +8002,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R75" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S75" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T75" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U75" s="2" t="n">
+      <c r="R75" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S75" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T75" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U75" s="6" t="n">
         <v>-0.07231881921052437</v>
       </c>
-      <c r="V75" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W75" s="2" t="inlineStr">
+      <c r="V75" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W75" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7988,28 +8052,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E76" s="2" t="n">
+      <c r="E76" s="6" t="n">
         <v>0.1110349554489376</v>
       </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H76" s="2" t="n">
+      <c r="F76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H76" s="6" t="n">
         <v>-0.1215153940743205</v>
       </c>
-      <c r="I76" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
+      <c r="I76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J76" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8045,32 +8109,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R76" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S76" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T76" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U76" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V76" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W76" s="2" t="inlineStr">
+      <c r="R76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W76" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8097,28 +8161,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="6" t="n">
         <v>-0.03083104420448857</v>
       </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H77" s="2" t="n">
+      <c r="F77" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G77" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H77" s="6" t="n">
         <v>0.04464506734464724</v>
       </c>
-      <c r="I77" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
+      <c r="I77" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J77" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8154,28 +8218,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R77" s="2" t="n">
+      <c r="R77" s="6" t="n">
         <v>0.00210380970885149</v>
       </c>
-      <c r="S77" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T77" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U77" s="2" t="n">
+      <c r="S77" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T77" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U77" s="6" t="n">
         <v>-0.03184856564869232</v>
       </c>
-      <c r="V77" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W77" s="2" t="inlineStr">
+      <c r="V77" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W77" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8202,28 +8266,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="6" t="n">
         <v>0.02378927329735722</v>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H78" s="2" t="n">
+      <c r="F78" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G78" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H78" s="6" t="n">
         <v>0.06692553487079733</v>
       </c>
-      <c r="I78" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
+      <c r="I78" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J78" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8259,30 +8323,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R78" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S78" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T78" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U78" s="2" t="n">
+      <c r="R78" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S78" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T78" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U78" s="6" t="n">
         <v>0.02458973359581022</v>
       </c>
-      <c r="V78" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W78" s="2" t="inlineStr">
+      <c r="V78" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W78" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8309,28 +8373,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="6" t="n">
         <v>0.00197990773646195</v>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H79" s="2" t="n">
+      <c r="F79" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G79" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H79" s="6" t="n">
         <v>-0.09454781144134961</v>
       </c>
-      <c r="I79" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
+      <c r="I79" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J79" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8366,28 +8430,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R79" s="2" t="n">
+      <c r="R79" s="6" t="n">
         <v>0.001745104996523583</v>
       </c>
-      <c r="S79" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T79" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U79" s="2" t="n">
+      <c r="S79" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T79" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U79" s="6" t="n">
         <v>0.00180947796280706</v>
       </c>
-      <c r="V79" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W79" s="2" t="inlineStr">
+      <c r="V79" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W79" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8414,28 +8478,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E80" s="2" t="n">
+      <c r="E80" s="6" t="n">
         <v>0.007467311715884772</v>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H80" s="2" t="n">
+      <c r="F80" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G80" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H80" s="6" t="n">
         <v>0.2205594941488127</v>
       </c>
-      <c r="I80" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
+      <c r="I80" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J80" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8471,28 +8535,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R80" s="2" t="n">
+      <c r="R80" s="6" t="n">
         <v>0.008594125508947226</v>
       </c>
-      <c r="S80" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T80" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U80" s="2" t="n">
+      <c r="S80" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T80" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U80" s="6" t="n">
         <v>0.005745065125134063</v>
       </c>
-      <c r="V80" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W80" s="2" t="inlineStr">
+      <c r="V80" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W80" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8519,24 +8583,24 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="6" t="n">
         <v>0.01873922769445155</v>
       </c>
-      <c r="F81" s="2" t="n">
+      <c r="F81" s="6" t="n">
         <v>-0.006868188794175809</v>
       </c>
-      <c r="G81" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H81" s="2" t="n">
+      <c r="G81" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H81" s="6" t="n">
         <v>0.1088344864289514</v>
       </c>
-      <c r="I81" s="2" t="n">
+      <c r="I81" s="6" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="J81" s="2" t="n">
+      <c r="J81" s="6" t="n">
         <v>0.2268749475451113</v>
       </c>
       <c r="K81" t="n">
@@ -8566,28 +8630,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R81" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S81" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T81" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U81" s="2" t="n">
+      <c r="R81" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S81" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T81" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U81" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="V81" s="2" t="n">
+      <c r="V81" s="6" t="n">
         <v>0.01796810289902097</v>
       </c>
-      <c r="W81" s="2" t="inlineStr">
+      <c r="W81" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8614,28 +8678,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E82" s="2" t="n">
+      <c r="E82" s="6" t="n">
         <v>0.00557674808694642</v>
       </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H82" s="2" t="n">
+      <c r="F82" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G82" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H82" s="6" t="n">
         <v>0.0199288348082595</v>
       </c>
-      <c r="I82" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
+      <c r="I82" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J82" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8671,28 +8735,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R82" s="2" t="n">
+      <c r="R82" s="6" t="n">
         <v>0.0139448211367372</v>
       </c>
-      <c r="S82" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T82" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U82" s="2" t="n">
+      <c r="S82" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T82" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U82" s="6" t="n">
         <v>0.0165010540411326</v>
       </c>
-      <c r="V82" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W82" s="2" t="inlineStr">
+      <c r="V82" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W82" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8719,24 +8783,24 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="6" t="n">
         <v>-0.03953067394323685</v>
       </c>
-      <c r="F83" s="2" t="n">
+      <c r="F83" s="6" t="n">
         <v>-0.006868188794175809</v>
       </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H83" s="2" t="n">
+      <c r="G83" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H83" s="6" t="n">
         <v>-0.04266160815402043</v>
       </c>
-      <c r="I83" s="2" t="n">
+      <c r="I83" s="6" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="J83" s="2" t="n">
+      <c r="J83" s="6" t="n">
         <v>0.2268749475451113</v>
       </c>
       <c r="K83" t="n">
@@ -8766,28 +8830,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R83" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S83" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T83" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U83" s="2" t="n">
+      <c r="R83" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S83" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T83" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U83" s="6" t="n">
         <v>-0.03915843276345988</v>
       </c>
-      <c r="V83" s="2" t="n">
+      <c r="V83" s="6" t="n">
         <v>0.01796810289902097</v>
       </c>
-      <c r="W83" s="2" t="inlineStr">
+      <c r="W83" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8804,28 +8868,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="6" t="n">
         <v>-0.0255295440605192</v>
       </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H84" s="2" t="n">
+      <c r="F84" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G84" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H84" s="6" t="n">
         <v>0.0698395061728395</v>
       </c>
-      <c r="I84" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
+      <c r="I84" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J84" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8861,28 +8925,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R84" s="2" t="n">
+      <c r="R84" s="6" t="n">
         <v>0.0129497967000993</v>
       </c>
-      <c r="S84" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T84" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U84" s="2" t="n">
+      <c r="S84" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T84" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U84" s="6" t="n">
         <v>-0.0581687262119664</v>
       </c>
-      <c r="V84" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W84" s="2" t="inlineStr">
+      <c r="V84" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W84" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8909,28 +8973,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E85" s="2" t="n">
+      <c r="E85" s="6" t="n">
         <v>0.00557674808694642</v>
       </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H85" s="2" t="n">
+      <c r="F85" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G85" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H85" s="6" t="n">
         <v>-0.00716188083273514</v>
       </c>
-      <c r="I85" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
+      <c r="I85" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J85" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8966,28 +9030,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R85" s="2" t="n">
+      <c r="R85" s="6" t="n">
         <v>0.0139448211367372</v>
       </c>
-      <c r="S85" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T85" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U85" s="2" t="n">
+      <c r="S85" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T85" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U85" s="6" t="n">
         <v>0.0165010540411326</v>
       </c>
-      <c r="V85" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W85" s="2" t="inlineStr">
+      <c r="V85" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W85" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9014,24 +9078,24 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E86" s="2" t="n">
+      <c r="E86" s="6" t="n">
         <v>-0.221475864257249</v>
       </c>
-      <c r="F86" s="2" t="n">
+      <c r="F86" s="6" t="n">
         <v>-0.006868188794175809</v>
       </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H86" s="2" t="n">
+      <c r="G86" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H86" s="6" t="n">
         <v>0.1305027636524432</v>
       </c>
-      <c r="I86" s="2" t="n">
+      <c r="I86" s="6" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="J86" s="2" t="n">
+      <c r="J86" s="6" t="n">
         <v>0.2268749475451113</v>
       </c>
       <c r="K86" t="n">
@@ -9061,28 +9125,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R86" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S86" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T86" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U86" s="2" t="n">
+      <c r="R86" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S86" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T86" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U86" s="6" t="n">
         <v>-0.2673727668133168</v>
       </c>
-      <c r="V86" s="2" t="n">
+      <c r="V86" s="6" t="n">
         <v>0.01796810289902097</v>
       </c>
-      <c r="W86" s="2" t="inlineStr">
+      <c r="W86" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9109,28 +9173,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E87" s="2" t="n">
+      <c r="E87" s="6" t="n">
         <v>0.07132578764591302</v>
       </c>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G87" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H87" s="2" t="n">
+      <c r="F87" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G87" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H87" s="6" t="n">
         <v>-0.01820113439721505</v>
       </c>
-      <c r="I87" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J87" s="2" t="inlineStr">
+      <c r="I87" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J87" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9166,28 +9230,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R87" s="2" t="n">
+      <c r="R87" s="6" t="n">
         <v>0.04807614865476206</v>
       </c>
-      <c r="S87" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T87" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U87" s="2" t="n">
+      <c r="S87" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T87" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U87" s="6" t="n">
         <v>0.06942161018011195</v>
       </c>
-      <c r="V87" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W87" s="2" t="inlineStr">
+      <c r="V87" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W87" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9299,6 +9363,14 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data_Formatted/Combined_OUTPUT.xlsx
+++ b/Data_Formatted/Combined_OUTPUT.xlsx
@@ -43,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -100,11 +100,44 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -113,6 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -496,7 +530,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44904.65239203248</v>
+        <v>44904.65488224821</v>
       </c>
     </row>
     <row r="3">
@@ -554,11 +588,7 @@
           <t>Company Name</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Broker</t>
-        </is>
-      </c>
+      <c r="C4" s="6" t="n"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
           <t>currency</t>
@@ -645,28 +675,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>5.840111758925737e-05</v>
       </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="n">
+      <c r="F5" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="n">
         <v>0.07628124203850306</v>
       </c>
-      <c r="I5" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J5" s="6" t="inlineStr">
+      <c r="I5" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -702,28 +732,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="R5" s="7" t="n">
         <v>0.06575311257457761</v>
       </c>
-      <c r="S5" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T5" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U5" s="6" t="n">
+      <c r="S5" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T5" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U5" s="7" t="n">
         <v>3.420357127636997e-05</v>
       </c>
-      <c r="V5" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W5" s="6" t="inlineStr">
+      <c r="V5" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W5" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -750,28 +780,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="7" t="n">
         <v>0.01647607365312467</v>
       </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="n">
+      <c r="F6" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" s="7" t="n">
         <v>-0.1107305970149254</v>
       </c>
-      <c r="I6" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J6" s="6" t="inlineStr">
+      <c r="I6" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -807,30 +837,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R6" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S6" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T6" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U6" s="6" t="n">
+      <c r="R6" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S6" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T6" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U6" s="7" t="n">
         <v>-0.001506917629376919</v>
       </c>
-      <c r="V6" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W6" s="6" t="inlineStr">
+      <c r="V6" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W6" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -857,28 +887,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="7" t="n">
         <v>-0.026803076023425</v>
       </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="n">
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" s="7" t="n">
         <v>0.09112348822406124</v>
       </c>
-      <c r="I7" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J7" s="6" t="inlineStr">
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -914,30 +944,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R7" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S7" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T7" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U7" s="6" t="n">
+      <c r="R7" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S7" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T7" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U7" s="7" t="n">
         <v>-0.03110332438655196</v>
       </c>
-      <c r="V7" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W7" s="6" t="inlineStr">
+      <c r="V7" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W7" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -964,28 +994,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="7" t="n">
         <v>0.007563296748419601</v>
       </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="n">
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="n">
         <v>0.07523856825180264</v>
       </c>
-      <c r="I8" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J8" s="6" t="inlineStr">
+      <c r="I8" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1021,28 +1051,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R8" s="6" t="n">
+      <c r="R8" s="7" t="n">
         <v>0.05317793560844009</v>
       </c>
-      <c r="S8" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T8" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U8" s="6" t="n">
+      <c r="S8" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T8" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U8" s="7" t="n">
         <v>0.007268443312473449</v>
       </c>
-      <c r="V8" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W8" s="6" t="inlineStr">
+      <c r="V8" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W8" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1069,28 +1099,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>-0.0217124507019239</v>
       </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="n">
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="n">
         <v>0.04093347468857678</v>
       </c>
-      <c r="I9" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J9" s="6" t="inlineStr">
+      <c r="I9" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1126,30 +1156,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R9" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S9" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T9" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U9" s="6" t="n">
+      <c r="R9" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S9" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T9" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U9" s="7" t="n">
         <v>-0.02111534562029498</v>
       </c>
-      <c r="V9" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W9" s="6" t="inlineStr">
+      <c r="V9" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W9" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1176,28 +1206,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="7" t="n">
         <v>0.046133045636518</v>
       </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H10" s="6" t="n">
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="n">
         <v>0.0268634069400631</v>
       </c>
-      <c r="I10" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J10" s="6" t="inlineStr">
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1233,28 +1263,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R10" s="6" t="n">
+      <c r="R10" s="7" t="n">
         <v>0.02323066474645</v>
       </c>
-      <c r="S10" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T10" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U10" s="6" t="n">
+      <c r="S10" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T10" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U10" s="7" t="n">
         <v>-0.00374109716246696</v>
       </c>
-      <c r="V10" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W10" s="6" t="inlineStr">
+      <c r="V10" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W10" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1281,28 +1311,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="7" t="n">
         <v>0.0236032264056959</v>
       </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H11" s="6" t="n">
+      <c r="F11" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="n">
         <v>-0.0701850928234968</v>
       </c>
-      <c r="I11" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J11" s="6" t="inlineStr">
+      <c r="I11" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1338,28 +1368,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R11" s="6" t="n">
+      <c r="R11" s="7" t="n">
         <v>0.0230699078884142</v>
       </c>
-      <c r="S11" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T11" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U11" s="6" t="n">
+      <c r="S11" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T11" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U11" s="7" t="n">
         <v>0.0263070535172958</v>
       </c>
-      <c r="V11" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W11" s="6" t="inlineStr">
+      <c r="V11" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W11" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1376,28 +1406,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="7" t="n">
         <v>-0.01667981110923226</v>
       </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G12" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H12" s="6" t="n">
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="n">
         <v>0.03664929304130848</v>
       </c>
-      <c r="I12" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J12" s="6" t="inlineStr">
+      <c r="I12" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1433,32 +1463,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R12" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S12" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T12" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U12" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V12" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W12" s="6" t="inlineStr">
+      <c r="R12" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S12" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T12" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U12" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V12" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W12" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1485,28 +1515,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="7" t="n">
         <v>-0.00587106688710932</v>
       </c>
-      <c r="F13" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G13" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H13" s="6" t="n">
+      <c r="F13" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="n">
         <v>-0.142503939705379</v>
       </c>
-      <c r="I13" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J13" s="6" t="inlineStr">
+      <c r="I13" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1542,28 +1572,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R13" s="6" t="n">
+      <c r="R13" s="7" t="n">
         <v>-0.0017957774468107</v>
       </c>
-      <c r="S13" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T13" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U13" s="6" t="n">
+      <c r="S13" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T13" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U13" s="7" t="n">
         <v>-0.00494740942517791</v>
       </c>
-      <c r="V13" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W13" s="6" t="inlineStr">
+      <c r="V13" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W13" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1580,28 +1610,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="7" t="n">
         <v>0.02200238369137142</v>
       </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H14" s="6" t="n">
+      <c r="F14" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="n">
         <v>-0.01556527702417621</v>
       </c>
-      <c r="I14" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J14" s="6" t="inlineStr">
+      <c r="I14" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1637,28 +1667,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R14" s="6" t="n">
+      <c r="R14" s="7" t="n">
         <v>0.01928512855160447</v>
       </c>
-      <c r="S14" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T14" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U14" s="6" t="n">
+      <c r="S14" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T14" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U14" s="7" t="n">
         <v>0.02240500074310425</v>
       </c>
-      <c r="V14" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W14" s="6" t="inlineStr">
+      <c r="V14" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W14" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1675,28 +1705,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="7" t="n">
         <v>-0.0004179583631418326</v>
       </c>
-      <c r="F15" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G15" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H15" s="6" t="n">
+      <c r="F15" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="n">
         <v>-0.005287063026282235</v>
       </c>
-      <c r="I15" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J15" s="6" t="inlineStr">
+      <c r="I15" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1732,30 +1762,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R15" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S15" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T15" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U15" s="6" t="n">
+      <c r="R15" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S15" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T15" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U15" s="7" t="n">
         <v>-0.0004184926800941791</v>
       </c>
-      <c r="V15" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W15" s="6" t="inlineStr">
+      <c r="V15" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W15" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1782,28 +1812,28 @@
           <t>CHF</t>
         </is>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="7" t="n">
         <v>0.02541318393800485</v>
       </c>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G16" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H16" s="6" t="n">
+      <c r="F16" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" s="7" t="n">
         <v>-0.1102097053726169</v>
       </c>
-      <c r="I16" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J16" s="6" t="inlineStr">
+      <c r="I16" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1839,30 +1869,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R16" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S16" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T16" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U16" s="6" t="n">
+      <c r="R16" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S16" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T16" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U16" s="7" t="n">
         <v>0.02350090336124479</v>
       </c>
-      <c r="V16" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W16" s="6" t="inlineStr">
+      <c r="V16" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W16" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1889,28 +1919,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="7" t="n">
         <v>-0.01975874205760464</v>
       </c>
-      <c r="F17" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G17" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H17" s="6" t="n">
+      <c r="F17" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G17" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="n">
         <v>-0.08427355828991279</v>
       </c>
-      <c r="I17" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J17" s="6" t="inlineStr">
+      <c r="I17" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1946,32 +1976,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R17" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S17" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T17" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U17" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V17" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W17" s="6" t="inlineStr">
+      <c r="R17" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S17" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T17" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U17" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V17" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W17" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1988,28 +2018,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="7" t="n">
         <v>0.04776449041011479</v>
       </c>
-      <c r="F18" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G18" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H18" s="6" t="n">
+      <c r="F18" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G18" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="n">
         <v>0.06057574123989218</v>
       </c>
-      <c r="I18" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J18" s="6" t="inlineStr">
+      <c r="I18" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2045,30 +2075,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R18" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S18" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T18" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U18" s="6" t="n">
+      <c r="R18" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S18" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T18" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U18" s="7" t="n">
         <v>0.04610553215403881</v>
       </c>
-      <c r="V18" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W18" s="6" t="inlineStr">
+      <c r="V18" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W18" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2095,28 +2125,28 @@
           <t>CHF</t>
         </is>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="7" t="n">
         <v>-0.4676977985512514</v>
       </c>
-      <c r="F19" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G19" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H19" s="6" t="n">
+      <c r="F19" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="n">
         <v>-0.2944722807017545</v>
       </c>
-      <c r="I19" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J19" s="6" t="inlineStr">
+      <c r="I19" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J19" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2152,30 +2182,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R19" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S19" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T19" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U19" s="6" t="n">
+      <c r="R19" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S19" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T19" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U19" s="7" t="n">
         <v>-0.2481005368590358</v>
       </c>
-      <c r="V19" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W19" s="6" t="inlineStr">
+      <c r="V19" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W19" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2202,28 +2232,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="7" t="n">
         <v>0.001201234820136676</v>
       </c>
-      <c r="F20" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G20" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H20" s="6" t="n">
+      <c r="F20" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H20" s="7" t="n">
         <v>0.05713713148756305</v>
       </c>
-      <c r="I20" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J20" s="6" t="inlineStr">
+      <c r="I20" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2259,32 +2289,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R20" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S20" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T20" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U20" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V20" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W20" s="6" t="inlineStr">
+      <c r="R20" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S20" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T20" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U20" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V20" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W20" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2301,28 +2331,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="7" t="n">
         <v>-0.006159188135929972</v>
       </c>
-      <c r="F21" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G21" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H21" s="6" t="n">
+      <c r="F21" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H21" s="7" t="n">
         <v>0.1042460314985825</v>
       </c>
-      <c r="I21" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J21" s="6" t="inlineStr">
+      <c r="I21" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J21" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2358,28 +2388,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R21" s="6" t="n">
+      <c r="R21" s="7" t="n">
         <v>-0.01100614006983758</v>
       </c>
-      <c r="S21" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T21" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U21" s="6" t="n">
+      <c r="S21" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T21" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U21" s="7" t="n">
         <v>-0.01100614006983724</v>
       </c>
-      <c r="V21" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W21" s="6" t="inlineStr">
+      <c r="V21" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W21" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2406,28 +2436,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="7" t="n">
         <v>-0.01962953701116887</v>
       </c>
-      <c r="F22" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H22" s="6" t="n">
+      <c r="F22" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H22" s="7" t="n">
         <v>-0.04454035676549151</v>
       </c>
-      <c r="I22" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J22" s="6" t="inlineStr">
+      <c r="I22" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J22" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2463,28 +2493,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R22" s="6" t="n">
+      <c r="R22" s="7" t="n">
         <v>0.09586070623745746</v>
       </c>
-      <c r="S22" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T22" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U22" s="6" t="n">
+      <c r="S22" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T22" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U22" s="7" t="n">
         <v>0.06333151470414689</v>
       </c>
-      <c r="V22" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W22" s="6" t="inlineStr">
+      <c r="V22" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W22" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2511,28 +2541,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="7" t="n">
         <v>0.004209965498427781</v>
       </c>
-      <c r="F23" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G23" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H23" s="6" t="n">
+      <c r="F23" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H23" s="7" t="n">
         <v>0.01442351470818415</v>
       </c>
-      <c r="I23" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J23" s="6" t="inlineStr">
+      <c r="I23" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J23" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2568,28 +2598,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R23" s="6" t="n">
+      <c r="R23" s="7" t="n">
         <v>0.002196251107029035</v>
       </c>
-      <c r="S23" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T23" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U23" s="6" t="n">
+      <c r="S23" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T23" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U23" s="7" t="n">
         <v>0.004087378260795527</v>
       </c>
-      <c r="V23" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W23" s="6" t="inlineStr">
+      <c r="V23" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W23" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2616,28 +2646,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="7" t="n">
         <v>-0.01757050011702127</v>
       </c>
-      <c r="F24" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G24" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H24" s="6" t="n">
+      <c r="F24" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G24" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H24" s="7" t="n">
         <v>-0.1025321019672339</v>
       </c>
-      <c r="I24" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J24" s="6" t="inlineStr">
+      <c r="I24" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J24" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2673,32 +2703,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R24" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S24" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T24" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U24" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V24" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W24" s="6" t="inlineStr">
+      <c r="R24" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S24" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T24" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U24" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V24" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W24" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2725,28 +2755,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="7" t="n">
         <v>0.06739763995636361</v>
       </c>
-      <c r="F25" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G25" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H25" s="6" t="n">
+      <c r="F25" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G25" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H25" s="7" t="n">
         <v>-0.006582079147827158</v>
       </c>
-      <c r="I25" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J25" s="6" t="inlineStr">
+      <c r="I25" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J25" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2782,28 +2812,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R25" s="6" t="n">
+      <c r="R25" s="7" t="n">
         <v>-0.0001756024294615743</v>
       </c>
-      <c r="S25" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T25" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U25" s="6" t="n">
+      <c r="S25" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T25" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U25" s="7" t="n">
         <v>-0.01092109080564119</v>
       </c>
-      <c r="V25" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W25" s="6" t="inlineStr">
+      <c r="V25" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W25" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2830,28 +2860,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="7" t="n">
         <v>0.1041172474132526</v>
       </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G26" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H26" s="6" t="n">
+      <c r="F26" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G26" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H26" s="7" t="n">
         <v>0.1756026559014003</v>
       </c>
-      <c r="I26" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J26" s="6" t="inlineStr">
+      <c r="I26" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J26" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2887,28 +2917,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R26" s="6" t="n">
+      <c r="R26" s="7" t="n">
         <v>0.004667505873919175</v>
       </c>
-      <c r="S26" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T26" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U26" s="6" t="n">
+      <c r="S26" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T26" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U26" s="7" t="n">
         <v>0.001847579835412061</v>
       </c>
-      <c r="V26" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W26" s="6" t="inlineStr">
+      <c r="V26" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W26" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2935,28 +2965,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="E27" s="7" t="n">
         <v>-0.0389966711609961</v>
       </c>
-      <c r="F27" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G27" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H27" s="6" t="n">
+      <c r="F27" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G27" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H27" s="7" t="n">
         <v>0.108253579952267</v>
       </c>
-      <c r="I27" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J27" s="6" t="inlineStr">
+      <c r="I27" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J27" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2992,28 +3022,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R27" s="6" t="n">
+      <c r="R27" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S27" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T27" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U27" s="6" t="n">
+      <c r="S27" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T27" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U27" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V27" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W27" s="6" t="inlineStr">
+      <c r="V27" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W27" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3040,28 +3070,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="7" t="n">
         <v>0.008162080299386131</v>
       </c>
-      <c r="F28" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G28" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H28" s="6" t="n">
+      <c r="F28" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G28" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H28" s="7" t="n">
         <v>0.0417528795811519</v>
       </c>
-      <c r="I28" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J28" s="6" t="inlineStr">
+      <c r="I28" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J28" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3097,28 +3127,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R28" s="6" t="n">
+      <c r="R28" s="7" t="n">
         <v>0.0183009119859956</v>
       </c>
-      <c r="S28" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T28" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U28" s="6" t="n">
+      <c r="S28" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T28" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U28" s="7" t="n">
         <v>0.0431432002727963</v>
       </c>
-      <c r="V28" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W28" s="6" t="inlineStr">
+      <c r="V28" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W28" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3135,24 +3165,24 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E29" s="7" t="n">
         <v>0.1012840208006442</v>
       </c>
-      <c r="F29" s="6" t="n">
+      <c r="F29" s="7" t="n">
         <v>-0.006868188794175809</v>
       </c>
-      <c r="G29" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H29" s="6" t="n">
+      <c r="G29" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H29" s="7" t="n">
         <v>-0.1825853658536585</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="I29" s="7" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="J29" s="6" t="n">
+      <c r="J29" s="7" t="n">
         <v>0.2268749475451113</v>
       </c>
       <c r="K29" t="n">
@@ -3182,28 +3212,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R29" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S29" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T29" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U29" s="6" t="n">
+      <c r="R29" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S29" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T29" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U29" s="7" t="n">
         <v>-0.01336559296712238</v>
       </c>
-      <c r="V29" s="6" t="n">
+      <c r="V29" s="7" t="n">
         <v>0.01796810289902097</v>
       </c>
-      <c r="W29" s="6" t="inlineStr">
+      <c r="W29" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3230,28 +3260,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="7" t="n">
         <v>-0.007805116918217836</v>
       </c>
-      <c r="F30" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G30" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H30" s="6" t="n">
+      <c r="F30" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G30" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H30" s="7" t="n">
         <v>-0.4805592560755999</v>
       </c>
-      <c r="I30" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J30" s="6" t="inlineStr">
+      <c r="I30" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J30" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3287,28 +3317,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R30" s="6" t="n">
+      <c r="R30" s="7" t="n">
         <v>-0.004648792603658358</v>
       </c>
-      <c r="S30" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T30" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U30" s="6" t="n">
+      <c r="S30" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T30" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U30" s="7" t="n">
         <v>-0.005096362907756169</v>
       </c>
-      <c r="V30" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W30" s="6" t="inlineStr">
+      <c r="V30" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W30" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3335,28 +3365,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="7" t="n">
         <v>-0.02060092726569981</v>
       </c>
-      <c r="F31" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G31" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H31" s="6" t="n">
+      <c r="F31" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G31" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H31" s="7" t="n">
         <v>0.008422251506024159</v>
       </c>
-      <c r="I31" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J31" s="6" t="inlineStr">
+      <c r="I31" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J31" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3392,30 +3422,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R31" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S31" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T31" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U31" s="6" t="n">
+      <c r="R31" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S31" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T31" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U31" s="7" t="n">
         <v>-0.02034776293706925</v>
       </c>
-      <c r="V31" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W31" s="6" t="inlineStr">
+      <c r="V31" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W31" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3432,28 +3462,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="7" t="n">
         <v>-0.00281303921806671</v>
       </c>
-      <c r="F32" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G32" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H32" s="6" t="n">
+      <c r="F32" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G32" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H32" s="7" t="n">
         <v>-0.050602908277405</v>
       </c>
-      <c r="I32" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J32" s="6" t="inlineStr">
+      <c r="I32" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J32" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3489,28 +3519,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R32" s="6" t="n">
+      <c r="R32" s="7" t="n">
         <v>-0.00410732710221073</v>
       </c>
-      <c r="S32" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T32" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U32" s="6" t="n">
+      <c r="S32" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T32" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U32" s="7" t="n">
         <v>-0.000647121030439513</v>
       </c>
-      <c r="V32" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W32" s="6" t="inlineStr">
+      <c r="V32" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W32" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3537,28 +3567,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="7" t="n">
         <v>-0.008793017456359169</v>
       </c>
-      <c r="F33" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G33" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H33" s="6" t="n">
+      <c r="F33" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G33" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H33" s="7" t="n">
         <v>-0.143375</v>
       </c>
-      <c r="I33" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J33" s="6" t="inlineStr">
+      <c r="I33" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J33" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3594,28 +3624,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R33" s="6" t="n">
+      <c r="R33" s="7" t="n">
         <v>-0.00824623430556248</v>
       </c>
-      <c r="S33" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T33" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U33" s="6" t="n">
+      <c r="S33" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T33" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U33" s="7" t="n">
         <v>-0.008246233967340699</v>
       </c>
-      <c r="V33" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W33" s="6" t="inlineStr">
+      <c r="V33" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W33" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3632,28 +3662,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E34" s="6" t="n">
+      <c r="E34" s="7" t="n">
         <v>0.0002543725453896251</v>
       </c>
-      <c r="F34" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G34" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H34" s="6" t="n">
+      <c r="F34" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G34" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H34" s="7" t="n">
         <v>-0.05270586482066297</v>
       </c>
-      <c r="I34" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J34" s="6" t="inlineStr">
+      <c r="I34" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J34" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3689,28 +3719,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R34" s="6" t="n">
+      <c r="R34" s="7" t="n">
         <v>-0.00113221280431719</v>
       </c>
-      <c r="S34" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T34" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U34" s="6" t="n">
+      <c r="S34" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T34" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U34" s="7" t="n">
         <v>-0.0002904802886343205</v>
       </c>
-      <c r="V34" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W34" s="6" t="inlineStr">
+      <c r="V34" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W34" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3737,28 +3767,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E35" s="6" t="n">
+      <c r="E35" s="7" t="n">
         <v>0.065071828147543</v>
       </c>
-      <c r="F35" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G35" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H35" s="6" t="n">
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G35" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H35" s="7" t="n">
         <v>0.5404417475728156</v>
       </c>
-      <c r="I35" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J35" s="6" t="inlineStr">
+      <c r="I35" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J35" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3794,30 +3824,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R35" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S35" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T35" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U35" s="6" t="n">
+      <c r="R35" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S35" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T35" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U35" s="7" t="n">
         <v>0.03980841717441654</v>
       </c>
-      <c r="V35" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W35" s="6" t="inlineStr">
+      <c r="V35" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W35" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3844,28 +3874,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E36" s="6" t="n">
+      <c r="E36" s="7" t="n">
         <v>-0.05966395437627925</v>
       </c>
-      <c r="F36" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G36" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H36" s="6" t="n">
+      <c r="F36" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G36" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H36" s="7" t="n">
         <v>-0.3559255396473214</v>
       </c>
-      <c r="I36" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J36" s="6" t="inlineStr">
+      <c r="I36" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J36" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3901,28 +3931,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R36" s="6" t="n">
+      <c r="R36" s="7" t="n">
         <v>-0.001350241704499267</v>
       </c>
-      <c r="S36" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T36" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U36" s="6" t="n">
+      <c r="S36" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T36" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U36" s="7" t="n">
         <v>-0.06570628192768624</v>
       </c>
-      <c r="V36" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W36" s="6" t="inlineStr">
+      <c r="V36" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W36" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3949,28 +3979,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E37" s="6" t="n">
+      <c r="E37" s="7" t="n">
         <v>0.01196346325805142</v>
       </c>
-      <c r="F37" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G37" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H37" s="6" t="n">
+      <c r="F37" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G37" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H37" s="7" t="n">
         <v>0.01209068469594632</v>
       </c>
-      <c r="I37" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J37" s="6" t="inlineStr">
+      <c r="I37" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J37" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4006,32 +4036,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R37" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S37" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T37" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U37" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V37" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W37" s="6" t="inlineStr">
+      <c r="R37" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S37" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T37" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U37" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V37" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W37" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4058,28 +4088,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="E38" s="7" t="n">
         <v>-0.07278866329248247</v>
       </c>
-      <c r="F38" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G38" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H38" s="6" t="n">
+      <c r="F38" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G38" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H38" s="7" t="n">
         <v>-0.07072997237569045</v>
       </c>
-      <c r="I38" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J38" s="6" t="inlineStr">
+      <c r="I38" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J38" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4115,30 +4145,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R38" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S38" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T38" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U38" s="6" t="n">
+      <c r="R38" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S38" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T38" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U38" s="7" t="n">
         <v>0.003251911442059412</v>
       </c>
-      <c r="V38" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W38" s="6" t="inlineStr">
+      <c r="V38" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W38" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4165,28 +4195,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E39" s="6" t="n">
+      <c r="E39" s="7" t="n">
         <v>0.01367895472204217</v>
       </c>
-      <c r="F39" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G39" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H39" s="6" t="n">
+      <c r="F39" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G39" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H39" s="7" t="n">
         <v>0.001931171938577725</v>
       </c>
-      <c r="I39" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J39" s="6" t="inlineStr">
+      <c r="I39" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J39" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4222,28 +4252,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R39" s="6" t="n">
+      <c r="R39" s="7" t="n">
         <v>0.01015382467042425</v>
       </c>
-      <c r="S39" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T39" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U39" s="6" t="n">
+      <c r="S39" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T39" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U39" s="7" t="n">
         <v>0.01312075177455241</v>
       </c>
-      <c r="V39" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W39" s="6" t="inlineStr">
+      <c r="V39" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W39" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4270,28 +4300,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E40" s="6" t="n">
+      <c r="E40" s="7" t="n">
         <v>-0.0007196530191379438</v>
       </c>
-      <c r="F40" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G40" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H40" s="6" t="n">
+      <c r="F40" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G40" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H40" s="7" t="n">
         <v>-0.007546052631579037</v>
       </c>
-      <c r="I40" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J40" s="6" t="inlineStr">
+      <c r="I40" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J40" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4327,30 +4357,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R40" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S40" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T40" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U40" s="6" t="n">
+      <c r="R40" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S40" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T40" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U40" s="7" t="n">
         <v>-0.0005882620488706101</v>
       </c>
-      <c r="V40" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W40" s="6" t="inlineStr">
+      <c r="V40" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W40" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4367,28 +4397,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E41" s="6" t="n">
+      <c r="E41" s="7" t="n">
         <v>0.00321231024660785</v>
       </c>
-      <c r="F41" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G41" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H41" s="6" t="n">
+      <c r="F41" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G41" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H41" s="7" t="n">
         <v>-0.144771794871795</v>
       </c>
-      <c r="I41" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J41" s="6" t="inlineStr">
+      <c r="I41" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J41" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4424,28 +4454,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R41" s="6" t="n">
+      <c r="R41" s="7" t="n">
         <v>0.00249407969908666</v>
       </c>
-      <c r="S41" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T41" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U41" s="6" t="n">
+      <c r="S41" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T41" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U41" s="7" t="n">
         <v>0.00264409303708257</v>
       </c>
-      <c r="V41" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W41" s="6" t="inlineStr">
+      <c r="V41" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W41" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4472,28 +4502,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E42" s="6" t="n">
+      <c r="E42" s="7" t="n">
         <v>0.004515926182184327</v>
       </c>
-      <c r="F42" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G42" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H42" s="6" t="n">
+      <c r="F42" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G42" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H42" s="7" t="n">
         <v>0.04962164719629869</v>
       </c>
-      <c r="I42" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J42" s="6" t="inlineStr">
+      <c r="I42" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J42" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4529,28 +4559,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R42" s="6" t="n">
+      <c r="R42" s="7" t="n">
         <v>-0.0004969480003301774</v>
       </c>
-      <c r="S42" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T42" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U42" s="6" t="n">
+      <c r="S42" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T42" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U42" s="7" t="n">
         <v>0.005423703568077309</v>
       </c>
-      <c r="V42" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W42" s="6" t="inlineStr">
+      <c r="V42" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W42" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4577,28 +4607,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E43" s="6" t="n">
+      <c r="E43" s="7" t="n">
         <v>0.009829177400395231</v>
       </c>
-      <c r="F43" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G43" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H43" s="6" t="n">
+      <c r="F43" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G43" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H43" s="7" t="n">
         <v>-0.0058939393939394</v>
       </c>
-      <c r="I43" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J43" s="6" t="inlineStr">
+      <c r="I43" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J43" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4634,28 +4664,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R43" s="6" t="n">
+      <c r="R43" s="7" t="n">
         <v>0.0835907150116342</v>
       </c>
-      <c r="S43" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T43" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U43" s="6" t="n">
+      <c r="S43" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T43" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U43" s="7" t="n">
         <v>0.0278155617800451</v>
       </c>
-      <c r="V43" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W43" s="6" t="inlineStr">
+      <c r="V43" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W43" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4682,28 +4712,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E44" s="6" t="n">
+      <c r="E44" s="7" t="n">
         <v>-0.0050108387011692</v>
       </c>
-      <c r="F44" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G44" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H44" s="6" t="n">
+      <c r="F44" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G44" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H44" s="7" t="n">
         <v>0.009124869383489997</v>
       </c>
-      <c r="I44" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J44" s="6" t="inlineStr">
+      <c r="I44" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J44" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4739,30 +4769,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R44" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S44" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T44" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U44" s="6" t="n">
+      <c r="R44" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S44" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T44" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U44" s="7" t="n">
         <v>-0.005163277982837415</v>
       </c>
-      <c r="V44" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W44" s="6" t="inlineStr">
+      <c r="V44" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W44" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4779,28 +4809,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E45" s="6" t="n">
+      <c r="E45" s="7" t="n">
         <v>-0.008330887673331011</v>
       </c>
-      <c r="F45" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G45" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H45" s="6" t="n">
+      <c r="F45" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G45" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H45" s="7" t="n">
         <v>-0.0004003553517999414</v>
       </c>
-      <c r="I45" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J45" s="6" t="inlineStr">
+      <c r="I45" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J45" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4836,28 +4866,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R45" s="6" t="n">
+      <c r="R45" s="7" t="n">
         <v>0.01032017895835247</v>
       </c>
-      <c r="S45" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T45" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U45" s="6" t="n">
+      <c r="S45" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T45" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U45" s="7" t="n">
         <v>-0.007639074754622888</v>
       </c>
-      <c r="V45" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W45" s="6" t="inlineStr">
+      <c r="V45" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W45" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4884,28 +4914,28 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="E46" s="6" t="n">
+      <c r="E46" s="7" t="n">
         <v>0.01178769379423989</v>
       </c>
-      <c r="F46" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G46" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H46" s="6" t="n">
+      <c r="F46" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G46" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H46" s="7" t="n">
         <v>-0.01953487192493031</v>
       </c>
-      <c r="I46" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J46" s="6" t="inlineStr">
+      <c r="I46" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J46" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4941,30 +4971,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R46" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S46" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T46" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U46" s="6" t="n">
+      <c r="R46" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S46" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T46" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U46" s="7" t="n">
         <v>0.05420027465317249</v>
       </c>
-      <c r="V46" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W46" s="6" t="inlineStr">
+      <c r="V46" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W46" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4991,28 +5021,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E47" s="6" t="n">
+      <c r="E47" s="7" t="n">
         <v>0.005792100892638485</v>
       </c>
-      <c r="F47" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G47" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H47" s="6" t="n">
+      <c r="F47" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G47" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H47" s="7" t="n">
         <v>-0.02978616835114367</v>
       </c>
-      <c r="I47" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J47" s="6" t="inlineStr">
+      <c r="I47" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J47" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5048,28 +5078,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R47" s="6" t="n">
+      <c r="R47" s="7" t="n">
         <v>0.002055650860119718</v>
       </c>
-      <c r="S47" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T47" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U47" s="6" t="n">
+      <c r="S47" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T47" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U47" s="7" t="n">
         <v>0.005118274159374492</v>
       </c>
-      <c r="V47" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W47" s="6" t="inlineStr">
+      <c r="V47" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W47" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5086,28 +5116,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E48" s="6" t="n">
+      <c r="E48" s="7" t="n">
         <v>0.0222707361134257</v>
       </c>
-      <c r="F48" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G48" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H48" s="6" t="n">
+      <c r="F48" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G48" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H48" s="7" t="n">
         <v>0.1107853846153846</v>
       </c>
-      <c r="I48" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J48" s="6" t="inlineStr">
+      <c r="I48" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J48" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5143,30 +5173,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R48" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S48" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T48" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U48" s="6" t="n">
+      <c r="R48" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S48" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T48" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U48" s="7" t="n">
         <v>0.02545244027159419</v>
       </c>
-      <c r="V48" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W48" s="6" t="inlineStr">
+      <c r="V48" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W48" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5193,28 +5223,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E49" s="6" t="n">
+      <c r="E49" s="7" t="n">
         <v>0.02408235987693486</v>
       </c>
-      <c r="F49" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G49" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H49" s="6" t="n">
+      <c r="F49" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G49" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H49" s="7" t="n">
         <v>0.05606788876410818</v>
       </c>
-      <c r="I49" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J49" s="6" t="inlineStr">
+      <c r="I49" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J49" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5250,32 +5280,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R49" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S49" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T49" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U49" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V49" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W49" s="6" t="inlineStr">
+      <c r="R49" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S49" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T49" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U49" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V49" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W49" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5302,28 +5332,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E50" s="6" t="n">
+      <c r="E50" s="7" t="n">
         <v>0.01463869045839927</v>
       </c>
-      <c r="F50" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G50" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H50" s="6" t="n">
+      <c r="F50" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G50" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H50" s="7" t="n">
         <v>0.06572101297614052</v>
       </c>
-      <c r="I50" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J50" s="6" t="inlineStr">
+      <c r="I50" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J50" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5359,30 +5389,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R50" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S50" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T50" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U50" s="6" t="n">
+      <c r="R50" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S50" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T50" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U50" s="7" t="n">
         <v>0.08605828450245427</v>
       </c>
-      <c r="V50" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W50" s="6" t="inlineStr">
+      <c r="V50" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W50" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5409,28 +5439,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E51" s="6" t="n">
+      <c r="E51" s="7" t="n">
         <v>0.0007359845127379305</v>
       </c>
-      <c r="F51" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G51" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H51" s="6" t="n">
+      <c r="F51" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G51" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H51" s="7" t="n">
         <v>-0.02574229854971977</v>
       </c>
-      <c r="I51" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J51" s="6" t="inlineStr">
+      <c r="I51" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J51" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5466,28 +5496,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R51" s="6" t="n">
+      <c r="R51" s="7" t="n">
         <v>0.006751544394446141</v>
       </c>
-      <c r="S51" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T51" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U51" s="6" t="n">
+      <c r="S51" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T51" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U51" s="7" t="n">
         <v>-0.007759017395819079</v>
       </c>
-      <c r="V51" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W51" s="6" t="inlineStr">
+      <c r="V51" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W51" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5514,28 +5544,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E52" s="6" t="n">
+      <c r="E52" s="7" t="n">
         <v>-0.07203958604787</v>
       </c>
-      <c r="F52" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G52" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H52" s="6" t="n">
+      <c r="F52" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G52" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H52" s="7" t="n">
         <v>-0.0750649727767695</v>
       </c>
-      <c r="I52" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J52" s="6" t="inlineStr">
+      <c r="I52" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J52" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5571,28 +5601,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R52" s="6" t="n">
+      <c r="R52" s="7" t="n">
         <v>-0.0206700562551202</v>
       </c>
-      <c r="S52" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T52" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U52" s="6" t="n">
+      <c r="S52" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T52" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U52" s="7" t="n">
         <v>-0.105705355946625</v>
       </c>
-      <c r="V52" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W52" s="6" t="inlineStr">
+      <c r="V52" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W52" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5609,28 +5639,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E53" s="6" t="n">
+      <c r="E53" s="7" t="n">
         <v>-0.06854784566725645</v>
       </c>
-      <c r="F53" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G53" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H53" s="6" t="n">
+      <c r="F53" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G53" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H53" s="7" t="n">
         <v>-0.03744823828550681</v>
       </c>
-      <c r="I53" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J53" s="6" t="inlineStr">
+      <c r="I53" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J53" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5666,30 +5696,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R53" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S53" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T53" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U53" s="6" t="n">
+      <c r="R53" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S53" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T53" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U53" s="7" t="n">
         <v>-0.06693613365619397</v>
       </c>
-      <c r="V53" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W53" s="6" t="inlineStr">
+      <c r="V53" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W53" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5716,28 +5746,28 @@
           <t>NOK</t>
         </is>
       </c>
-      <c r="E54" s="6" t="n">
+      <c r="E54" s="7" t="n">
         <v>-0.04061760451178948</v>
       </c>
-      <c r="F54" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G54" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H54" s="6" t="n">
+      <c r="F54" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G54" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H54" s="7" t="n">
         <v>-0.2015862690707351</v>
       </c>
-      <c r="I54" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J54" s="6" t="inlineStr">
+      <c r="I54" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J54" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5773,30 +5803,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R54" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S54" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T54" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U54" s="6" t="n">
+      <c r="R54" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S54" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T54" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U54" s="7" t="n">
         <v>-0.0406608553625455</v>
       </c>
-      <c r="V54" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W54" s="6" t="inlineStr">
+      <c r="V54" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W54" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5823,28 +5853,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E55" s="6" t="n">
+      <c r="E55" s="7" t="n">
         <v>-0.0436062007306705</v>
       </c>
-      <c r="F55" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G55" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H55" s="6" t="n">
+      <c r="F55" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G55" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H55" s="7" t="n">
         <v>-0.184158964879852</v>
       </c>
-      <c r="I55" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J55" s="6" t="inlineStr">
+      <c r="I55" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J55" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5880,28 +5910,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R55" s="6" t="n">
+      <c r="R55" s="7" t="n">
         <v>0.0133992335437561</v>
       </c>
-      <c r="S55" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T55" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U55" s="6" t="n">
+      <c r="S55" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T55" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U55" s="7" t="n">
         <v>-0.0215117584082215</v>
       </c>
-      <c r="V55" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W55" s="6" t="inlineStr">
+      <c r="V55" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W55" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5928,28 +5958,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E56" s="6" t="n">
+      <c r="E56" s="7" t="n">
         <v>0.004213424817720057</v>
       </c>
-      <c r="F56" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G56" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H56" s="6" t="n">
+      <c r="F56" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G56" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H56" s="7" t="n">
         <v>-0.006776989247311849</v>
       </c>
-      <c r="I56" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J56" s="6" t="inlineStr">
+      <c r="I56" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J56" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5985,30 +6015,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R56" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S56" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T56" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U56" s="6" t="n">
+      <c r="R56" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S56" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T56" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U56" s="7" t="n">
         <v>0.003334878108349544</v>
       </c>
-      <c r="V56" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W56" s="6" t="inlineStr">
+      <c r="V56" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W56" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6035,28 +6065,28 @@
           <t>DKK</t>
         </is>
       </c>
-      <c r="E57" s="6" t="n">
+      <c r="E57" s="7" t="n">
         <v>-0.02573619865173769</v>
       </c>
-      <c r="F57" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G57" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H57" s="6" t="n">
+      <c r="F57" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G57" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H57" s="7" t="n">
         <v>-0.09563479705180111</v>
       </c>
-      <c r="I57" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J57" s="6" t="inlineStr">
+      <c r="I57" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J57" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6092,30 +6122,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R57" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S57" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T57" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U57" s="6" t="n">
+      <c r="R57" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S57" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T57" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U57" s="7" t="n">
         <v>-0.02465501340595096</v>
       </c>
-      <c r="V57" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W57" s="6" t="inlineStr">
+      <c r="V57" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W57" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6142,28 +6172,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E58" s="6" t="n">
+      <c r="E58" s="7" t="n">
         <v>0.00671796508432819</v>
       </c>
-      <c r="F58" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G58" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H58" s="6" t="n">
+      <c r="F58" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G58" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H58" s="7" t="n">
         <v>0.328287516170763</v>
       </c>
-      <c r="I58" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J58" s="6" t="inlineStr">
+      <c r="I58" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J58" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6199,28 +6229,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R58" s="6" t="n">
+      <c r="R58" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S58" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T58" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U58" s="6" t="n">
+      <c r="S58" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T58" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U58" s="7" t="n">
         <v>-0.00691702207838096</v>
       </c>
-      <c r="V58" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W58" s="6" t="inlineStr">
+      <c r="V58" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W58" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6247,28 +6277,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E59" s="6" t="n">
+      <c r="E59" s="7" t="n">
         <v>-0.0106073922700253</v>
       </c>
-      <c r="F59" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G59" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H59" s="6" t="n">
+      <c r="F59" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G59" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H59" s="7" t="n">
         <v>0.286339451786588</v>
       </c>
-      <c r="I59" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J59" s="6" t="inlineStr">
+      <c r="I59" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J59" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6304,28 +6334,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R59" s="6" t="n">
+      <c r="R59" s="7" t="n">
         <v>0.0101695676939675</v>
       </c>
-      <c r="S59" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T59" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U59" s="6" t="n">
+      <c r="S59" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T59" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U59" s="7" t="n">
         <v>-0.0294926320821921</v>
       </c>
-      <c r="V59" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W59" s="6" t="inlineStr">
+      <c r="V59" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W59" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6352,28 +6382,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E60" s="6" t="n">
+      <c r="E60" s="7" t="n">
         <v>0.1804518908983005</v>
       </c>
-      <c r="F60" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G60" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H60" s="6" t="n">
+      <c r="F60" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G60" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H60" s="7" t="n">
         <v>0.06823356643356648</v>
       </c>
-      <c r="I60" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J60" s="6" t="inlineStr">
+      <c r="I60" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J60" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6409,30 +6439,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R60" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S60" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T60" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U60" s="6" t="n">
+      <c r="R60" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S60" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T60" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U60" s="7" t="n">
         <v>0.1608482987189881</v>
       </c>
-      <c r="V60" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W60" s="6" t="inlineStr">
+      <c r="V60" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W60" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6459,28 +6489,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E61" s="6" t="n">
+      <c r="E61" s="7" t="n">
         <v>0.3436929035885032</v>
       </c>
-      <c r="F61" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G61" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H61" s="6" t="n">
+      <c r="F61" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G61" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H61" s="7" t="n">
         <v>0.4714991304347824</v>
       </c>
-      <c r="I61" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J61" s="6" t="inlineStr">
+      <c r="I61" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J61" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6516,30 +6546,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R61" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S61" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T61" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U61" s="6" t="n">
+      <c r="R61" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S61" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T61" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U61" s="7" t="n">
         <v>0.03503361742307426</v>
       </c>
-      <c r="V61" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W61" s="6" t="inlineStr">
+      <c r="V61" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W61" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6566,28 +6596,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E62" s="6" t="n">
+      <c r="E62" s="7" t="n">
         <v>-0.007731128314700686</v>
       </c>
-      <c r="F62" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G62" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H62" s="6" t="n">
+      <c r="F62" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G62" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H62" s="7" t="n">
         <v>0.02866867135147833</v>
       </c>
-      <c r="I62" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J62" s="6" t="inlineStr">
+      <c r="I62" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J62" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6623,28 +6653,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R62" s="6" t="n">
+      <c r="R62" s="7" t="n">
         <v>0.01645409909458473</v>
       </c>
-      <c r="S62" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T62" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U62" s="6" t="n">
+      <c r="S62" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T62" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U62" s="7" t="n">
         <v>0.01075318448181317</v>
       </c>
-      <c r="V62" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W62" s="6" t="inlineStr">
+      <c r="V62" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W62" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6671,28 +6701,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E63" s="6" t="n">
+      <c r="E63" s="7" t="n">
         <v>0.0117711048807413</v>
       </c>
-      <c r="F63" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G63" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H63" s="6" t="n">
+      <c r="F63" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G63" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H63" s="7" t="n">
         <v>0.07712380952380959</v>
       </c>
-      <c r="I63" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J63" s="6" t="inlineStr">
+      <c r="I63" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J63" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6728,28 +6758,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R63" s="6" t="n">
+      <c r="R63" s="7" t="n">
         <v>0.0137582666355782</v>
       </c>
-      <c r="S63" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T63" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U63" s="6" t="n">
+      <c r="S63" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T63" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U63" s="7" t="n">
         <v>0.0121648534418399</v>
       </c>
-      <c r="V63" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W63" s="6" t="inlineStr">
+      <c r="V63" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W63" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6776,28 +6806,28 @@
           <t>NOK</t>
         </is>
       </c>
-      <c r="E64" s="6" t="n">
+      <c r="E64" s="7" t="n">
         <v>-0.09023893724577181</v>
       </c>
-      <c r="F64" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G64" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H64" s="6" t="n">
+      <c r="F64" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G64" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H64" s="7" t="n">
         <v>-0.2063768490816759</v>
       </c>
-      <c r="I64" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J64" s="6" t="inlineStr">
+      <c r="I64" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J64" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6833,28 +6863,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R64" s="6" t="n">
+      <c r="R64" s="7" t="n">
         <v>0.004219208787627382</v>
       </c>
-      <c r="S64" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T64" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U64" s="6" t="n">
+      <c r="S64" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T64" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U64" s="7" t="n">
         <v>-0.06829122852755543</v>
       </c>
-      <c r="V64" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W64" s="6" t="inlineStr">
+      <c r="V64" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W64" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6881,28 +6911,28 @@
           <t>CHF</t>
         </is>
       </c>
-      <c r="E65" s="6" t="n">
+      <c r="E65" s="7" t="n">
         <v>0.01242695710466468</v>
       </c>
-      <c r="F65" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G65" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H65" s="6" t="n">
+      <c r="F65" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G65" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H65" s="7" t="n">
         <v>-0.01060957799260931</v>
       </c>
-      <c r="I65" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J65" s="6" t="inlineStr">
+      <c r="I65" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J65" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6938,28 +6968,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R65" s="6" t="n">
+      <c r="R65" s="7" t="n">
         <v>0.006089371222095519</v>
       </c>
-      <c r="S65" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T65" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U65" s="6" t="n">
+      <c r="S65" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T65" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U65" s="7" t="n">
         <v>0.01175865577223978</v>
       </c>
-      <c r="V65" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W65" s="6" t="inlineStr">
+      <c r="V65" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W65" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6986,28 +7016,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E66" s="6" t="n">
+      <c r="E66" s="7" t="n">
         <v>0.07738977867853447</v>
       </c>
-      <c r="F66" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G66" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H66" s="6" t="n">
+      <c r="F66" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G66" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H66" s="7" t="n">
         <v>0.0322501876481911</v>
       </c>
-      <c r="I66" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J66" s="6" t="inlineStr">
+      <c r="I66" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J66" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7043,28 +7073,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R66" s="6" t="n">
+      <c r="R66" s="7" t="n">
         <v>-0.2218307263517468</v>
       </c>
-      <c r="S66" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T66" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U66" s="6" t="n">
+      <c r="S66" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T66" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U66" s="7" t="n">
         <v>0.07625128302004236</v>
       </c>
-      <c r="V66" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W66" s="6" t="inlineStr">
+      <c r="V66" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W66" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7091,28 +7121,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E67" s="6" t="n">
+      <c r="E67" s="7" t="n">
         <v>0.02296225702569155</v>
       </c>
-      <c r="F67" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G67" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H67" s="6" t="n">
+      <c r="F67" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G67" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H67" s="7" t="n">
         <v>0.1172414843877505</v>
       </c>
-      <c r="I67" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J67" s="6" t="inlineStr">
+      <c r="I67" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J67" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7148,28 +7178,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R67" s="6" t="n">
+      <c r="R67" s="7" t="n">
         <v>0.01829457577109106</v>
       </c>
-      <c r="S67" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T67" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U67" s="6" t="n">
+      <c r="S67" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T67" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U67" s="7" t="n">
         <v>0.02059124636323229</v>
       </c>
-      <c r="V67" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W67" s="6" t="inlineStr">
+      <c r="V67" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W67" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7196,28 +7226,28 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="E68" s="6" t="n">
+      <c r="E68" s="7" t="n">
         <v>-0.03186641165543727</v>
       </c>
-      <c r="F68" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G68" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H68" s="6" t="n">
+      <c r="F68" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G68" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H68" s="7" t="n">
         <v>0.0193597682780664</v>
       </c>
-      <c r="I68" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J68" s="6" t="inlineStr">
+      <c r="I68" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J68" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7253,30 +7283,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R68" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S68" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T68" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U68" s="6" t="n">
+      <c r="R68" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S68" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T68" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U68" s="7" t="n">
         <v>-0.02461153135251753</v>
       </c>
-      <c r="V68" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W68" s="6" t="inlineStr">
+      <c r="V68" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W68" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7303,28 +7333,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E69" s="6" t="n">
+      <c r="E69" s="7" t="n">
         <v>0.08924111877864238</v>
       </c>
-      <c r="F69" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G69" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H69" s="6" t="n">
+      <c r="F69" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G69" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H69" s="7" t="n">
         <v>0.3265140746352631</v>
       </c>
-      <c r="I69" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J69" s="6" t="inlineStr">
+      <c r="I69" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J69" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7360,28 +7390,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R69" s="6" t="n">
+      <c r="R69" s="7" t="n">
         <v>0.01003245269603203</v>
       </c>
-      <c r="S69" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T69" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U69" s="6" t="n">
+      <c r="S69" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T69" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U69" s="7" t="n">
         <v>0.02761698436519655</v>
       </c>
-      <c r="V69" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W69" s="6" t="inlineStr">
+      <c r="V69" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W69" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7408,28 +7438,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E70" s="6" t="n">
+      <c r="E70" s="7" t="n">
         <v>0.03463220501952935</v>
       </c>
-      <c r="F70" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G70" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H70" s="6" t="n">
+      <c r="F70" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G70" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H70" s="7" t="n">
         <v>-0.2230525258924612</v>
       </c>
-      <c r="I70" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J70" s="6" t="inlineStr">
+      <c r="I70" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J70" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7465,28 +7495,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R70" s="6" t="n">
+      <c r="R70" s="7" t="n">
         <v>-0.00199943839898975</v>
       </c>
-      <c r="S70" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T70" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U70" s="6" t="n">
+      <c r="S70" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T70" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U70" s="7" t="n">
         <v>0.04748832890731847</v>
       </c>
-      <c r="V70" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W70" s="6" t="inlineStr">
+      <c r="V70" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W70" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7513,28 +7543,28 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E71" s="6" t="n">
+      <c r="E71" s="7" t="n">
         <v>-0.07672804903929653</v>
       </c>
-      <c r="F71" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G71" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H71" s="6" t="n">
+      <c r="F71" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G71" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H71" s="7" t="n">
         <v>-0.06038781814827787</v>
       </c>
-      <c r="I71" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J71" s="6" t="inlineStr">
+      <c r="I71" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J71" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7570,28 +7600,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R71" s="6" t="n">
+      <c r="R71" s="7" t="n">
         <v>0.04540866587563719</v>
       </c>
-      <c r="S71" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T71" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U71" s="6" t="n">
+      <c r="S71" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T71" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U71" s="7" t="n">
         <v>-0.0757898050099316</v>
       </c>
-      <c r="V71" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W71" s="6" t="inlineStr">
+      <c r="V71" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W71" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7618,32 +7648,32 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E72" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F72" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G72" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H72" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I72" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J72" s="6" t="inlineStr">
+      <c r="E72" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F72" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G72" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H72" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I72" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J72" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7679,32 +7709,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R72" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S72" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T72" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U72" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V72" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W72" s="6" t="inlineStr">
+      <c r="R72" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S72" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T72" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U72" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V72" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W72" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7731,28 +7761,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E73" s="6" t="n">
+      <c r="E73" s="7" t="n">
         <v>-0.01004327517922798</v>
       </c>
-      <c r="F73" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G73" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H73" s="6" t="n">
+      <c r="F73" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G73" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H73" s="7" t="n">
         <v>-0.004655407413474255</v>
       </c>
-      <c r="I73" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J73" s="6" t="inlineStr">
+      <c r="I73" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J73" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7788,32 +7818,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R73" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S73" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T73" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U73" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V73" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W73" s="6" t="inlineStr">
+      <c r="R73" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S73" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T73" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U73" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V73" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W73" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7840,28 +7870,28 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E74" s="6" t="n">
+      <c r="E74" s="7" t="n">
         <v>-0.02117019684277077</v>
       </c>
-      <c r="F74" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G74" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H74" s="6" t="n">
+      <c r="F74" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G74" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H74" s="7" t="n">
         <v>0.009805101807634387</v>
       </c>
-      <c r="I74" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J74" s="6" t="inlineStr">
+      <c r="I74" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J74" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7897,28 +7927,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R74" s="6" t="n">
+      <c r="R74" s="7" t="n">
         <v>0.009213600243523246</v>
       </c>
-      <c r="S74" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T74" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U74" s="6" t="n">
+      <c r="S74" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T74" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U74" s="7" t="n">
         <v>-0.01994719567118897</v>
       </c>
-      <c r="V74" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W74" s="6" t="inlineStr">
+      <c r="V74" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W74" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7945,28 +7975,28 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="E75" s="6" t="n">
+      <c r="E75" s="7" t="n">
         <v>-0.06724817138712656</v>
       </c>
-      <c r="F75" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G75" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H75" s="6" t="n">
+      <c r="F75" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G75" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H75" s="7" t="n">
         <v>-0.07771495198902612</v>
       </c>
-      <c r="I75" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J75" s="6" t="inlineStr">
+      <c r="I75" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J75" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8002,30 +8032,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R75" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S75" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T75" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U75" s="6" t="n">
+      <c r="R75" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S75" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T75" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U75" s="7" t="n">
         <v>-0.07231881921052437</v>
       </c>
-      <c r="V75" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W75" s="6" t="inlineStr">
+      <c r="V75" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W75" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8052,28 +8082,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E76" s="6" t="n">
+      <c r="E76" s="7" t="n">
         <v>0.1110349554489376</v>
       </c>
-      <c r="F76" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G76" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H76" s="6" t="n">
+      <c r="F76" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G76" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H76" s="7" t="n">
         <v>-0.1215153940743205</v>
       </c>
-      <c r="I76" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J76" s="6" t="inlineStr">
+      <c r="I76" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J76" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8109,32 +8139,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R76" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S76" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T76" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U76" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V76" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W76" s="6" t="inlineStr">
+      <c r="R76" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S76" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T76" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U76" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V76" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W76" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8161,28 +8191,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E77" s="6" t="n">
+      <c r="E77" s="7" t="n">
         <v>-0.03083104420448857</v>
       </c>
-      <c r="F77" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G77" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H77" s="6" t="n">
+      <c r="F77" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G77" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H77" s="7" t="n">
         <v>0.04464506734464724</v>
       </c>
-      <c r="I77" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J77" s="6" t="inlineStr">
+      <c r="I77" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J77" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8218,28 +8248,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R77" s="6" t="n">
+      <c r="R77" s="7" t="n">
         <v>0.00210380970885149</v>
       </c>
-      <c r="S77" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T77" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U77" s="6" t="n">
+      <c r="S77" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T77" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U77" s="7" t="n">
         <v>-0.03184856564869232</v>
       </c>
-      <c r="V77" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W77" s="6" t="inlineStr">
+      <c r="V77" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W77" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8266,28 +8296,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E78" s="6" t="n">
+      <c r="E78" s="7" t="n">
         <v>0.02378927329735722</v>
       </c>
-      <c r="F78" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G78" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H78" s="6" t="n">
+      <c r="F78" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G78" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H78" s="7" t="n">
         <v>0.06692553487079733</v>
       </c>
-      <c r="I78" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J78" s="6" t="inlineStr">
+      <c r="I78" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J78" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8323,30 +8353,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R78" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S78" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T78" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U78" s="6" t="n">
+      <c r="R78" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S78" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T78" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U78" s="7" t="n">
         <v>0.02458973359581022</v>
       </c>
-      <c r="V78" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W78" s="6" t="inlineStr">
+      <c r="V78" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W78" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8373,28 +8403,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E79" s="6" t="n">
+      <c r="E79" s="7" t="n">
         <v>0.00197990773646195</v>
       </c>
-      <c r="F79" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G79" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H79" s="6" t="n">
+      <c r="F79" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G79" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H79" s="7" t="n">
         <v>-0.09454781144134961</v>
       </c>
-      <c r="I79" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J79" s="6" t="inlineStr">
+      <c r="I79" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J79" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8430,28 +8460,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R79" s="6" t="n">
+      <c r="R79" s="7" t="n">
         <v>0.001745104996523583</v>
       </c>
-      <c r="S79" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T79" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U79" s="6" t="n">
+      <c r="S79" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T79" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U79" s="7" t="n">
         <v>0.00180947796280706</v>
       </c>
-      <c r="V79" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W79" s="6" t="inlineStr">
+      <c r="V79" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W79" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8478,28 +8508,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E80" s="6" t="n">
+      <c r="E80" s="7" t="n">
         <v>0.007467311715884772</v>
       </c>
-      <c r="F80" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G80" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H80" s="6" t="n">
+      <c r="F80" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G80" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H80" s="7" t="n">
         <v>0.2205594941488127</v>
       </c>
-      <c r="I80" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J80" s="6" t="inlineStr">
+      <c r="I80" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J80" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8535,28 +8565,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R80" s="6" t="n">
+      <c r="R80" s="7" t="n">
         <v>0.008594125508947226</v>
       </c>
-      <c r="S80" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T80" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U80" s="6" t="n">
+      <c r="S80" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T80" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U80" s="7" t="n">
         <v>0.005745065125134063</v>
       </c>
-      <c r="V80" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W80" s="6" t="inlineStr">
+      <c r="V80" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W80" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8583,24 +8613,24 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E81" s="6" t="n">
+      <c r="E81" s="7" t="n">
         <v>0.01873922769445155</v>
       </c>
-      <c r="F81" s="6" t="n">
+      <c r="F81" s="7" t="n">
         <v>-0.006868188794175809</v>
       </c>
-      <c r="G81" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H81" s="6" t="n">
+      <c r="G81" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H81" s="7" t="n">
         <v>0.1088344864289514</v>
       </c>
-      <c r="I81" s="6" t="n">
+      <c r="I81" s="7" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="J81" s="6" t="n">
+      <c r="J81" s="7" t="n">
         <v>0.2268749475451113</v>
       </c>
       <c r="K81" t="n">
@@ -8630,28 +8660,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R81" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S81" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T81" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U81" s="6" t="n">
+      <c r="R81" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S81" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T81" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U81" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V81" s="6" t="n">
+      <c r="V81" s="7" t="n">
         <v>0.01796810289902097</v>
       </c>
-      <c r="W81" s="6" t="inlineStr">
+      <c r="W81" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8678,28 +8708,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E82" s="6" t="n">
+      <c r="E82" s="7" t="n">
         <v>0.00557674808694642</v>
       </c>
-      <c r="F82" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G82" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H82" s="6" t="n">
+      <c r="F82" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G82" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H82" s="7" t="n">
         <v>0.0199288348082595</v>
       </c>
-      <c r="I82" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J82" s="6" t="inlineStr">
+      <c r="I82" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J82" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8735,28 +8765,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R82" s="6" t="n">
+      <c r="R82" s="7" t="n">
         <v>0.0139448211367372</v>
       </c>
-      <c r="S82" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T82" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U82" s="6" t="n">
+      <c r="S82" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T82" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U82" s="7" t="n">
         <v>0.0165010540411326</v>
       </c>
-      <c r="V82" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W82" s="6" t="inlineStr">
+      <c r="V82" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W82" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8783,24 +8813,24 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E83" s="6" t="n">
+      <c r="E83" s="7" t="n">
         <v>-0.03953067394323685</v>
       </c>
-      <c r="F83" s="6" t="n">
+      <c r="F83" s="7" t="n">
         <v>-0.006868188794175809</v>
       </c>
-      <c r="G83" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H83" s="6" t="n">
+      <c r="G83" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H83" s="7" t="n">
         <v>-0.04266160815402043</v>
       </c>
-      <c r="I83" s="6" t="n">
+      <c r="I83" s="7" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="J83" s="6" t="n">
+      <c r="J83" s="7" t="n">
         <v>0.2268749475451113</v>
       </c>
       <c r="K83" t="n">
@@ -8830,28 +8860,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R83" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S83" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T83" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U83" s="6" t="n">
+      <c r="R83" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S83" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T83" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U83" s="7" t="n">
         <v>-0.03915843276345988</v>
       </c>
-      <c r="V83" s="6" t="n">
+      <c r="V83" s="7" t="n">
         <v>0.01796810289902097</v>
       </c>
-      <c r="W83" s="6" t="inlineStr">
+      <c r="W83" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8868,28 +8898,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E84" s="6" t="n">
+      <c r="E84" s="7" t="n">
         <v>-0.0255295440605192</v>
       </c>
-      <c r="F84" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G84" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H84" s="6" t="n">
+      <c r="F84" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G84" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H84" s="7" t="n">
         <v>0.0698395061728395</v>
       </c>
-      <c r="I84" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J84" s="6" t="inlineStr">
+      <c r="I84" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J84" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8925,28 +8955,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R84" s="6" t="n">
+      <c r="R84" s="7" t="n">
         <v>0.0129497967000993</v>
       </c>
-      <c r="S84" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T84" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U84" s="6" t="n">
+      <c r="S84" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T84" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U84" s="7" t="n">
         <v>-0.0581687262119664</v>
       </c>
-      <c r="V84" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W84" s="6" t="inlineStr">
+      <c r="V84" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W84" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8973,28 +9003,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E85" s="6" t="n">
+      <c r="E85" s="7" t="n">
         <v>0.00557674808694642</v>
       </c>
-      <c r="F85" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G85" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H85" s="6" t="n">
+      <c r="F85" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G85" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H85" s="7" t="n">
         <v>-0.00716188083273514</v>
       </c>
-      <c r="I85" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J85" s="6" t="inlineStr">
+      <c r="I85" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J85" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9030,28 +9060,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R85" s="6" t="n">
+      <c r="R85" s="7" t="n">
         <v>0.0139448211367372</v>
       </c>
-      <c r="S85" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T85" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U85" s="6" t="n">
+      <c r="S85" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T85" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U85" s="7" t="n">
         <v>0.0165010540411326</v>
       </c>
-      <c r="V85" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W85" s="6" t="inlineStr">
+      <c r="V85" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W85" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9078,24 +9108,24 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E86" s="6" t="n">
+      <c r="E86" s="7" t="n">
         <v>-0.221475864257249</v>
       </c>
-      <c r="F86" s="6" t="n">
+      <c r="F86" s="7" t="n">
         <v>-0.006868188794175809</v>
       </c>
-      <c r="G86" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H86" s="6" t="n">
+      <c r="G86" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H86" s="7" t="n">
         <v>0.1305027636524432</v>
       </c>
-      <c r="I86" s="6" t="n">
+      <c r="I86" s="7" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="J86" s="6" t="n">
+      <c r="J86" s="7" t="n">
         <v>0.2268749475451113</v>
       </c>
       <c r="K86" t="n">
@@ -9125,28 +9155,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R86" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S86" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T86" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U86" s="6" t="n">
+      <c r="R86" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S86" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T86" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U86" s="7" t="n">
         <v>-0.2673727668133168</v>
       </c>
-      <c r="V86" s="6" t="n">
+      <c r="V86" s="7" t="n">
         <v>0.01796810289902097</v>
       </c>
-      <c r="W86" s="6" t="inlineStr">
+      <c r="W86" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9173,28 +9203,28 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E87" s="6" t="n">
+      <c r="E87" s="7" t="n">
         <v>0.07132578764591302</v>
       </c>
-      <c r="F87" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G87" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H87" s="6" t="n">
+      <c r="F87" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G87" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H87" s="7" t="n">
         <v>-0.01820113439721505</v>
       </c>
-      <c r="I87" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J87" s="6" t="inlineStr">
+      <c r="I87" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J87" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9230,28 +9260,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R87" s="6" t="n">
+      <c r="R87" s="7" t="n">
         <v>0.04807614865476206</v>
       </c>
-      <c r="S87" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T87" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U87" s="6" t="n">
+      <c r="S87" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T87" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U87" s="7" t="n">
         <v>0.06942161018011195</v>
       </c>
-      <c r="V87" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W87" s="6" t="inlineStr">
+      <c r="V87" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W87" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9363,13 +9393,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="U3:W3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data_Formatted/Combined_OUTPUT.xlsx
+++ b/Data_Formatted/Combined_OUTPUT.xlsx
@@ -15,8 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -43,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -100,39 +102,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -142,12 +111,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,7 +499,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44904.65488224821</v>
+        <v>44904.65909675655</v>
       </c>
     </row>
     <row r="3">
@@ -588,7 +557,11 @@
           <t>Company Name</t>
         </is>
       </c>
-      <c r="C4" s="6" t="n"/>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Broker</t>
+        </is>
+      </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
           <t>currency</t>
@@ -675,33 +648,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>5.840111758925737e-05</v>
       </c>
-      <c r="F5" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H5" s="7" t="n">
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="n">
         <v>0.07628124203850306</v>
       </c>
-      <c r="I5" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J5" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
+      <c r="I5" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" s="7" t="n">
         <v>21.74111206727273</v>
       </c>
       <c r="L5" t="inlineStr">
@@ -719,7 +692,7 @@
           <t>We nudge up our FY22 RevPAR and EBITDA forecasts post Accor’s strong Q3, leaving our outer year forecasts and price target unchanged. Accor’s Q3 RevPAR was +14% vs 2019, well above our +7% forecast, though we estimate nearly half the difference was due to Turkey hyperinflation. We move our FY22/23/24 RevPAR index vs 2019 from 97/100/104 to 100/102/106, but cost inflation means we maintain our outer year EBITDA forecasts. Our FY22 EBITDA forecast rises 1% to €640m, the top of the company’s guidance range. We remain EW, PT €31.</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="7" t="n">
         <v>1.1806805255955</v>
       </c>
       <c r="P5" t="inlineStr">
@@ -732,28 +705,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="R5" s="6" t="n">
         <v>0.06575311257457761</v>
       </c>
-      <c r="S5" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T5" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U5" s="7" t="n">
+      <c r="S5" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T5" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U5" s="6" t="n">
         <v>3.420357127636997e-05</v>
       </c>
-      <c r="V5" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W5" s="7" t="inlineStr">
+      <c r="V5" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W5" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -780,33 +753,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="6" t="n">
         <v>0.01647607365312467</v>
       </c>
-      <c r="F6" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G6" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H6" s="7" t="n">
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="n">
         <v>-0.1107305970149254</v>
       </c>
-      <c r="I6" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J6" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" s="7" t="n">
         <v>6.532835820895522</v>
       </c>
       <c r="L6" t="inlineStr">
@@ -824,7 +797,7 @@
           <t xml:space="preserve">We update our model post the Q3'22 result: for Q4 we now forecast adj EBITDA of €144m (vs our pre-qtr estimate of €99m) which is broadly in-line with guidance for EBITDA to be “lower” QoQ . JPM 2022/23E adj EBITDA is~€1.3bn/0.6bn, +7%/-3% vs prior forecasts and -3%/-16% vs pre Q3 company-compiled consensus. </t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="7" t="n">
         <v>1.191621</v>
       </c>
       <c r="P6" t="inlineStr">
@@ -837,30 +810,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R6" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S6" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T6" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U6" s="7" t="n">
+      <c r="R6" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S6" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T6" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U6" s="6" t="n">
         <v>-0.001506917629376919</v>
       </c>
-      <c r="V6" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W6" s="7" t="inlineStr">
+      <c r="V6" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W6" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -887,33 +860,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="6" t="n">
         <v>-0.026803076023425</v>
       </c>
-      <c r="F7" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H7" s="7" t="n">
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="n">
         <v>0.09112348822406124</v>
       </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J7" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" s="7" t="n">
         <v>18.89719923615532</v>
       </c>
       <c r="L7" t="inlineStr">
@@ -931,7 +904,7 @@
           <t xml:space="preserve">We update our model to incorporate ASMI’s 3Q results and outlook. The co. has guided to 4Q22 sales in the €600-630 mil range. We raised 4Q22 orders estimate by 4.3% (we were below what the co. reported in 3Q) and revenue estimate by 1.3%. Reflecting the guidance‘22 we raise estimates by 2.1% but reduce ’23/’24 orders by ~2%/8% respectively. </t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="7" t="n">
         <v>13.71324</v>
       </c>
       <c r="P7" t="inlineStr">
@@ -944,30 +917,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R7" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S7" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T7" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U7" s="7" t="n">
+      <c r="R7" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S7" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T7" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U7" s="6" t="n">
         <v>-0.03110332438655196</v>
       </c>
-      <c r="V7" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W7" s="7" t="inlineStr">
+      <c r="V7" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W7" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -994,33 +967,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="6" t="n">
         <v>0.007563296748419601</v>
       </c>
-      <c r="F8" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="n">
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="n">
         <v>0.07523856825180264</v>
       </c>
-      <c r="I8" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" s="7" t="n">
         <v>9.535751672290219</v>
       </c>
       <c r="L8" t="inlineStr">
@@ -1038,7 +1011,7 @@
           <t>Post Q3 results, we update our model to reflect our latest thinking as it relates to demand and pricing, while also incorporating latest company guidance. As a result of these changes, we lower our FY'22 and '24 EBIT by -1.4 and +3.6% respectively. We leave our trough FY'23 EBIT assumption largely unchanged at €5.59bn. Based on these changes and marking to market our latest peer multiples we leave our PT unchanged at €57 and remain EW.</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="7" t="n">
         <v>5.18802588672947</v>
       </c>
       <c r="P8" t="inlineStr">
@@ -1051,28 +1024,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R8" s="7" t="n">
+      <c r="R8" s="6" t="n">
         <v>0.05317793560844009</v>
       </c>
-      <c r="S8" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T8" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U8" s="7" t="n">
+      <c r="S8" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T8" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U8" s="6" t="n">
         <v>0.007268443312473449</v>
       </c>
-      <c r="V8" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W8" s="7" t="inlineStr">
+      <c r="V8" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W8" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1099,33 +1072,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>-0.0217124507019239</v>
       </c>
-      <c r="F9" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="n">
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="n">
         <v>0.04093347468857678</v>
       </c>
-      <c r="I9" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" s="7" t="n">
         <v>25.66657831963954</v>
       </c>
       <c r="L9" t="inlineStr">
@@ -1143,7 +1116,7 @@
           <t>We revise estimates on Beiersdorf on the back of Q322 Results, and confident Conference Call. FY22E Adj. EPS -0.5% due to FX. We forecast FY22e LFL+10.0% for the Group, with Consumer LFL of 10.6% (9-10% guide) embedding a weaker Q4 at +7.3% (vs 11.7% 9M) due to delistings in Europe. We see Tesa at+7.5% (+4.9% in Q4) ahead of 6-7% guide. At a group level, we maintain FY22E Adj. EBIT margin at 13.2% . Net-net, we trim FY22/23EAdj. EPS -0.5/-2%.</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="7" t="n">
         <v>3.927442</v>
       </c>
       <c r="P9" t="inlineStr">
@@ -1156,30 +1129,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R9" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S9" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T9" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U9" s="7" t="n">
+      <c r="R9" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S9" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T9" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U9" s="6" t="n">
         <v>-0.02111534562029498</v>
       </c>
-      <c r="V9" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W9" s="7" t="inlineStr">
+      <c r="V9" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W9" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1206,33 +1179,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="6" t="n">
         <v>0.046133045636518</v>
       </c>
-      <c r="F10" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="n">
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="n">
         <v>0.0268634069400631</v>
       </c>
-      <c r="I10" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" s="7" t="n">
         <v>10.746024</v>
       </c>
       <c r="L10" t="inlineStr">
@@ -1250,7 +1223,7 @@
           <t>We update our estimates post Befesa's in-line 3Q report, which results in slight changes to our estimates</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="7" t="n">
         <v>3.255157</v>
       </c>
       <c r="P10" t="inlineStr">
@@ -1263,28 +1236,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R10" s="7" t="n">
+      <c r="R10" s="6" t="n">
         <v>0.02323066474645</v>
       </c>
-      <c r="S10" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T10" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U10" s="7" t="n">
+      <c r="S10" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T10" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U10" s="6" t="n">
         <v>-0.00374109716246696</v>
       </c>
-      <c r="V10" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W10" s="7" t="inlineStr">
+      <c r="V10" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W10" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1311,33 +1284,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="6" t="n">
         <v>0.0236032264056959</v>
       </c>
-      <c r="F11" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="n">
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="n">
         <v>-0.0701850928234968</v>
       </c>
-      <c r="I11" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J11" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
+      <c r="I11" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J11" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" s="7" t="n">
         <v>14.423214</v>
       </c>
       <c r="L11" t="inlineStr">
@@ -1355,7 +1328,7 @@
           <t>Updating for Q3 results</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="7" t="n">
         <v>3.355702</v>
       </c>
       <c r="P11" t="inlineStr">
@@ -1368,28 +1341,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R11" s="7" t="n">
+      <c r="R11" s="6" t="n">
         <v>0.0230699078884142</v>
       </c>
-      <c r="S11" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T11" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U11" s="7" t="n">
+      <c r="S11" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T11" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U11" s="6" t="n">
         <v>0.0263070535172958</v>
       </c>
-      <c r="V11" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W11" s="7" t="inlineStr">
+      <c r="V11" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W11" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1406,33 +1379,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="6" t="n">
         <v>-0.01667981110923226</v>
       </c>
-      <c r="F12" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G12" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="n">
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="n">
         <v>0.03664929304130848</v>
       </c>
-      <c r="I12" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
+      <c r="I12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" s="7" t="n">
         <v>13.41835320210701</v>
       </c>
       <c r="L12" t="inlineStr">
@@ -1450,7 +1423,7 @@
           <t xml:space="preserve">We raise EPS 2022E by ~1% to €3.47, on higher organic sales growth of +8.1% for the year (vs +7.2% previously) as we expect more elevated pricing of +8.8% (+7.4% prior) though volume/mix we trim to -0.7% from -0.2%. By region, for 2022E we expect Europe LFL +5.6%, N. America +9.3%, China/N.Asia/Oceania +6.6% and RoW +10.8%. We continue to forecast recurring operating margins of 12.3%. </t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="7" t="n">
         <v>3.739194</v>
       </c>
       <c r="P12" t="inlineStr">
@@ -1463,32 +1436,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R12" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S12" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T12" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U12" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V12" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W12" s="7" t="inlineStr">
+      <c r="R12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V12" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W12" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1515,33 +1488,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="6" t="n">
         <v>-0.00587106688710932</v>
       </c>
-      <c r="F13" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="n">
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="n">
         <v>-0.142503939705379</v>
       </c>
-      <c r="I13" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J13" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
+      <c r="I13" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" s="7" t="n">
         <v>17.0743</v>
       </c>
       <c r="L13" t="inlineStr">
@@ -1559,7 +1532,7 @@
           <t>We update our estimates for Capgemini following its strong 3Q22 performance, which in our view demonstrated strong execution of its Digital and Cloud business.</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="7" t="n">
         <v>10.012124</v>
       </c>
       <c r="P13" t="inlineStr">
@@ -1572,28 +1545,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R13" s="7" t="n">
+      <c r="R13" s="6" t="n">
         <v>-0.0017957774468107</v>
       </c>
-      <c r="S13" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T13" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U13" s="7" t="n">
+      <c r="S13" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T13" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U13" s="6" t="n">
         <v>-0.00494740942517791</v>
       </c>
-      <c r="V13" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W13" s="7" t="inlineStr">
+      <c r="V13" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W13" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1610,33 +1583,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="6" t="n">
         <v>0.02200238369137142</v>
       </c>
-      <c r="F14" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="n">
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="n">
         <v>-0.01556527702417621</v>
       </c>
-      <c r="I14" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J14" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
+      <c r="I14" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J14" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" s="7" t="n">
         <v>14.64114467711924</v>
       </c>
       <c r="L14" t="inlineStr">
@@ -1654,7 +1627,7 @@
           <t>We update our model for 3Q revenue results. We move our 4Q22 organic growth forecasts up to 9.5%. The combination of the 3Q beat and our higher 4Q forecasts move FY22 revenues up by 1.5%. FY22-23 adj. EPS go up by c. 2%. We move our operating margin forecasts for 2024-2025 down slightly, which results in our adj. EPS being down c. 0.5% for FY24-25. We remain OW, PT €219.</t>
         </is>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="7" t="n">
         <v>11.4942594724656</v>
       </c>
       <c r="P14" t="inlineStr">
@@ -1667,28 +1640,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R14" s="7" t="n">
+      <c r="R14" s="6" t="n">
         <v>0.01928512855160447</v>
       </c>
-      <c r="S14" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T14" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U14" s="7" t="n">
+      <c r="S14" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T14" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U14" s="6" t="n">
         <v>0.02240500074310425</v>
       </c>
-      <c r="V14" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W14" s="7" t="inlineStr">
+      <c r="V14" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W14" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1705,33 +1678,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="6" t="n">
         <v>-0.0004179583631418326</v>
       </c>
-      <c r="F15" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="n">
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="n">
         <v>-0.005287063026282235</v>
       </c>
-      <c r="I15" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J15" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" s="7" t="n">
         <v>14.540273879391</v>
       </c>
       <c r="L15" t="inlineStr">
@@ -1749,7 +1722,7 @@
           <t xml:space="preserve">Following Q3 results, we upgrade our 2022 forecasts slightly given comments around ~10% organic growth in 4Q which implies organic growth of &gt;14% for 2022 (higher than the organic guidance upper end of 13.5%); as such we lift our organic growth forecasts from 13.3% to 14.2% for 2022, driving an upgrade to 2022 forecasts; beyond 2022 estimates unchanged. </t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="7" t="n">
         <v>11.69484</v>
       </c>
       <c r="P15" t="inlineStr">
@@ -1762,30 +1735,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R15" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S15" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T15" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U15" s="7" t="n">
+      <c r="R15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U15" s="6" t="n">
         <v>-0.0004184926800941791</v>
       </c>
-      <c r="V15" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W15" s="7" t="inlineStr">
+      <c r="V15" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W15" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1812,33 +1785,33 @@
           <t>CHF</t>
         </is>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="6" t="n">
         <v>0.02541318393800485</v>
       </c>
-      <c r="F16" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="n">
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="n">
         <v>-0.1102097053726169</v>
       </c>
-      <c r="I16" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J16" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J16" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K16" s="7" t="n">
         <v>14.5580589254766</v>
       </c>
       <c r="L16" t="inlineStr">
@@ -1856,7 +1829,7 @@
           <t xml:space="preserve">Due to strong 3Q22 results and better 4Q22 momentum than our previous expectations, we raise FY22E adj EBITDA by 6% to CHF 917m. However, we are keeping FY23/24E adj EBITDA broadly unchanged at CHF 824m/ CHF 910m. Due to sizable restructuring charges to be taken in 4Q22, our FY22E reported EBITDA is almost unchanged at CHF 838m despite a substantial upgrade to our FY22E underlying EBITDA estimate.  </t>
         </is>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" s="7" t="n">
         <v>1.026818</v>
       </c>
       <c r="P16" t="inlineStr">
@@ -1869,30 +1842,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R16" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S16" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T16" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U16" s="7" t="n">
+      <c r="R16" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S16" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T16" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U16" s="6" t="n">
         <v>0.02350090336124479</v>
       </c>
-      <c r="V16" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W16" s="7" t="inlineStr">
+      <c r="V16" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W16" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1919,33 +1892,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="6" t="n">
         <v>-0.01975874205760464</v>
       </c>
-      <c r="F17" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G17" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H17" s="7" t="n">
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="n">
         <v>-0.08427355828991279</v>
       </c>
-      <c r="I17" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J17" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K17" s="7" t="n">
         <v>26.57115292132213</v>
       </c>
       <c r="L17" t="inlineStr">
@@ -1963,7 +1936,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" s="7" t="n">
         <v>0.338939</v>
       </c>
       <c r="P17" t="inlineStr">
@@ -1976,32 +1949,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R17" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S17" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T17" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U17" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V17" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W17" s="7" t="inlineStr">
+      <c r="R17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V17" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W17" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2018,33 +1991,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="6" t="n">
         <v>0.04776449041011479</v>
       </c>
-      <c r="F18" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H18" s="7" t="n">
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H18" s="6" t="n">
         <v>0.06057574123989218</v>
       </c>
-      <c r="I18" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J18" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
+      <c r="I18" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J18" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K18" s="7" t="n">
         <v>24.2911051212938</v>
       </c>
       <c r="L18" t="inlineStr">
@@ -2062,7 +2035,7 @@
           <t xml:space="preserve">Overall accounting for better top line, strong FX tailwinds (benefits from € based costs), partly offset by high COGS inflation, we raise FY22E/23E adj. EPS by 4%/5% and see upside to FY23E from a step up in pricing into 2023. </t>
         </is>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" s="7" t="n">
         <v>0.3934736</v>
       </c>
       <c r="P18" t="inlineStr">
@@ -2075,30 +2048,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R18" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S18" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T18" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U18" s="7" t="n">
+      <c r="R18" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S18" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T18" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U18" s="6" t="n">
         <v>0.04610553215403881</v>
       </c>
-      <c r="V18" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W18" s="7" t="inlineStr">
+      <c r="V18" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W18" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2125,33 +2098,33 @@
           <t>CHF</t>
         </is>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="6" t="n">
         <v>-0.4676977985512514</v>
       </c>
-      <c r="F19" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G19" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H19" s="7" t="n">
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="n">
         <v>-0.2944722807017545</v>
       </c>
-      <c r="I19" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J19" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K19" s="7" t="n">
         <v>7.19294990723562</v>
       </c>
       <c r="L19" t="inlineStr">
@@ -2169,7 +2142,7 @@
           <t>We cut our adj. EPS by -47%/-42%/-37% in 2023E/24E/25E, respectively, with -28% dilution from CHF 4bn capital raise assumed simplistically at current price (not economic earnings dilution) and the balance from earnings cuts across divisions.</t>
         </is>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" s="7" t="n">
         <v>0.4021508</v>
       </c>
       <c r="P19" t="inlineStr">
@@ -2182,30 +2155,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R19" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S19" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T19" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U19" s="7" t="n">
+      <c r="R19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U19" s="6" t="n">
         <v>-0.2481005368590358</v>
       </c>
-      <c r="V19" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W19" s="7" t="inlineStr">
+      <c r="V19" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W19" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2232,33 +2205,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="6" t="n">
         <v>0.001201234820136676</v>
       </c>
-      <c r="F20" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G20" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H20" s="7" t="n">
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H20" s="6" t="n">
         <v>0.05713713148756305</v>
       </c>
-      <c r="I20" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J20" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
+      <c r="I20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K20" s="7" t="n">
         <v>25.34512701729041</v>
       </c>
       <c r="L20" t="inlineStr">
@@ -2276,7 +2249,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" s="7" t="n">
         <v>5.365923</v>
       </c>
       <c r="P20" t="inlineStr">
@@ -2289,32 +2262,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R20" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S20" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T20" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U20" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V20" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W20" s="7" t="inlineStr">
+      <c r="R20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V20" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W20" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2331,33 +2304,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="6" t="n">
         <v>-0.006159188135929972</v>
       </c>
-      <c r="F21" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H21" s="7" t="n">
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G21" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H21" s="6" t="n">
         <v>0.1042460314985825</v>
       </c>
-      <c r="I21" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J21" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
+      <c r="I21" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J21" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K21" s="7" t="n">
         <v>25.63265256234281</v>
       </c>
       <c r="L21" t="inlineStr">
@@ -2375,7 +2348,7 @@
           <t>We update our model post DiaSorin's Q3'22 results and guidance update. The main downward drivers of our -2.7%/-1.1% EPS revisions in FY22/23E were 1) weakness in Immuno in the quarter, bringing our 2022E CER growth for the business down from +5% to +4% (per company due to weakness in China and export issues), and 2) COVID sales, which we now model at -44% CER growth in 2022 vs -37% previously (company flagged more deceleration in Molecular vs antigen testing in the quarter). Our PT decreases from €143 to €141 on the back of these revisions. We remain EW.</t>
         </is>
       </c>
-      <c r="O21" t="n">
+      <c r="O21" s="7" t="n">
         <v>5.41080565965216</v>
       </c>
       <c r="P21" t="inlineStr">
@@ -2388,28 +2361,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R21" s="7" t="n">
+      <c r="R21" s="6" t="n">
         <v>-0.01100614006983758</v>
       </c>
-      <c r="S21" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T21" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U21" s="7" t="n">
+      <c r="S21" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T21" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U21" s="6" t="n">
         <v>-0.01100614006983724</v>
       </c>
-      <c r="V21" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W21" s="7" t="inlineStr">
+      <c r="V21" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W21" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2436,33 +2409,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="6" t="n">
         <v>-0.01962953701116887</v>
       </c>
-      <c r="F22" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G22" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H22" s="7" t="n">
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H22" s="6" t="n">
         <v>-0.04454035676549151</v>
       </c>
-      <c r="I22" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J22" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
+      <c r="I22" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J22" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K22" s="7" t="n">
         <v>8.46201969386725</v>
       </c>
       <c r="L22" t="inlineStr">
@@ -2480,7 +2453,7 @@
           <t>We update our DTG model post the pre-release of Q3 2022 earnings last night. DTG reported very strong unit sales earlier this month, and Q3 2022 revenues were again strong on higher ASPs and pricing. However, both North America and Mercedes Trucks (Europe) had stronger than expected Q3 2022 EBIT margins at 12.0% and 9.2% respectively - the first time Mercedes Trucks have beaten the 8% EBIT margin target. As a result, DTG has raised FY22 Group EBIT guidance and Mercedes Truck EBIT margin guidance to 7%-9% - up 100bps. As a result, we have a higher base of Q3 EBIT margins; we raise FY22 revenue by 7%, and FY23E goes up 10%, FY22E EBIT rises to €3.8bn, 7.7% EBIT margin, and FY23E at €3.6bn, 7.3% EBIT margin, as we model FY23E small volume declines. FY22E-FY24E EPS rises 7%, falls 2%, and rises 7%. Whilst the shape and depth of the FY23E downcycle remains to be seen, we think it is prudent to model any downside impact. Post a FY23E downturn, we model some improvement in FY24E. We remain OW, PT €35.</t>
         </is>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" s="7" t="n">
         <v>3.05651528571872</v>
       </c>
       <c r="P22" t="inlineStr">
@@ -2493,28 +2466,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R22" s="7" t="n">
+      <c r="R22" s="6" t="n">
         <v>0.09586070623745746</v>
       </c>
-      <c r="S22" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T22" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U22" s="7" t="n">
+      <c r="S22" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T22" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U22" s="6" t="n">
         <v>0.06333151470414689</v>
       </c>
-      <c r="V22" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W22" s="7" t="inlineStr">
+      <c r="V22" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W22" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2541,33 +2514,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="6" t="n">
         <v>0.004209965498427781</v>
       </c>
-      <c r="F23" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H23" s="7" t="n">
+      <c r="F23" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G23" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H23" s="6" t="n">
         <v>0.01442351470818415</v>
       </c>
-      <c r="I23" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J23" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
+      <c r="I23" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J23" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K23" s="7" t="n">
         <v>12.26887621752394</v>
       </c>
       <c r="L23" t="inlineStr">
@@ -2585,7 +2558,7 @@
           <t>We make modest tweaks to our revenue estimates to reflect latest volumes driving a ~1% cut in 2022 revenues (primarily cash &amp; fixed income trading and post-trade). As a result our 2022 EPS decline by ~1% and 2023/2024 broadly unchanged. Our PT remains unchanged (€91.50). We remain EW.</t>
         </is>
       </c>
-      <c r="O23" t="n">
+      <c r="O23" s="7" t="n">
         <v>5.38760315504473</v>
       </c>
       <c r="P23" t="inlineStr">
@@ -2598,28 +2571,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R23" s="7" t="n">
+      <c r="R23" s="6" t="n">
         <v>0.002196251107029035</v>
       </c>
-      <c r="S23" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T23" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U23" s="7" t="n">
+      <c r="S23" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T23" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U23" s="6" t="n">
         <v>0.004087378260795527</v>
       </c>
-      <c r="V23" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W23" s="7" t="inlineStr">
+      <c r="V23" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W23" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2646,33 +2619,33 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="6" t="n">
         <v>-0.01757050011702127</v>
       </c>
-      <c r="F24" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G24" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H24" s="7" t="n">
+      <c r="F24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H24" s="6" t="n">
         <v>-0.1025321019672339</v>
       </c>
-      <c r="I24" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J24" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
+      <c r="I24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K24" s="7" t="n">
         <v>14.68151053197546</v>
       </c>
       <c r="L24" t="inlineStr">
@@ -2690,7 +2663,7 @@
           <t xml:space="preserve">We update estimates on Essity post Q322 results. Despite better than feared Q322, we maintain our underlying estimates for FY22/23 while below-the-line items lead to Adj EPS22/23 +2%/-2% respectively. Near term, improving absolute pricing contribution in Q4 coupled with still elevated cost pressure should limit margin erosion to JPMe -210bps vs -410bps in 9M22. </t>
         </is>
       </c>
-      <c r="O24" t="n">
+      <c r="O24" s="7" t="n">
         <v>14.18807</v>
       </c>
       <c r="P24" t="inlineStr">
@@ -2703,32 +2676,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R24" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S24" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T24" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U24" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V24" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W24" s="7" t="inlineStr">
+      <c r="R24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V24" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W24" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2755,33 +2728,33 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="6" t="n">
         <v>0.06739763995636361</v>
       </c>
-      <c r="F25" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G25" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H25" s="7" t="n">
+      <c r="F25" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G25" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H25" s="6" t="n">
         <v>-0.006582079147827158</v>
       </c>
-      <c r="I25" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J25" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
+      <c r="I25" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J25" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K25" s="7" t="n">
         <v>19.86554501963295</v>
       </c>
       <c r="L25" t="inlineStr">
@@ -2799,7 +2772,7 @@
           <t>We upgrade EPS 2/7/1/1% in FY22/23/24/25. On the positive side, this reflects higher live revenue (higher Q3 base, stronger momentum), lower net finance charges and a phasing change on an assumed 15% tax rate (BEPS Pillar 2), now FY24. This is partially offset by (another) reduction in RNG (we assume 3% underlying revenue growth in FY23), and more conservatism on personnel and other costs. Taking a step back, we expect Evolution to deliver 36/26/22/18% revenue growth on 69.0/68.1/69.4/70.4% EBITDA margins, driving 40/20/18/20% EPS growth: a rare and impressive growth algorithm. We remain OW, PT increases from SEK 1,670 to SEK 1,680.</t>
         </is>
       </c>
-      <c r="O25" t="n">
+      <c r="O25" s="7" t="n">
         <v>51.35727228761593</v>
       </c>
       <c r="P25" t="inlineStr">
@@ -2812,28 +2785,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R25" s="7" t="n">
+      <c r="R25" s="6" t="n">
         <v>-0.0001756024294615743</v>
       </c>
-      <c r="S25" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T25" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U25" s="7" t="n">
+      <c r="S25" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T25" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U25" s="6" t="n">
         <v>-0.01092109080564119</v>
       </c>
-      <c r="V25" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W25" s="7" t="inlineStr">
+      <c r="V25" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W25" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2860,33 +2833,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="6" t="n">
         <v>0.1041172474132526</v>
       </c>
-      <c r="F26" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G26" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H26" s="7" t="n">
+      <c r="F26" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G26" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H26" s="6" t="n">
         <v>0.1756026559014003</v>
       </c>
-      <c r="I26" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J26" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
+      <c r="I26" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J26" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K26" s="7" t="n">
         <v>9.51566927819324</v>
       </c>
       <c r="L26" t="inlineStr">
@@ -2904,7 +2877,7 @@
           <t>We make minor tweaks to Eiffage's operational earnings following substantially better-than-expected Vinci 3Q22 revenue print, boding well for Eiffage's French contracting business momentum into 3Q/FY22. We also include the deal announced for the purchase of a 13.71% stake in Getlink for €1,194m, treating the combined 18.79% stake as an associate vs. financial asset for the 5.08% stake held by Eiffage previously. This drives a +2/+10/+4% boost to 2022/23/24e EPS at the expense of a larger debt load. This puts us ahead of Bloomberg consensus earnings by +2/+14/+11% (pre-deal consensus). Our PT increases from €136 to €138 on the back of modest tweaks to earnings as well as the re-rating of listed Contracting peers used to value Eiffage Construction, Real Estate development, Infrastructure and Energy Systems divisions. We remain OW.</t>
         </is>
       </c>
-      <c r="O26" t="n">
+      <c r="O26" s="7" t="n">
         <v>11.1411866480208</v>
       </c>
       <c r="P26" t="inlineStr">
@@ -2917,28 +2890,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R26" s="7" t="n">
+      <c r="R26" s="6" t="n">
         <v>0.004667505873919175</v>
       </c>
-      <c r="S26" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T26" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U26" s="7" t="n">
+      <c r="S26" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T26" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U26" s="6" t="n">
         <v>0.001847579835412061</v>
       </c>
-      <c r="V26" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W26" s="7" t="inlineStr">
+      <c r="V26" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W26" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2965,33 +2938,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="6" t="n">
         <v>-0.0389966711609961</v>
       </c>
-      <c r="F27" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G27" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H27" s="7" t="n">
+      <c r="F27" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G27" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H27" s="6" t="n">
         <v>0.108253579952267</v>
       </c>
-      <c r="I27" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J27" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
+      <c r="I27" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J27" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K27" s="7" t="n">
         <v>10.342228</v>
       </c>
       <c r="L27" t="inlineStr">
@@ -3009,7 +2982,7 @@
           <t xml:space="preserve">We make minor changes to estimates reflecting higher 2022 tax burden and updating our buyback phasing. </t>
         </is>
       </c>
-      <c r="O27" t="n">
+      <c r="O27" s="7" t="n">
         <v>1.857433</v>
       </c>
       <c r="P27" t="inlineStr">
@@ -3022,28 +2995,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R27" s="7" t="n">
+      <c r="R27" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="S27" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T27" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U27" s="7" t="n">
+      <c r="S27" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T27" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U27" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="V27" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W27" s="7" t="inlineStr">
+      <c r="V27" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W27" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3070,33 +3043,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E28" s="7" t="n">
+      <c r="E28" s="6" t="n">
         <v>0.008162080299386131</v>
       </c>
-      <c r="F28" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G28" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H28" s="7" t="n">
+      <c r="F28" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G28" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H28" s="6" t="n">
         <v>0.0417528795811519</v>
       </c>
-      <c r="I28" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J28" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
+      <c r="I28" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J28" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K28" s="7" t="n">
         <v>8.689541</v>
       </c>
       <c r="L28" t="inlineStr">
@@ -3114,7 +3087,7 @@
           <t>Updating for Q3 results</t>
         </is>
       </c>
-      <c r="O28" t="n">
+      <c r="O28" s="7" t="n">
         <v>1.989748</v>
       </c>
       <c r="P28" t="inlineStr">
@@ -3127,28 +3100,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R28" s="7" t="n">
+      <c r="R28" s="6" t="n">
         <v>0.0183009119859956</v>
       </c>
-      <c r="S28" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T28" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U28" s="7" t="n">
+      <c r="S28" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T28" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U28" s="6" t="n">
         <v>0.0431432002727963</v>
       </c>
-      <c r="V28" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W28" s="7" t="inlineStr">
+      <c r="V28" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W28" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3165,27 +3138,27 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E29" s="7" t="n">
+      <c r="E29" s="6" t="n">
         <v>0.1012840208006442</v>
       </c>
-      <c r="F29" s="7" t="n">
+      <c r="F29" s="6" t="n">
         <v>-0.006868188794175809</v>
       </c>
-      <c r="G29" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H29" s="7" t="n">
+      <c r="G29" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H29" s="6" t="n">
         <v>-0.1825853658536585</v>
       </c>
-      <c r="I29" s="7" t="n">
+      <c r="I29" s="6" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="J29" s="7" t="n">
+      <c r="J29" s="6" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29" s="7" t="n">
         <v>8.785569105691057</v>
       </c>
       <c r="L29" t="n">
@@ -3201,7 +3174,7 @@
           <t xml:space="preserve">Following Q3 results, we are tweaking up our operating income estimate by 3% on average for FY22/23 and remain in line with Bloomberg sourced consensus estimates FY22/23. </t>
         </is>
       </c>
-      <c r="O29" t="n">
+      <c r="O29" s="7" t="n">
         <v>1.608672</v>
       </c>
       <c r="P29" t="n">
@@ -3212,28 +3185,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R29" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S29" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T29" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U29" s="7" t="n">
+      <c r="R29" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S29" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T29" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U29" s="6" t="n">
         <v>-0.01336559296712238</v>
       </c>
-      <c r="V29" s="7" t="n">
+      <c r="V29" s="6" t="n">
         <v>0.01796810289902097</v>
       </c>
-      <c r="W29" s="7" t="inlineStr">
+      <c r="W29" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3260,33 +3233,33 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E30" s="7" t="n">
+      <c r="E30" s="6" t="n">
         <v>-0.007805116918217836</v>
       </c>
-      <c r="F30" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G30" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H30" s="7" t="n">
+      <c r="F30" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G30" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H30" s="6" t="n">
         <v>-0.4805592560755999</v>
       </c>
-      <c r="I30" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J30" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
+      <c r="I30" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J30" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K30" s="7" t="n">
         <v>21.50559576368115</v>
       </c>
       <c r="L30" t="inlineStr">
@@ -3304,7 +3277,7 @@
           <t>We update our forecasts post 3Q production results. Our 2022 EBITDA stands at US$766mn (3% below prior estimates) as we cut our 2022 silver production to 55.2moz (55.5moz) and gold production to 625koz (from 634koz). Our forecasts beyond 2022 remain broadly unchanged. We keep our PT unchanged. We remain EW, PT 730p.</t>
         </is>
       </c>
-      <c r="O30" t="n">
+      <c r="O30" s="7" t="n">
         <v>17.97038862473261</v>
       </c>
       <c r="P30" t="inlineStr">
@@ -3317,28 +3290,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R30" s="7" t="n">
+      <c r="R30" s="6" t="n">
         <v>-0.004648792603658358</v>
       </c>
-      <c r="S30" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T30" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U30" s="7" t="n">
+      <c r="S30" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T30" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U30" s="6" t="n">
         <v>-0.005096362907756169</v>
       </c>
-      <c r="V30" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W30" s="7" t="inlineStr">
+      <c r="V30" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W30" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3365,33 +3338,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E31" s="7" t="n">
+      <c r="E31" s="6" t="n">
         <v>-0.02060092726569981</v>
       </c>
-      <c r="F31" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G31" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H31" s="7" t="n">
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G31" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H31" s="6" t="n">
         <v>0.008422251506024159</v>
       </c>
-      <c r="I31" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J31" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
+      <c r="I31" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J31" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K31" s="7" t="n">
         <v>15.67771084337349</v>
       </c>
       <c r="L31" t="inlineStr">
@@ -3409,7 +3382,7 @@
           <t xml:space="preserve">We update our model following Q322 results. Despite the Q3 volume miss amid higher pricing, we leave our FY22E adj. EPS estimate broadly unchanged as softer volume forecasts are offset by better margins, though we reduce FY23E EPS by -2% on more prudent volume assumptions (eg. Europe -2%). </t>
         </is>
       </c>
-      <c r="O31" t="n">
+      <c r="O31" s="7" t="n">
         <v>5.356739</v>
       </c>
       <c r="P31" t="inlineStr">
@@ -3422,30 +3395,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R31" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S31" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T31" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U31" s="7" t="n">
+      <c r="R31" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S31" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T31" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U31" s="6" t="n">
         <v>-0.02034776293706925</v>
       </c>
-      <c r="V31" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W31" s="7" t="inlineStr">
+      <c r="V31" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W31" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3462,33 +3435,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E32" s="7" t="n">
+      <c r="E32" s="6" t="n">
         <v>-0.00281303921806671</v>
       </c>
-      <c r="F32" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G32" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H32" s="7" t="n">
+      <c r="F32" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G32" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H32" s="6" t="n">
         <v>-0.050602908277405</v>
       </c>
-      <c r="I32" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J32" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
+      <c r="I32" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J32" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K32" s="7" t="n">
         <v>16.35325</v>
       </c>
       <c r="L32" t="inlineStr">
@@ -3506,7 +3479,7 @@
           <t>We update our estimates for Heineken post the Q3 22 trading update</t>
         </is>
       </c>
-      <c r="O32" t="n">
+      <c r="O32" s="7" t="n">
         <v>5.092566</v>
       </c>
       <c r="P32" t="inlineStr">
@@ -3519,28 +3492,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R32" s="7" t="n">
+      <c r="R32" s="6" t="n">
         <v>-0.00410732710221073</v>
       </c>
-      <c r="S32" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T32" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U32" s="7" t="n">
+      <c r="S32" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T32" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U32" s="6" t="n">
         <v>-0.000647121030439513</v>
       </c>
-      <c r="V32" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W32" s="7" t="inlineStr">
+      <c r="V32" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W32" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3567,33 +3540,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E33" s="7" t="n">
+      <c r="E33" s="6" t="n">
         <v>-0.008793017456359169</v>
       </c>
-      <c r="F33" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G33" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H33" s="7" t="n">
+      <c r="F33" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G33" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H33" s="6" t="n">
         <v>-0.143375</v>
       </c>
-      <c r="I33" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J33" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
+      <c r="I33" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J33" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K33" s="7" t="n">
         <v>25.203226</v>
       </c>
       <c r="L33" t="inlineStr">
@@ -3611,7 +3584,7 @@
           <t xml:space="preserve">We update our estimates for the 3Q22 results and recent FX movements. </t>
         </is>
       </c>
-      <c r="O33" t="n">
+      <c r="O33" s="7" t="n">
         <v>0.397474</v>
       </c>
       <c r="P33" t="inlineStr">
@@ -3624,28 +3597,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R33" s="7" t="n">
+      <c r="R33" s="6" t="n">
         <v>-0.00824623430556248</v>
       </c>
-      <c r="S33" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T33" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U33" s="7" t="n">
+      <c r="S33" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T33" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U33" s="6" t="n">
         <v>-0.008246233967340699</v>
       </c>
-      <c r="V33" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W33" s="7" t="inlineStr">
+      <c r="V33" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W33" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3662,33 +3635,33 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E34" s="7" t="n">
+      <c r="E34" s="6" t="n">
         <v>0.0002543725453896251</v>
       </c>
-      <c r="F34" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G34" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H34" s="7" t="n">
+      <c r="F34" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G34" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H34" s="6" t="n">
         <v>-0.05270586482066297</v>
       </c>
-      <c r="I34" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J34" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
+      <c r="I34" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J34" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K34" s="7" t="n">
         <v>21.35635688346144</v>
       </c>
       <c r="L34" t="inlineStr">
@@ -3706,7 +3679,7 @@
           <t>We update our forecasts post 3Q results, which were broadly in-line with our forecasts on revenue and profitability. Our FY22 organic growth forecast mechanically moves down to 7.5% (from 7.7%), while our adj. EBIT margin forecast remains unchanged at 29.6%. Our adj. diluted EPS forecast is broadly unchanged. Consistent with our reset of 2023 forecasts across our software sector, we continue to look for -1% org. growth in FY23, with margins down y/y (to c. 29%), reflecting a tougher macro environment. We remain UW, PT SEK 103.</t>
         </is>
       </c>
-      <c r="O34" t="n">
+      <c r="O34" s="7" t="n">
         <v>4.84817001046107</v>
       </c>
       <c r="P34" t="inlineStr">
@@ -3719,28 +3692,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R34" s="7" t="n">
+      <c r="R34" s="6" t="n">
         <v>-0.00113221280431719</v>
       </c>
-      <c r="S34" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T34" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U34" s="7" t="n">
+      <c r="S34" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T34" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U34" s="6" t="n">
         <v>-0.0002904802886343205</v>
       </c>
-      <c r="V34" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W34" s="7" t="inlineStr">
+      <c r="V34" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W34" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3767,33 +3740,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E35" s="7" t="n">
+      <c r="E35" s="6" t="n">
         <v>0.065071828147543</v>
       </c>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G35" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H35" s="7" t="n">
+      <c r="F35" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G35" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H35" s="6" t="n">
         <v>0.5404417475728156</v>
       </c>
-      <c r="I35" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J35" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
+      <c r="I35" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J35" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K35" s="7" t="n">
         <v>14.90291262135922</v>
       </c>
       <c r="L35" t="inlineStr">
@@ -3811,7 +3784,7 @@
           <t xml:space="preserve">Given continued macro pressure, we lower our active customer forecasts for the US by -2% in the next three years while International active customers increase by +1% (though at the expense of higher marketing spend). Overall, given changes in AOVs our revenue estimates remain broadly unchanged and our FY22 forecast of +27% growth puts us toward the lower half of the guidance range of c.+26% to +31% Euro reported growth. </t>
         </is>
       </c>
-      <c r="O35" t="n">
+      <c r="O35" s="7" t="n">
         <v>2.221317</v>
       </c>
       <c r="P35" t="inlineStr">
@@ -3824,30 +3797,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R35" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S35" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T35" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U35" s="7" t="n">
+      <c r="R35" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S35" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T35" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U35" s="6" t="n">
         <v>0.03980841717441654</v>
       </c>
-      <c r="V35" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W35" s="7" t="inlineStr">
+      <c r="V35" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W35" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3874,33 +3847,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E36" s="7" t="n">
+      <c r="E36" s="6" t="n">
         <v>-0.05966395437627925</v>
       </c>
-      <c r="F36" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G36" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H36" s="7" t="n">
+      <c r="F36" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G36" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H36" s="6" t="n">
         <v>-0.3559255396473214</v>
       </c>
-      <c r="I36" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J36" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
+      <c r="I36" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J36" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K36" s="7" t="n">
         <v>13.86202450884581</v>
       </c>
       <c r="L36" t="inlineStr">
@@ -3918,7 +3891,7 @@
           <t>We have kept revenues broadly unchanged but lowered adj EBITDA 4% in FY22 due to higher marketing expenses and SGA. EPS moves down 14% due to higher D+A expenses. This implies 11% ccy growth in Q4, with adjusted EBITDA of €146m towards the lower end of management guidance for €140-175m. For FY23 we expect 10% revenue growth and adjusted EBITDA of €558m, implying 60bps margin expansion yoy. We now sit 12% below css for FY23 EBITDA although we would expect css to trend down in the next few days. Our PT nudges down slightly from €34 to €32 based on our forecast changes and slightly higher capex in 2023. We remain EW.</t>
         </is>
       </c>
-      <c r="O36" t="n">
+      <c r="O36" s="7" t="n">
         <v>0.99895948739277</v>
       </c>
       <c r="P36" t="inlineStr">
@@ -3931,28 +3904,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R36" s="7" t="n">
+      <c r="R36" s="6" t="n">
         <v>-0.001350241704499267</v>
       </c>
-      <c r="S36" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T36" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U36" s="7" t="n">
+      <c r="S36" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T36" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U36" s="6" t="n">
         <v>-0.06570628192768624</v>
       </c>
-      <c r="V36" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W36" s="7" t="inlineStr">
+      <c r="V36" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W36" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3979,33 +3952,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E37" s="7" t="n">
+      <c r="E37" s="6" t="n">
         <v>0.01196346325805142</v>
       </c>
-      <c r="F37" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G37" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H37" s="7" t="n">
+      <c r="F37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H37" s="6" t="n">
         <v>0.01209068469594632</v>
       </c>
-      <c r="I37" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J37" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
+      <c r="I37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K37" s="7" t="n">
         <v>9.894142471733119</v>
       </c>
       <c r="L37" t="inlineStr">
@@ -4023,7 +3996,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="O37" t="n">
+      <c r="O37" s="7" t="n">
         <v>0.5104030000000001</v>
       </c>
       <c r="P37" t="inlineStr">
@@ -4036,32 +4009,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R37" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S37" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T37" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U37" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V37" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W37" s="7" t="inlineStr">
+      <c r="R37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V37" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W37" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4088,33 +4061,33 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E38" s="7" t="n">
+      <c r="E38" s="6" t="n">
         <v>-0.07278866329248247</v>
       </c>
-      <c r="F38" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G38" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H38" s="7" t="n">
+      <c r="F38" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G38" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H38" s="6" t="n">
         <v>-0.07072997237569045</v>
       </c>
-      <c r="I38" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J38" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
+      <c r="I38" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J38" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K38" s="7" t="n">
         <v>10.20718232044199</v>
       </c>
       <c r="L38" t="inlineStr">
@@ -4132,7 +4105,7 @@
           <t>On the back of Q3 results, we adjust our underlying PBT forecasts by +7%/-4% in 2022 and 2023, respectively. Our numbers are 4%/1% ahead of company-collected consensus for 2022/2023.</t>
         </is>
       </c>
-      <c r="O38" t="n">
+      <c r="O38" s="7" t="n">
         <v>67.27915</v>
       </c>
       <c r="P38" t="inlineStr">
@@ -4145,30 +4118,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R38" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S38" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T38" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U38" s="7" t="n">
+      <c r="R38" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S38" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T38" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U38" s="6" t="n">
         <v>0.003251911442059412</v>
       </c>
-      <c r="V38" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W38" s="7" t="inlineStr">
+      <c r="V38" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W38" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4195,33 +4168,33 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E39" s="7" t="n">
+      <c r="E39" s="6" t="n">
         <v>0.01367895472204217</v>
       </c>
-      <c r="F39" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G39" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H39" s="7" t="n">
+      <c r="F39" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G39" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H39" s="6" t="n">
         <v>0.001931171938577725</v>
       </c>
-      <c r="I39" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J39" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
+      <c r="I39" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J39" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K39" s="7" t="n">
         <v>13.93445355027647</v>
       </c>
       <c r="L39" t="inlineStr">
@@ -4239,7 +4212,7 @@
           <t>Sales were $8m/4% ahead of consensus with a $2m beat on Sublocade and a $6m beat on the legacy film/tablet franchise. Gross margin was slightly lower than consensus (82.8% vs 83.9%) leading to a $4m/2% beat on gross profit. OPEX were $4m below consensus, leading to a $7m/14% beat on adjusted operating profit (adj. EBIT margin of 25% vs. cons 22.8%). The Q3 2022 tax rate was higher than expected (23.2% vs. cons. 15.2%), impacted by the mix of income between territories and restrictions on interest deductibility as interest rates increase. Adjusted EPS came in 8% above consensus expectations. We remain OW, PT 2,200p.</t>
         </is>
       </c>
-      <c r="O39" t="n">
+      <c r="O39" s="7" t="n">
         <v>114.1822099659511</v>
       </c>
       <c r="P39" t="inlineStr">
@@ -4252,28 +4225,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R39" s="7" t="n">
+      <c r="R39" s="6" t="n">
         <v>0.01015382467042425</v>
       </c>
-      <c r="S39" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T39" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U39" s="7" t="n">
+      <c r="S39" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T39" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U39" s="6" t="n">
         <v>0.01312075177455241</v>
       </c>
-      <c r="V39" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W39" s="7" t="inlineStr">
+      <c r="V39" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W39" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4300,33 +4273,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E40" s="7" t="n">
+      <c r="E40" s="6" t="n">
         <v>-0.0007196530191379438</v>
       </c>
-      <c r="F40" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G40" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H40" s="7" t="n">
+      <c r="F40" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G40" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H40" s="6" t="n">
         <v>-0.007546052631579037</v>
       </c>
-      <c r="I40" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J40" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
+      <c r="I40" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J40" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K40" s="7" t="n">
         <v>23.12631578947369</v>
       </c>
       <c r="L40" t="inlineStr">
@@ -4344,7 +4317,7 @@
           <t>Estimate changes are extremely modest at all levels. Revenue, EBITDA, EPS and EFCF estimate revisions are all limited to &lt;0.5% pa. Net debt falls 1% on a slightly lower than expected Q3 lease adjustment.</t>
         </is>
       </c>
-      <c r="O40" t="n">
+      <c r="O40" s="7" t="n">
         <v>0.3771325</v>
       </c>
       <c r="P40" t="inlineStr">
@@ -4357,30 +4330,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R40" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S40" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T40" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U40" s="7" t="n">
+      <c r="R40" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S40" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T40" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U40" s="6" t="n">
         <v>-0.0005882620488706101</v>
       </c>
-      <c r="V40" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W40" s="7" t="inlineStr">
+      <c r="V40" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W40" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4397,33 +4370,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E41" s="7" t="n">
+      <c r="E41" s="6" t="n">
         <v>0.00321231024660785</v>
       </c>
-      <c r="F41" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G41" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H41" s="7" t="n">
+      <c r="F41" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G41" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H41" s="6" t="n">
         <v>-0.144771794871795</v>
       </c>
-      <c r="I41" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J41" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
+      <c r="I41" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J41" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K41" s="7" t="n">
         <v>26.347724</v>
       </c>
       <c r="L41" t="inlineStr">
@@ -4441,7 +4414,7 @@
           <t>Updating for Q3 results</t>
         </is>
       </c>
-      <c r="O41" t="n">
+      <c r="O41" s="7" t="n">
         <v>0.333539</v>
       </c>
       <c r="P41" t="inlineStr">
@@ -4454,28 +4427,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R41" s="7" t="n">
+      <c r="R41" s="6" t="n">
         <v>0.00249407969908666</v>
       </c>
-      <c r="S41" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T41" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U41" s="7" t="n">
+      <c r="S41" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T41" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U41" s="6" t="n">
         <v>0.00264409303708257</v>
       </c>
-      <c r="V41" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W41" s="7" t="inlineStr">
+      <c r="V41" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W41" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4502,33 +4475,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E42" s="7" t="n">
+      <c r="E42" s="6" t="n">
         <v>0.004515926182184327</v>
       </c>
-      <c r="F42" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G42" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H42" s="7" t="n">
+      <c r="F42" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G42" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H42" s="6" t="n">
         <v>0.04962164719629869</v>
       </c>
-      <c r="I42" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J42" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
+      <c r="I42" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J42" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K42" s="7" t="n">
         <v>11.01975515166748</v>
       </c>
       <c r="L42" t="inlineStr">
@@ -4546,7 +4519,7 @@
           <t>We update our model to reflect 3Q22 sales dynamics. We increased our forecasts for Dysport following the strong 3Q22 trend driven by capacity increase, and lowered our forecasts for Somatuline due to an acceleration of the erosion in the quarter. Our 2023-2026 sales and profit forecasts are down ~1%. The increase in our Dysport forecasts has a positive back-end loaded impact, which makes the changes broadly neutral from a DCF/NPV perspective. We remain UW, PT €86.</t>
         </is>
       </c>
-      <c r="O42" t="n">
+      <c r="O42" s="7" t="n">
         <v>9.510621609110039</v>
       </c>
       <c r="P42" t="inlineStr">
@@ -4559,28 +4532,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R42" s="7" t="n">
+      <c r="R42" s="6" t="n">
         <v>-0.0004969480003301774</v>
       </c>
-      <c r="S42" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T42" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U42" s="7" t="n">
+      <c r="S42" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T42" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U42" s="6" t="n">
         <v>0.005423703568077309</v>
       </c>
-      <c r="V42" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W42" s="7" t="inlineStr">
+      <c r="V42" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W42" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4607,33 +4580,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E43" s="7" t="n">
+      <c r="E43" s="6" t="n">
         <v>0.009829177400395231</v>
       </c>
-      <c r="F43" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G43" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H43" s="7" t="n">
+      <c r="F43" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G43" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H43" s="6" t="n">
         <v>-0.0058939393939394</v>
       </c>
-      <c r="I43" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J43" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
+      <c r="I43" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J43" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K43" s="7" t="n">
         <v>19.413662</v>
       </c>
       <c r="L43" t="inlineStr">
@@ -4651,7 +4624,7 @@
           <t>Updating for Q3 results</t>
         </is>
       </c>
-      <c r="O43" t="n">
+      <c r="O43" s="7" t="n">
         <v>1.049776</v>
       </c>
       <c r="P43" t="inlineStr">
@@ -4664,28 +4637,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R43" s="7" t="n">
+      <c r="R43" s="6" t="n">
         <v>0.0835907150116342</v>
       </c>
-      <c r="S43" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T43" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U43" s="7" t="n">
+      <c r="S43" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T43" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U43" s="6" t="n">
         <v>0.0278155617800451</v>
       </c>
-      <c r="V43" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W43" s="7" t="inlineStr">
+      <c r="V43" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W43" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4712,33 +4685,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E44" s="7" t="n">
+      <c r="E44" s="6" t="n">
         <v>-0.0050108387011692</v>
       </c>
-      <c r="F44" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G44" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H44" s="7" t="n">
+      <c r="F44" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G44" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H44" s="6" t="n">
         <v>0.009124869383489997</v>
       </c>
-      <c r="I44" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J44" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
+      <c r="I44" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J44" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K44" s="7" t="n">
         <v>21.68234064785789</v>
       </c>
       <c r="L44" t="inlineStr">
@@ -4756,7 +4729,7 @@
           <t xml:space="preserve">We update our model cutting our 2022/2023/2024 adj. EBIT forecasts by 6%/1%/7%. Our 2022 comparable currencies sales growth of -2.1% and adj. EBIT of €1,049m compare to the guidance range of -1 to -4% comparable currencies sales growth and adj. EBIT at €1,010m-€1,090m. </t>
         </is>
       </c>
-      <c r="O44" t="n">
+      <c r="O44" s="7" t="n">
         <v>1.931465</v>
       </c>
       <c r="P44" t="inlineStr">
@@ -4769,30 +4742,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R44" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S44" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T44" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U44" s="7" t="n">
+      <c r="R44" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S44" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T44" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U44" s="6" t="n">
         <v>-0.005163277982837415</v>
       </c>
-      <c r="V44" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W44" s="7" t="inlineStr">
+      <c r="V44" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W44" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4809,33 +4782,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E45" s="7" t="n">
+      <c r="E45" s="6" t="n">
         <v>-0.008330887673331011</v>
       </c>
-      <c r="F45" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G45" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H45" s="7" t="n">
+      <c r="F45" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G45" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H45" s="6" t="n">
         <v>-0.0004003553517999414</v>
       </c>
-      <c r="I45" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J45" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
+      <c r="I45" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J45" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K45" s="7" t="n">
         <v>21.8076721294757</v>
       </c>
       <c r="L45" t="inlineStr">
@@ -4853,7 +4826,7 @@
           <t>The 3Q22 numbers are in-line with Kone's pre-release on 14th October. The main incremental points from the release are: (i) Cash Flow From Operations of €336.1m is solid (1H22 €251m); (ii) pricing improved in all areas; (iii) market outlook for 2022 is unchanged in Services; (iv) market outlook for 2022 New Equipment China is seen declining over 20% (prev. 15% decline), stable in EMEA (prev. slight growth) and growing clearly in both North America (unchanged) and Asia-Pacific, excluding China (prev. grow significantly). We remain OW, PT €52.</t>
         </is>
       </c>
-      <c r="O45" t="n">
+      <c r="O45" s="7" t="n">
         <v>1.90223812090565</v>
       </c>
       <c r="P45" t="inlineStr">
@@ -4866,28 +4839,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R45" s="7" t="n">
+      <c r="R45" s="6" t="n">
         <v>0.01032017895835247</v>
       </c>
-      <c r="S45" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T45" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U45" s="7" t="n">
+      <c r="S45" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T45" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U45" s="6" t="n">
         <v>-0.007639074754622888</v>
       </c>
-      <c r="V45" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W45" s="7" t="inlineStr">
+      <c r="V45" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W45" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4914,33 +4887,33 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="E46" s="7" t="n">
+      <c r="E46" s="6" t="n">
         <v>0.01178769379423989</v>
       </c>
-      <c r="F46" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G46" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H46" s="7" t="n">
+      <c r="F46" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G46" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H46" s="6" t="n">
         <v>-0.01953487192493031</v>
       </c>
-      <c r="I46" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J46" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
+      <c r="I46" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J46" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K46" s="7" t="n">
         <v>15.48455674432101</v>
       </c>
       <c r="L46" t="inlineStr">
@@ -4958,7 +4931,7 @@
           <t>We update our model post the H1 results and also update for FX. The main changes are our higher Americas and APAC margin assumptions for FY22, given the H1 result and our expectation of sequential improvement in H2 (in Americas), while we now expect a ~breakeven result in H2 for EMEA. The net impact is +22%/+2%/+1% upgrades to our FY22/FY23/FY34 adj. EBITDA forecasts. For FY22, we are now in-line with standing consensus.</t>
         </is>
       </c>
-      <c r="O46" t="n">
+      <c r="O46" s="7" t="n">
         <v>3.865974</v>
       </c>
       <c r="P46" t="inlineStr">
@@ -4971,30 +4944,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R46" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S46" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T46" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U46" s="7" t="n">
+      <c r="R46" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S46" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T46" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U46" s="6" t="n">
         <v>0.05420027465317249</v>
       </c>
-      <c r="V46" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W46" s="7" t="inlineStr">
+      <c r="V46" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W46" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5021,33 +4994,33 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E47" s="7" t="n">
+      <c r="E47" s="6" t="n">
         <v>0.005792100892638485</v>
       </c>
-      <c r="F47" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G47" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H47" s="7" t="n">
+      <c r="F47" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G47" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H47" s="6" t="n">
         <v>-0.02978616835114367</v>
       </c>
-      <c r="I47" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J47" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
+      <c r="I47" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J47" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K47" s="7" t="n">
         <v>6.2443442616932</v>
       </c>
       <c r="L47" t="inlineStr">
@@ -5065,7 +5038,7 @@
           <t>Q3 results were solid with Ppop 7% ahead of consensus and CET1 up 30bp qoq, however a 57bp top up in provisions resulted in 8% lower earnings and could put pressure on the stock despite there being no signs of delinquencies picking up so far. We remain EW, PT 58p.</t>
         </is>
       </c>
-      <c r="O47" t="n">
+      <c r="O47" s="7" t="n">
         <v>6.64693456646214</v>
       </c>
       <c r="P47" t="inlineStr">
@@ -5078,28 +5051,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R47" s="7" t="n">
+      <c r="R47" s="6" t="n">
         <v>0.002055650860119718</v>
       </c>
-      <c r="S47" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T47" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U47" s="7" t="n">
+      <c r="S47" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T47" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U47" s="6" t="n">
         <v>0.005118274159374492</v>
       </c>
-      <c r="V47" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W47" s="7" t="inlineStr">
+      <c r="V47" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W47" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5116,33 +5089,33 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E48" s="7" t="n">
+      <c r="E48" s="6" t="n">
         <v>0.0222707361134257</v>
       </c>
-      <c r="F48" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G48" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H48" s="7" t="n">
+      <c r="F48" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G48" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H48" s="6" t="n">
         <v>0.1107853846153846</v>
       </c>
-      <c r="I48" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J48" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
+      <c r="I48" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J48" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K48" s="7" t="n">
         <v>6.581538461538462</v>
       </c>
       <c r="L48" t="inlineStr">
@@ -5160,7 +5133,7 @@
           <t xml:space="preserve">Following Lloyds’ 3Q results (see here), we increase EPS by 2-3% for FY23-24E driven by higher NII and Other income, partly offset by higher provisions. We increase our 4QE provisions to 62bps assuming a further deterioration in the economic outlook which is likely to drive a further provision charge, resulting in a 6% decrease of FY22E EPS. </t>
         </is>
       </c>
-      <c r="O48" t="n">
+      <c r="O48" s="7" t="n">
         <v>7.220105</v>
       </c>
       <c r="P48" t="inlineStr">
@@ -5173,30 +5146,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R48" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S48" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T48" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U48" s="7" t="n">
+      <c r="R48" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S48" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T48" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U48" s="6" t="n">
         <v>0.02545244027159419</v>
       </c>
-      <c r="V48" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W48" s="7" t="inlineStr">
+      <c r="V48" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W48" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5223,33 +5196,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E49" s="7" t="n">
+      <c r="E49" s="6" t="n">
         <v>0.02408235987693486</v>
       </c>
-      <c r="F49" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G49" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H49" s="7" t="n">
+      <c r="F49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H49" s="6" t="n">
         <v>0.05606788876410818</v>
       </c>
-      <c r="I49" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J49" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
+      <c r="I49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K49" s="7" t="n">
         <v>8.043039750826336</v>
       </c>
       <c r="L49" t="inlineStr">
@@ -5267,7 +5240,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="O49" t="n">
+      <c r="O49" s="7" t="n">
         <v>1.096103</v>
       </c>
       <c r="P49" t="inlineStr">
@@ -5280,32 +5253,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R49" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S49" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T49" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U49" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V49" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W49" s="7" t="inlineStr">
+      <c r="R49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V49" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W49" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5332,33 +5305,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E50" s="7" t="n">
+      <c r="E50" s="6" t="n">
         <v>0.01463869045839927</v>
       </c>
-      <c r="F50" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G50" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H50" s="7" t="n">
+      <c r="F50" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G50" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H50" s="6" t="n">
         <v>0.06572101297614052</v>
       </c>
-      <c r="I50" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J50" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
+      <c r="I50" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J50" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K50" s="7" t="n">
         <v>18.41251569694433</v>
       </c>
       <c r="L50" t="inlineStr">
@@ -5376,7 +5349,7 @@
           <t xml:space="preserve">We move our 2022-25E EPS by +2% / +1% / 0% / -4%; the cut to 2025E reflects the c4% rally in the euro vs. the $ in the last month. </t>
         </is>
       </c>
-      <c r="O50" t="n">
+      <c r="O50" s="7" t="n">
         <v>10.18403</v>
       </c>
       <c r="P50" t="inlineStr">
@@ -5389,30 +5362,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R50" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S50" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T50" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U50" s="7" t="n">
+      <c r="R50" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S50" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T50" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U50" s="6" t="n">
         <v>0.08605828450245427</v>
       </c>
-      <c r="V50" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W50" s="7" t="inlineStr">
+      <c r="V50" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W50" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5439,33 +5412,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E51" s="7" t="n">
+      <c r="E51" s="6" t="n">
         <v>0.0007359845127379305</v>
       </c>
-      <c r="F51" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G51" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H51" s="7" t="n">
+      <c r="F51" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G51" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H51" s="6" t="n">
         <v>-0.02574229854971977</v>
       </c>
-      <c r="I51" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J51" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
+      <c r="I51" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J51" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K51" s="7" t="n">
         <v>31.68393721716265</v>
       </c>
       <c r="L51" t="inlineStr">
@@ -5483,7 +5456,7 @@
           <t>Forecasts updated post 3Q22 results. Our FY22 cc revenue growth forecast remains unchanged at 12.8%, although we slightly reduce our EBITDA margin forecast to 32.6% (from 33%). Interest/tax forecast changes however mean that adj. EPS increases c. 1% in FY22. We refresh our Build forecasts for more updated data on pricing levels for Bluebeam, meaning we now forecast c. 2.1% org. growth in FY23 at the group level (vs. 1.6% previously), and then 14.8% for FY24 (vs. 14.4% previously). Adj. EPS forecast changes are 0/1% for FY23/24. We remain EW, PT €61.25.</t>
         </is>
       </c>
-      <c r="O51" t="n">
+      <c r="O51" s="7" t="n">
         <v>1.50425391984209</v>
       </c>
       <c r="P51" t="inlineStr">
@@ -5496,28 +5469,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R51" s="7" t="n">
+      <c r="R51" s="6" t="n">
         <v>0.006751544394446141</v>
       </c>
-      <c r="S51" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T51" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U51" s="7" t="n">
+      <c r="S51" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T51" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U51" s="6" t="n">
         <v>-0.007759017395819079</v>
       </c>
-      <c r="V51" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W51" s="7" t="inlineStr">
+      <c r="V51" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W51" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5544,33 +5517,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E52" s="7" t="n">
+      <c r="E52" s="6" t="n">
         <v>-0.07203958604787</v>
       </c>
-      <c r="F52" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G52" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H52" s="7" t="n">
+      <c r="F52" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G52" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H52" s="6" t="n">
         <v>-0.0750649727767695</v>
       </c>
-      <c r="I52" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J52" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
+      <c r="I52" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J52" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K52" s="7" t="n">
         <v>17.840074</v>
       </c>
       <c r="L52" t="inlineStr">
@@ -5588,7 +5561,7 @@
           <t>Updating for Q3 results</t>
         </is>
       </c>
-      <c r="O52" t="n">
+      <c r="O52" s="7" t="n">
         <v>2.548196</v>
       </c>
       <c r="P52" t="inlineStr">
@@ -5601,28 +5574,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R52" s="7" t="n">
+      <c r="R52" s="6" t="n">
         <v>-0.0206700562551202</v>
       </c>
-      <c r="S52" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T52" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U52" s="7" t="n">
+      <c r="S52" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T52" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U52" s="6" t="n">
         <v>-0.105705355946625</v>
       </c>
-      <c r="V52" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W52" s="7" t="inlineStr">
+      <c r="V52" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W52" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5639,33 +5612,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E53" s="7" t="n">
+      <c r="E53" s="6" t="n">
         <v>-0.06854784566725645</v>
       </c>
-      <c r="F53" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G53" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H53" s="7" t="n">
+      <c r="F53" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G53" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H53" s="6" t="n">
         <v>-0.03744823828550681</v>
       </c>
-      <c r="I53" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J53" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
+      <c r="I53" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J53" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K53" s="7" t="n">
         <v>16.51289502361061</v>
       </c>
       <c r="L53" t="inlineStr">
@@ -5683,7 +5656,7 @@
           <t>Against a strong +17% 3Q EBITDA beat, we lower the 4Q renewables margin to ~$760/t and reflect increased renewables fixed cost guidance (+€55m q/q vs. prior JPMe c.+€20m). Net-net this leaves FY22e EBITDA +7%. Re-profiling 2023+ fixed costs (higher; JPMe 2023e now €725m from €670m) and applying updated DDA guidance (3Q a good baseline for 4Q) 2023/24e EBITDA is lowered by 4/1% and NI 7/3%, respectively.</t>
         </is>
       </c>
-      <c r="O53" t="n">
+      <c r="O53" s="7" t="n">
         <v>2.649905</v>
       </c>
       <c r="P53" t="inlineStr">
@@ -5696,30 +5669,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R53" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S53" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T53" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U53" s="7" t="n">
+      <c r="R53" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S53" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T53" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U53" s="6" t="n">
         <v>-0.06693613365619397</v>
       </c>
-      <c r="V53" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W53" s="7" t="inlineStr">
+      <c r="V53" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W53" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5746,33 +5719,33 @@
           <t>NOK</t>
         </is>
       </c>
-      <c r="E54" s="7" t="n">
+      <c r="E54" s="6" t="n">
         <v>-0.04061760451178948</v>
       </c>
-      <c r="F54" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G54" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H54" s="7" t="n">
+      <c r="F54" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G54" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H54" s="6" t="n">
         <v>-0.2015862690707351</v>
       </c>
-      <c r="I54" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J54" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
+      <c r="I54" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J54" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K54" s="7" t="n">
         <v>9.381414701803051</v>
       </c>
       <c r="L54" t="inlineStr">
@@ -5790,7 +5763,7 @@
           <t xml:space="preserve">We revise our estimates to reflect the latest guidance, particularly 2023E CO2 compensation &amp; near-term raw material costs. Thus, we revise our 2022-24E EBITDA estimates by +3%/-2%/+11%. This leaves us -18%/-28% below 2023/24E consensus. </t>
         </is>
       </c>
-      <c r="O54" t="n">
+      <c r="O54" s="7" t="n">
         <v>5.756563</v>
       </c>
       <c r="P54" t="inlineStr">
@@ -5803,30 +5776,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R54" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S54" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T54" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U54" s="7" t="n">
+      <c r="R54" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S54" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T54" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U54" s="6" t="n">
         <v>-0.0406608553625455</v>
       </c>
-      <c r="V54" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W54" s="7" t="inlineStr">
+      <c r="V54" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W54" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5853,33 +5826,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E55" s="7" t="n">
+      <c r="E55" s="6" t="n">
         <v>-0.0436062007306705</v>
       </c>
-      <c r="F55" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G55" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H55" s="7" t="n">
+      <c r="F55" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G55" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H55" s="6" t="n">
         <v>-0.184158964879852</v>
       </c>
-      <c r="I55" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J55" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
+      <c r="I55" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J55" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K55" s="7" t="n">
         <v>8.702455</v>
       </c>
       <c r="L55" t="inlineStr">
@@ -5897,7 +5870,7 @@
           <t xml:space="preserve"> Ahead of Pirelli's 3Q results next week (Nov 3), we update our estimates</t>
         </is>
       </c>
-      <c r="O55" t="n">
+      <c r="O55" s="7" t="n">
         <v>0.44137</v>
       </c>
       <c r="P55" t="inlineStr">
@@ -5910,28 +5883,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R55" s="7" t="n">
+      <c r="R55" s="6" t="n">
         <v>0.0133992335437561</v>
       </c>
-      <c r="S55" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T55" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U55" s="7" t="n">
+      <c r="S55" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T55" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U55" s="6" t="n">
         <v>-0.0215117584082215</v>
       </c>
-      <c r="V55" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W55" s="7" t="inlineStr">
+      <c r="V55" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W55" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5958,33 +5931,33 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E56" s="7" t="n">
+      <c r="E56" s="6" t="n">
         <v>0.004213424817720057</v>
       </c>
-      <c r="F56" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G56" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H56" s="7" t="n">
+      <c r="F56" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G56" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H56" s="6" t="n">
         <v>-0.006776989247311849</v>
       </c>
-      <c r="I56" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J56" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
+      <c r="I56" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J56" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K56" s="7" t="n">
         <v>26.66666666666666</v>
       </c>
       <c r="L56" t="inlineStr">
@@ -6002,7 +5975,7 @@
           <t xml:space="preserve">We increase our FY22E forecast to reflect management comments indicating their expectation to exceed market expectations for reported total revenue and EBITDA in FY22, noting company-compiled revenue consensus of £255.8m - £301.0m (New JPMe: £309.7m; Prev. £291.3m) and EBITDA of £79.2m - £85.6m (New JPMe: £88.5m; Prev. £81.3m). </t>
         </is>
       </c>
-      <c r="O56" t="n">
+      <c r="O56" s="7" t="n">
         <v>46.18487</v>
       </c>
       <c r="P56" t="inlineStr">
@@ -6015,30 +5988,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R56" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S56" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T56" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U56" s="7" t="n">
+      <c r="R56" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S56" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T56" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U56" s="6" t="n">
         <v>0.003334878108349544</v>
       </c>
-      <c r="V56" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W56" s="7" t="inlineStr">
+      <c r="V56" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W56" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6065,33 +6038,33 @@
           <t>DKK</t>
         </is>
       </c>
-      <c r="E57" s="7" t="n">
+      <c r="E57" s="6" t="n">
         <v>-0.02573619865173769</v>
       </c>
-      <c r="F57" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G57" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H57" s="7" t="n">
+      <c r="F57" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G57" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H57" s="6" t="n">
         <v>-0.09563479705180111</v>
       </c>
-      <c r="I57" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J57" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
+      <c r="I57" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J57" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K57" s="7" t="n">
         <v>14.41525953721076</v>
       </c>
       <c r="L57" t="inlineStr">
@@ -6109,7 +6082,7 @@
           <t xml:space="preserve">We are updating our Royal Unibrew (RBREW) model following its Q3 22 results and conference call. Having lowered our FY22E adj. EPS forecast by 8% following RBREW’s pre-release of Q322 results last week, our FY22E forecasts are broadly unchanged. However, we trim our FY23E EPS by 3% due to higher levels of COGS inflation through H123. </t>
         </is>
       </c>
-      <c r="O57" t="n">
+      <c r="O57" s="7" t="n">
         <v>26.13525</v>
       </c>
       <c r="P57" t="inlineStr">
@@ -6122,30 +6095,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R57" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S57" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T57" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U57" s="7" t="n">
+      <c r="R57" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S57" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T57" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U57" s="6" t="n">
         <v>-0.02465501340595096</v>
       </c>
-      <c r="V57" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W57" s="7" t="inlineStr">
+      <c r="V57" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W57" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6172,33 +6145,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E58" s="7" t="n">
+      <c r="E58" s="6" t="n">
         <v>0.00671796508432819</v>
       </c>
-      <c r="F58" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G58" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H58" s="7" t="n">
+      <c r="F58" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G58" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H58" s="6" t="n">
         <v>0.328287516170763</v>
       </c>
-      <c r="I58" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J58" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
+      <c r="I58" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J58" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K58" s="7" t="n">
         <v>3.369803</v>
       </c>
       <c r="L58" t="inlineStr">
@@ -6216,7 +6189,7 @@
           <t>Updating for Q3 results</t>
         </is>
       </c>
-      <c r="O58" t="n">
+      <c r="O58" s="7" t="n">
         <v>4.107065</v>
       </c>
       <c r="P58" t="inlineStr">
@@ -6229,28 +6202,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R58" s="7" t="n">
+      <c r="R58" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="S58" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T58" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U58" s="7" t="n">
+      <c r="S58" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T58" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U58" s="6" t="n">
         <v>-0.00691702207838096</v>
       </c>
-      <c r="V58" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W58" s="7" t="inlineStr">
+      <c r="V58" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W58" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6277,33 +6250,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E59" s="7" t="n">
+      <c r="E59" s="6" t="n">
         <v>-0.0106073922700253</v>
       </c>
-      <c r="F59" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G59" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H59" s="7" t="n">
+      <c r="F59" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G59" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H59" s="6" t="n">
         <v>0.286339451786588</v>
       </c>
-      <c r="I59" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J59" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
+      <c r="I59" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J59" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K59" s="7" t="n">
         <v>3.024173</v>
       </c>
       <c r="L59" t="inlineStr">
@@ -6321,7 +6294,7 @@
           <t xml:space="preserve"> We update our RNO estimates to reflect 3Q reported revenue, GS's latest estimates for Nissan and our evolving view with respect to the European market in 2023 and 2024. </t>
         </is>
       </c>
-      <c r="O59" t="n">
+      <c r="O59" s="7" t="n">
         <v>10.511966</v>
       </c>
       <c r="P59" t="inlineStr">
@@ -6334,28 +6307,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R59" s="7" t="n">
+      <c r="R59" s="6" t="n">
         <v>0.0101695676939675</v>
       </c>
-      <c r="S59" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T59" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U59" s="7" t="n">
+      <c r="S59" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T59" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U59" s="6" t="n">
         <v>-0.0294926320821921</v>
       </c>
-      <c r="V59" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W59" s="7" t="inlineStr">
+      <c r="V59" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W59" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6382,33 +6355,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E60" s="7" t="n">
+      <c r="E60" s="6" t="n">
         <v>0.1804518908983005</v>
       </c>
-      <c r="F60" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G60" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H60" s="7" t="n">
+      <c r="F60" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G60" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H60" s="6" t="n">
         <v>0.06823356643356648</v>
       </c>
-      <c r="I60" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J60" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
+      <c r="I60" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J60" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K60" s="7" t="n">
         <v>8.673673673673672</v>
       </c>
       <c r="L60" t="inlineStr">
@@ -6426,7 +6399,7 @@
           <t xml:space="preserve">Following the strong Q3 results and guidance upgrade we increase our 2022/23 sales forecast by 3%/8%, Adj EBITA by 8%/15% and Adj EPS by 11%/18%. We now forecast 2023 organic same day growth of +1.2% due to further price increases vs. pre-Q3 consensus of -0.9%, and Adj EBITA margin of 6.0%, in-line with consensus, up from 5.6% before. Trading at 7x EV/EBITA, 7.6x Adj PE and 11% FCF yield on our 2023E, the stock looks attractively valued and remains one of our top-picks in the sector. </t>
         </is>
       </c>
-      <c r="O60" t="n">
+      <c r="O60" s="7" t="n">
         <v>2.291361</v>
       </c>
       <c r="P60" t="inlineStr">
@@ -6439,30 +6412,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R60" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S60" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T60" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U60" s="7" t="n">
+      <c r="R60" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S60" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T60" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U60" s="6" t="n">
         <v>0.1608482987189881</v>
       </c>
-      <c r="V60" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W60" s="7" t="inlineStr">
+      <c r="V60" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W60" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6489,33 +6462,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E61" s="7" t="n">
+      <c r="E61" s="6" t="n">
         <v>0.3436929035885032</v>
       </c>
-      <c r="F61" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G61" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H61" s="7" t="n">
+      <c r="F61" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G61" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H61" s="6" t="n">
         <v>0.4714991304347824</v>
       </c>
-      <c r="I61" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J61" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
+      <c r="I61" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J61" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K61" s="7" t="n">
         <v>6.732173913043478</v>
       </c>
       <c r="L61" t="inlineStr">
@@ -6533,7 +6506,7 @@
           <t xml:space="preserve">Post Sabadell’s 3Q22 results, we increase on our net income estimates on average by c.6% in 2023-24E on the back of better than previously expected core revenue performance. </t>
         </is>
       </c>
-      <c r="O61" t="n">
+      <c r="O61" s="7" t="n">
         <v>0.1692224</v>
       </c>
       <c r="P61" t="inlineStr">
@@ -6546,30 +6519,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R61" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S61" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T61" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U61" s="7" t="n">
+      <c r="R61" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S61" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T61" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U61" s="6" t="n">
         <v>0.03503361742307426</v>
       </c>
-      <c r="V61" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W61" s="7" t="inlineStr">
+      <c r="V61" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W61" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6596,33 +6569,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E62" s="7" t="n">
+      <c r="E62" s="6" t="n">
         <v>-0.007731128314700686</v>
       </c>
-      <c r="F62" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G62" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H62" s="7" t="n">
+      <c r="F62" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G62" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H62" s="6" t="n">
         <v>0.02866867135147833</v>
       </c>
-      <c r="I62" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J62" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
+      <c r="I62" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J62" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K62" s="7" t="n">
         <v>6.56101690938301</v>
       </c>
       <c r="L62" t="inlineStr">
@@ -6640,7 +6613,7 @@
           <t>All revenue lines performed better than expected, including core with NII 5.5% ahead of MSe/consensus and fees 7/8% better. Costs and provisions were broadly in-line. CoR is at 57bp and total provisions were 10% ahead of MSe, but 6% lower than consensus. The NPL ratio was up 9bp qoq to 3.4% with the absolute number up 2% qoq due to lower recoveries in the summer period. Gross entries remained relatively stable. CET1 was up 4bp qoq to 12.52%. Underlying capital generation was stronger at +21bp, and the ratio progression included a 6bp OCI headwind. Payout has been increased to 40% for the full year (in-line with MSe) and also drove an additional 7bp deduction from on CET1. We remain EW, PT €0.79.</t>
         </is>
       </c>
-      <c r="O62" t="n">
+      <c r="O62" s="7" t="n">
         <v>0.12138290395524</v>
       </c>
       <c r="P62" t="inlineStr">
@@ -6653,28 +6626,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R62" s="7" t="n">
+      <c r="R62" s="6" t="n">
         <v>0.01645409909458473</v>
       </c>
-      <c r="S62" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T62" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U62" s="7" t="n">
+      <c r="S62" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T62" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U62" s="6" t="n">
         <v>0.01075318448181317</v>
       </c>
-      <c r="V62" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W62" s="7" t="inlineStr">
+      <c r="V62" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W62" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6701,33 +6674,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E63" s="7" t="n">
+      <c r="E63" s="6" t="n">
         <v>0.0117711048807413</v>
       </c>
-      <c r="F63" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G63" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H63" s="7" t="n">
+      <c r="F63" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G63" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H63" s="6" t="n">
         <v>0.07712380952380959</v>
       </c>
-      <c r="I63" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J63" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
+      <c r="I63" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J63" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K63" s="7" t="n">
         <v>4.64199</v>
       </c>
       <c r="L63" t="inlineStr">
@@ -6745,7 +6718,7 @@
           <t>We update our estimates post Q3 results</t>
         </is>
       </c>
-      <c r="O63" t="n">
+      <c r="O63" s="7" t="n">
         <v>0.56549</v>
       </c>
       <c r="P63" t="inlineStr">
@@ -6758,28 +6731,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R63" s="7" t="n">
+      <c r="R63" s="6" t="n">
         <v>0.0137582666355782</v>
       </c>
-      <c r="S63" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T63" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U63" s="7" t="n">
+      <c r="S63" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T63" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U63" s="6" t="n">
         <v>0.0121648534418399</v>
       </c>
-      <c r="V63" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W63" s="7" t="inlineStr">
+      <c r="V63" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W63" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6806,33 +6779,33 @@
           <t>NOK</t>
         </is>
       </c>
-      <c r="E64" s="7" t="n">
+      <c r="E64" s="6" t="n">
         <v>-0.09023893724577181</v>
       </c>
-      <c r="F64" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G64" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H64" s="7" t="n">
+      <c r="F64" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G64" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H64" s="6" t="n">
         <v>-0.2063768490816759</v>
       </c>
-      <c r="I64" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J64" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
+      <c r="I64" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J64" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K64" s="7" t="n">
         <v>29.45608279757789</v>
       </c>
       <c r="L64" t="inlineStr">
@@ -6850,7 +6823,7 @@
           <t>Guidance commentary and Q3 results will drive a hard reset in News Media estimates, we think, clearing the biggest drag for Group EBITDA. We set our PT at NOK 275 (previously NOK 280). The change comes from our estimate changes, and a higher WACC in News Media to reflect increasing uncertainty. We remain OW.</t>
         </is>
       </c>
-      <c r="O64" t="n">
+      <c r="O64" s="7" t="n">
         <v>4.31889711766658</v>
       </c>
       <c r="P64" t="inlineStr">
@@ -6863,28 +6836,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R64" s="7" t="n">
+      <c r="R64" s="6" t="n">
         <v>0.004219208787627382</v>
       </c>
-      <c r="S64" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T64" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U64" s="7" t="n">
+      <c r="S64" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T64" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U64" s="6" t="n">
         <v>-0.06829122852755543</v>
       </c>
-      <c r="V64" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W64" s="7" t="inlineStr">
+      <c r="V64" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W64" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6911,33 +6884,33 @@
           <t>CHF</t>
         </is>
       </c>
-      <c r="E65" s="7" t="n">
+      <c r="E65" s="6" t="n">
         <v>0.01242695710466468</v>
       </c>
-      <c r="F65" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G65" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H65" s="7" t="n">
+      <c r="F65" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G65" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H65" s="6" t="n">
         <v>-0.01060957799260931</v>
       </c>
-      <c r="I65" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J65" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
+      <c r="I65" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J65" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K65" s="7" t="n">
         <v>15.85752480252533</v>
       </c>
       <c r="L65" t="inlineStr">
@@ -6955,7 +6928,7 @@
           <t xml:space="preserve">Overall, our 2022 forecast is broadly unchanged. In 2023, we raise our top-line and EBITDA 0.6%, we also increase our capex 4% and therefore our FCF comes down 4%. We remain OW, PT remains unchanged at CHF 630 with better long-term revenue growth. </t>
         </is>
       </c>
-      <c r="O65" t="n">
+      <c r="O65" s="7" t="n">
         <v>29.91719787674511</v>
       </c>
       <c r="P65" t="inlineStr">
@@ -6968,28 +6941,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R65" s="7" t="n">
+      <c r="R65" s="6" t="n">
         <v>0.006089371222095519</v>
       </c>
-      <c r="S65" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T65" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U65" s="7" t="n">
+      <c r="S65" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T65" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U65" s="6" t="n">
         <v>0.01175865577223978</v>
       </c>
-      <c r="V65" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W65" s="7" t="inlineStr">
+      <c r="V65" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W65" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7016,33 +6989,33 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E66" s="7" t="n">
+      <c r="E66" s="6" t="n">
         <v>0.07738977867853447</v>
       </c>
-      <c r="F66" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G66" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H66" s="7" t="n">
+      <c r="F66" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G66" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H66" s="6" t="n">
         <v>0.0322501876481911</v>
       </c>
-      <c r="I66" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J66" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
+      <c r="I66" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J66" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K66" s="7" t="n">
         <v>21.69197403771647</v>
       </c>
       <c r="L66" t="inlineStr">
@@ -7060,7 +7033,7 @@
           <t>Updating post FY22 results, FY23-24 revenues -21-22%, reflecting updated reporting methodology. FY22-24 gross profit/net revenue +6-7% (reflecting FY22 beat), FY23-24 operating profit +7-8%, EPS +7-8%. We remain EW, PT 1,390p.</t>
         </is>
       </c>
-      <c r="O66" t="n">
+      <c r="O66" s="7" t="n">
         <v>55.2006108614149</v>
       </c>
       <c r="P66" t="inlineStr">
@@ -7073,28 +7046,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R66" s="7" t="n">
+      <c r="R66" s="6" t="n">
         <v>-0.2218307263517468</v>
       </c>
-      <c r="S66" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T66" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U66" s="7" t="n">
+      <c r="S66" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T66" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U66" s="6" t="n">
         <v>0.07625128302004236</v>
       </c>
-      <c r="V66" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W66" s="7" t="inlineStr">
+      <c r="V66" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W66" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7121,33 +7094,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E67" s="7" t="n">
+      <c r="E67" s="6" t="n">
         <v>0.02296225702569155</v>
       </c>
-      <c r="F67" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G67" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H67" s="7" t="n">
+      <c r="F67" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G67" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H67" s="6" t="n">
         <v>0.1172414843877505</v>
       </c>
-      <c r="I67" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J67" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
+      <c r="I67" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J67" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K67" s="7" t="n">
         <v>7.45776551253887</v>
       </c>
       <c r="L67" t="inlineStr">
@@ -7165,7 +7138,7 @@
           <t>We upgrade FY22/23 EBIT +4%/+2% post Q3 where better volumes were the standout. Destocking does not appear to be happening in earnest, and price/cost is positive. Consensus is too bearish on FY23 top line and margins. We remain OW, PT increases from €75 to €76.</t>
         </is>
       </c>
-      <c r="O67" t="n">
+      <c r="O67" s="7" t="n">
         <v>6.15041449941271</v>
       </c>
       <c r="P67" t="inlineStr">
@@ -7178,28 +7151,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R67" s="7" t="n">
+      <c r="R67" s="6" t="n">
         <v>0.01829457577109106</v>
       </c>
-      <c r="S67" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T67" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U67" s="7" t="n">
+      <c r="S67" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T67" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U67" s="6" t="n">
         <v>0.02059124636323229</v>
       </c>
-      <c r="V67" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W67" s="7" t="inlineStr">
+      <c r="V67" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W67" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7226,33 +7199,33 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="E68" s="7" t="n">
+      <c r="E68" s="6" t="n">
         <v>-0.03186641165543727</v>
       </c>
-      <c r="F68" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G68" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H68" s="7" t="n">
+      <c r="F68" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G68" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H68" s="6" t="n">
         <v>0.0193597682780664</v>
       </c>
-      <c r="I68" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J68" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
+      <c r="I68" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J68" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K68" s="7" t="n">
         <v>5.5960049084537</v>
       </c>
       <c r="L68" t="inlineStr">
@@ -7270,7 +7243,7 @@
           <t>Shell’s FY22 NI is lowered 3% incorporating 3Q actuals, forward guidance, and lowered forward Chemicals margins following the 3Q print. We also lower our Chems forecasts for 2023+ to incorporate the risk margin pressure on Shell’s commodity/base businesses persists into next year. On TSR we reflect a guided 15% 4Q DPS raise to $28.75c/sh and a 4Q buyback of $4bn, and assume a further $9bn buyback split evenly through 1H23.</t>
         </is>
       </c>
-      <c r="O68" t="n">
+      <c r="O68" s="7" t="n">
         <v>5.102915</v>
       </c>
       <c r="P68" t="inlineStr">
@@ -7283,30 +7256,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R68" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S68" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T68" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U68" s="7" t="n">
+      <c r="R68" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S68" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T68" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U68" s="6" t="n">
         <v>-0.02461153135251753</v>
       </c>
-      <c r="V68" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W68" s="7" t="inlineStr">
+      <c r="V68" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W68" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7333,33 +7306,33 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E69" s="7" t="n">
+      <c r="E69" s="6" t="n">
         <v>0.08924111877864238</v>
       </c>
-      <c r="F69" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G69" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H69" s="7" t="n">
+      <c r="F69" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G69" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H69" s="6" t="n">
         <v>0.3265140746352631</v>
       </c>
-      <c r="I69" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J69" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
+      <c r="I69" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J69" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K69" s="7" t="n">
         <v>11.15755664645475</v>
       </c>
       <c r="L69" t="inlineStr">
@@ -7377,7 +7350,7 @@
           <t>We update our forecasts and price target post Q3. We upgrade our FY22-FY24 RevPAR index vs 2019 to 98/102/105 from 94/100/103 previously, reflecting continued RevPAR momentum (Q3/Q2/Q1 +8%/flat/-34%), and increase our Q4 22 RevPAR estimate to +7% (-1% previously). This is partly offset by weaker catering &amp; conference revenue, and our revenue estimates change +5%/+1%/+0%. Our FY22-24 adj. EBITDA estimates move +16%/-1%/-3% to reflect this year’s revenue upgrade and better-than-expected cost control, though we expect core cost pressure as wage agreements and energy hedges roll off. This leads to FY22-FY24 adj. EBITDA margins of 14.2%/11.6%/11.5% vs 2019’s 10.8%. Our PT falls from SEK 45 to SEK 41 as we reduce our P/E multiple to 10x, a 15% discount to its pre Covid average, to reflect the company’s high operational gearing in this uncertain economic outlook. We remain EW.</t>
         </is>
       </c>
-      <c r="O69" t="n">
+      <c r="O69" s="7" t="n">
         <v>4.12545863295881</v>
       </c>
       <c r="P69" t="inlineStr">
@@ -7390,28 +7363,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R69" s="7" t="n">
+      <c r="R69" s="6" t="n">
         <v>0.01003245269603203</v>
       </c>
-      <c r="S69" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T69" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U69" s="7" t="n">
+      <c r="S69" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T69" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U69" s="6" t="n">
         <v>0.02761698436519655</v>
       </c>
-      <c r="V69" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W69" s="7" t="inlineStr">
+      <c r="V69" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W69" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7438,33 +7411,33 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E70" s="7" t="n">
+      <c r="E70" s="6" t="n">
         <v>0.03463220501952935</v>
       </c>
-      <c r="F70" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G70" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H70" s="7" t="n">
+      <c r="F70" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G70" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H70" s="6" t="n">
         <v>-0.2230525258924612</v>
       </c>
-      <c r="I70" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J70" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K70" t="n">
+      <c r="I70" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J70" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K70" s="7" t="n">
         <v>13.55062068150975</v>
       </c>
       <c r="L70" t="inlineStr">
@@ -7482,7 +7455,7 @@
           <t>We update our model post Q3 results with the latest FX assumptions, but we make no other meaningful changes to our assumptions. We recently cut our FY23e estimates for Skanska, reflecting a weak residential market and limited commercial divestments, given higher rates. Our views have not changed since Q3 results and are broadly in line with management's comments on the market outlook for the next 12 months. Our FY23 group EBIT (Segment Reporting) is 15% below consensus, due to our lower commercial divestment assumptions: to be clear, Skanska has projects to divest and can divest, but we assume, given its strong balance sheet, that it is in no rush to do so in a market downturn when it might not fetch the best price; it can afford to wait for better market conditions. We think this makes strategic sense – a trade-off between near-term earnings and long-term value creation. We remain EW, PT SEK 150.</t>
         </is>
       </c>
-      <c r="O70" t="n">
+      <c r="O70" s="7" t="n">
         <v>9.76156816545698</v>
       </c>
       <c r="P70" t="inlineStr">
@@ -7495,28 +7468,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R70" s="7" t="n">
+      <c r="R70" s="6" t="n">
         <v>-0.00199943839898975</v>
       </c>
-      <c r="S70" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T70" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U70" s="7" t="n">
+      <c r="S70" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T70" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U70" s="6" t="n">
         <v>0.04748832890731847</v>
       </c>
-      <c r="V70" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W70" s="7" t="inlineStr">
+      <c r="V70" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W70" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7543,33 +7516,33 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E71" s="7" t="n">
+      <c r="E71" s="6" t="n">
         <v>-0.07672804903929653</v>
       </c>
-      <c r="F71" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G71" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H71" s="7" t="n">
+      <c r="F71" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G71" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H71" s="6" t="n">
         <v>-0.06038781814827787</v>
       </c>
-      <c r="I71" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J71" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K71" t="n">
+      <c r="I71" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J71" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K71" s="7" t="n">
         <v>10.88221355155642</v>
       </c>
       <c r="L71" t="inlineStr">
@@ -7587,7 +7560,7 @@
           <t>We reduce our 2022e / 23e / 24e EBIT forecasts by 10% / 7.7% / 4.2%. This is primarily driven by higher costs in 2022e, and we also assume that some of the price tailwinds reverse in 2023e as costs start to reduce. Our target price comes down to SEK 147 (from SEK 160) as a result of our lowered forecasts. We remain EW.</t>
         </is>
       </c>
-      <c r="O71" t="n">
+      <c r="O71" s="7" t="n">
         <v>13.8884077889864</v>
       </c>
       <c r="P71" t="inlineStr">
@@ -7600,28 +7573,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R71" s="7" t="n">
+      <c r="R71" s="6" t="n">
         <v>0.04540866587563719</v>
       </c>
-      <c r="S71" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T71" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U71" s="7" t="n">
+      <c r="S71" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T71" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U71" s="6" t="n">
         <v>-0.0757898050099316</v>
       </c>
-      <c r="V71" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W71" s="7" t="inlineStr">
+      <c r="V71" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W71" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7648,37 +7621,37 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E72" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F72" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G72" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H72" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I72" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J72" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K72" t="n">
+      <c r="E72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K72" s="7" t="n">
         <v>20.872062268571</v>
       </c>
       <c r="L72" t="inlineStr">
@@ -7696,7 +7669,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="O72" t="n">
+      <c r="O72" s="7" t="n">
         <v>0.039699</v>
       </c>
       <c r="P72" t="inlineStr">
@@ -7709,32 +7682,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R72" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S72" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T72" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U72" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V72" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W72" s="7" t="inlineStr">
+      <c r="R72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V72" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W72" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7761,33 +7734,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E73" s="7" t="n">
+      <c r="E73" s="6" t="n">
         <v>-0.01004327517922798</v>
       </c>
-      <c r="F73" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G73" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H73" s="7" t="n">
+      <c r="F73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H73" s="6" t="n">
         <v>-0.004655407413474255</v>
       </c>
-      <c r="I73" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J73" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K73" t="n">
+      <c r="I73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K73" s="7" t="n">
         <v>13.3624362750228</v>
       </c>
       <c r="L73" t="inlineStr">
@@ -7805,7 +7778,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="O73" t="n">
+      <c r="O73" s="7" t="n">
         <v>0.334445</v>
       </c>
       <c r="P73" t="inlineStr">
@@ -7818,32 +7791,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R73" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S73" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T73" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U73" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V73" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W73" s="7" t="inlineStr">
+      <c r="R73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V73" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W73" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7870,33 +7843,33 @@
           <t>GBp</t>
         </is>
       </c>
-      <c r="E74" s="7" t="n">
+      <c r="E74" s="6" t="n">
         <v>-0.02117019684277077</v>
       </c>
-      <c r="F74" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G74" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H74" s="7" t="n">
+      <c r="F74" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G74" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H74" s="6" t="n">
         <v>0.009805101807634387</v>
       </c>
-      <c r="I74" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J74" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K74" t="n">
+      <c r="I74" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J74" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K74" s="7" t="n">
         <v>5.03375881498755</v>
       </c>
       <c r="L74" t="inlineStr">
@@ -7914,7 +7887,7 @@
           <t>Post 3Q22 results, we increase our 2022 earnings estimate by 15.5%, but reduce 2023 and 2024 by 2.1% and 7.5%, respectively. We lower our NII estimate for 2022 as Standard Chartered books rising funding costs for its trading books against NII at the group level. We raise our NII estimates for 2023 and 2024 slightly, reflecting continued NIM expansion in a rising rate environment. Our non-NII forecast for 2022 increases, driven mainly by our expectation for better trading performance. A lower wealth fee income outlook pushes our 2023 and 2024 forecasts lower. We remain EW, PT 797p.</t>
         </is>
       </c>
-      <c r="O74" t="n">
+      <c r="O74" s="7" t="n">
         <v>107.485001454101</v>
       </c>
       <c r="P74" t="inlineStr">
@@ -7927,28 +7900,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R74" s="7" t="n">
+      <c r="R74" s="6" t="n">
         <v>0.009213600243523246</v>
       </c>
-      <c r="S74" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T74" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U74" s="7" t="n">
+      <c r="S74" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T74" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U74" s="6" t="n">
         <v>-0.01994719567118897</v>
       </c>
-      <c r="V74" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W74" s="7" t="inlineStr">
+      <c r="V74" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W74" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -7975,33 +7948,33 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="E75" s="7" t="n">
+      <c r="E75" s="6" t="n">
         <v>-0.06724817138712656</v>
       </c>
-      <c r="F75" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G75" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H75" s="7" t="n">
+      <c r="F75" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G75" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H75" s="6" t="n">
         <v>-0.07771495198902612</v>
       </c>
-      <c r="I75" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J75" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K75" t="n">
+      <c r="I75" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J75" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K75" s="7" t="n">
         <v>8.897185066183509</v>
       </c>
       <c r="L75" t="inlineStr">
@@ -8019,7 +7992,7 @@
           <t>We adjust our model to incorporate STMicro’s 3Q22 results and revised outlook. STMicro’s 4Q guidance is below our estimates so we are revising down 4Q sales by 2.6% and cutting FY22/23E sales by 0.2%/4.8%. Our revised gross margin assumptions for 4Q (at 47.7%) and FY22 (at 47.4%) are largely in-line with the company guided FY22 margin of 47.3% and factors the healthy pricing in the near term. In FY23E, our EBIT is revised down by 6.5%.</t>
         </is>
       </c>
-      <c r="O75" t="n">
+      <c r="O75" s="7" t="n">
         <v>3.361729</v>
       </c>
       <c r="P75" t="inlineStr">
@@ -8032,30 +8005,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R75" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S75" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T75" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U75" s="7" t="n">
+      <c r="R75" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S75" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T75" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U75" s="6" t="n">
         <v>-0.07231881921052437</v>
       </c>
-      <c r="V75" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W75" s="7" t="inlineStr">
+      <c r="V75" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W75" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8082,33 +8055,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E76" s="7" t="n">
+      <c r="E76" s="6" t="n">
         <v>0.1110349554489376</v>
       </c>
-      <c r="F76" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G76" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H76" s="7" t="n">
+      <c r="F76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H76" s="6" t="n">
         <v>-0.1215153940743205</v>
       </c>
-      <c r="I76" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J76" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K76" t="n">
+      <c r="I76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K76" s="7" t="n">
         <v>10.77421344848859</v>
       </c>
       <c r="L76" t="inlineStr">
@@ -8126,7 +8099,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="O76" t="n">
+      <c r="O76" s="7" t="n">
         <v>3.242</v>
       </c>
       <c r="P76" t="inlineStr">
@@ -8139,32 +8112,32 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R76" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S76" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T76" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U76" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V76" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W76" s="7" t="inlineStr">
+      <c r="R76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V76" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W76" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8191,33 +8164,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E77" s="7" t="n">
+      <c r="E77" s="6" t="n">
         <v>-0.03083104420448857</v>
       </c>
-      <c r="F77" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G77" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H77" s="7" t="n">
+      <c r="F77" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G77" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H77" s="6" t="n">
         <v>0.04464506734464724</v>
       </c>
-      <c r="I77" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J77" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K77" t="n">
+      <c r="I77" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J77" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K77" s="7" t="n">
         <v>16.76794098709411</v>
       </c>
       <c r="L77" t="inlineStr">
@@ -8235,7 +8208,7 @@
           <t>Further to 3Q22 earnings, we make minor changes to the model. We now look for 10.2% YoY organic growth (small uplift); though a lower adjusted EBITA margin at 17.7% (previous 18.1%) as per management commentary discussed below. This results in a ~2.6% reduction in our FY22 EBITA estimate to €5.95bn, more in line with latest consensus. We look for ~€6.25bn EBITA in FY23 at a stable margin (17.8%) because we believe there may be some positive carry-over effect from pricing, as per 2011 (negative volume €185mn, positive price €226mn in that post-stimulus 'come down' year). We remain EW, PT €135.</t>
         </is>
       </c>
-      <c r="O77" t="n">
+      <c r="O77" s="7" t="n">
         <v>7.97690989762892</v>
       </c>
       <c r="P77" t="inlineStr">
@@ -8248,28 +8221,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R77" s="7" t="n">
+      <c r="R77" s="6" t="n">
         <v>0.00210380970885149</v>
       </c>
-      <c r="S77" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T77" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U77" s="7" t="n">
+      <c r="S77" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T77" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U77" s="6" t="n">
         <v>-0.03184856564869232</v>
       </c>
-      <c r="V77" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W77" s="7" t="inlineStr">
+      <c r="V77" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W77" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8296,33 +8269,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E78" s="7" t="n">
+      <c r="E78" s="6" t="n">
         <v>0.02378927329735722</v>
       </c>
-      <c r="F78" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G78" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H78" s="7" t="n">
+      <c r="F78" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G78" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H78" s="6" t="n">
         <v>0.06692553487079733</v>
       </c>
-      <c r="I78" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J78" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K78" t="n">
+      <c r="I78" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J78" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K78" s="7" t="n">
         <v>28.841344818005</v>
       </c>
       <c r="L78" t="inlineStr">
@@ -8340,7 +8313,7 @@
           <t xml:space="preserve">Following a solid Q322, we update our Symrise model, raising EPS 22E by ~2% on the back of higher organic sales growth (from +10.7% to +11.3%) and more favourable FX. </t>
         </is>
       </c>
-      <c r="O78" t="n">
+      <c r="O78" s="7" t="n">
         <v>3.839865</v>
       </c>
       <c r="P78" t="inlineStr">
@@ -8353,30 +8326,30 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R78" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S78" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T78" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U78" s="7" t="n">
+      <c r="R78" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S78" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T78" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U78" s="6" t="n">
         <v>0.02458973359581022</v>
       </c>
-      <c r="V78" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W78" s="7" t="inlineStr">
+      <c r="V78" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W78" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8403,33 +8376,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E79" s="7" t="n">
+      <c r="E79" s="6" t="n">
         <v>0.00197990773646195</v>
       </c>
-      <c r="F79" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G79" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H79" s="7" t="n">
+      <c r="F79" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G79" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H79" s="6" t="n">
         <v>-0.09454781144134961</v>
       </c>
-      <c r="I79" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J79" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K79" t="n">
+      <c r="I79" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J79" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K79" s="7" t="n">
         <v>10.0828498980252</v>
       </c>
       <c r="L79" t="inlineStr">
@@ -8447,7 +8420,7 @@
           <t>Forecasts updated post full 3Q22 results. FY22 adj. EPS rises 1.5% reflecting 3Q interest/tax beats vs. our prior forecasts set after the company's pre-released 3Q core headlines. EPS from 2023 onwards is largely unchanged. We remain EW, PT €26.25.</t>
         </is>
       </c>
-      <c r="O79" t="n">
+      <c r="O79" s="7" t="n">
         <v>2.18576161426682</v>
       </c>
       <c r="P79" t="inlineStr">
@@ -8460,28 +8433,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R79" s="7" t="n">
+      <c r="R79" s="6" t="n">
         <v>0.001745104996523583</v>
       </c>
-      <c r="S79" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T79" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U79" s="7" t="n">
+      <c r="S79" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T79" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U79" s="6" t="n">
         <v>0.00180947796280706</v>
       </c>
-      <c r="V79" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W79" s="7" t="inlineStr">
+      <c r="V79" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W79" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8508,33 +8481,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E80" s="7" t="n">
+      <c r="E80" s="6" t="n">
         <v>0.007467311715884772</v>
       </c>
-      <c r="F80" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G80" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H80" s="7" t="n">
+      <c r="F80" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G80" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H80" s="6" t="n">
         <v>0.2205594941488127</v>
       </c>
-      <c r="I80" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J80" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K80" t="n">
+      <c r="I80" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J80" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K80" s="7" t="n">
         <v>4.90630333245006</v>
       </c>
       <c r="L80" t="inlineStr">
@@ -8552,7 +8525,7 @@
           <t>We update our numbers post Q3 results. Overall, we make very minor changes to 2022 numbers. For 2023, revenue goes up 0.9%, as we expect higher prices to absorb inflation, while EBITDA is broadly unchanged. Our FCF remains unchanged, and our price target is also unchanged. We remain EW, PT €19.</t>
         </is>
       </c>
-      <c r="O80" t="n">
+      <c r="O80" s="7" t="n">
         <v>3.58234204548579</v>
       </c>
       <c r="P80" t="inlineStr">
@@ -8565,28 +8538,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R80" s="7" t="n">
+      <c r="R80" s="6" t="n">
         <v>0.008594125508947226</v>
       </c>
-      <c r="S80" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T80" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U80" s="7" t="n">
+      <c r="S80" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T80" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U80" s="6" t="n">
         <v>0.005745065125134063</v>
       </c>
-      <c r="V80" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W80" s="7" t="inlineStr">
+      <c r="V80" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W80" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8613,27 +8586,27 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E81" s="7" t="n">
+      <c r="E81" s="6" t="n">
         <v>0.01873922769445155</v>
       </c>
-      <c r="F81" s="7" t="n">
+      <c r="F81" s="6" t="n">
         <v>-0.006868188794175809</v>
       </c>
-      <c r="G81" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H81" s="7" t="n">
+      <c r="G81" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H81" s="6" t="n">
         <v>0.1088344864289514</v>
       </c>
-      <c r="I81" s="7" t="n">
+      <c r="I81" s="6" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="J81" s="7" t="n">
+      <c r="J81" s="6" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81" s="7" t="n">
         <v>13.97551889302821</v>
       </c>
       <c r="L81" t="n">
@@ -8649,7 +8622,7 @@
           <t>We raise our FY revenue growth to 14% and our FY EBITA to €404m; our Dec-23 PT of €53 is largely unchanged.</t>
         </is>
       </c>
-      <c r="O81" t="n">
+      <c r="O81" s="7" t="n">
         <v>2.0835</v>
       </c>
       <c r="P81" t="n">
@@ -8660,28 +8633,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R81" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S81" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T81" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U81" s="7" t="n">
+      <c r="R81" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S81" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T81" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U81" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="V81" s="7" t="n">
+      <c r="V81" s="6" t="n">
         <v>0.01796810289902097</v>
       </c>
-      <c r="W81" s="7" t="inlineStr">
+      <c r="W81" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8708,33 +8681,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E82" s="7" t="n">
+      <c r="E82" s="6" t="n">
         <v>0.00557674808694642</v>
       </c>
-      <c r="F82" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G82" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H82" s="7" t="n">
+      <c r="F82" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G82" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H82" s="6" t="n">
         <v>0.0199288348082595</v>
       </c>
-      <c r="I82" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J82" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K82" t="n">
+      <c r="I82" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J82" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K82" s="7" t="n">
         <v>16.186187</v>
       </c>
       <c r="L82" t="inlineStr">
@@ -8752,7 +8725,7 @@
           <t>updating for Q3 results</t>
         </is>
       </c>
-      <c r="O82" t="n">
+      <c r="O82" s="7" t="n">
         <v>2.766047</v>
       </c>
       <c r="P82" t="inlineStr">
@@ -8765,28 +8738,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R82" s="7" t="n">
+      <c r="R82" s="6" t="n">
         <v>0.0139448211367372</v>
       </c>
-      <c r="S82" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T82" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U82" s="7" t="n">
+      <c r="S82" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T82" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U82" s="6" t="n">
         <v>0.0165010540411326</v>
       </c>
-      <c r="V82" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W82" s="7" t="inlineStr">
+      <c r="V82" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W82" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8813,27 +8786,27 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E83" s="7" t="n">
+      <c r="E83" s="6" t="n">
         <v>-0.03953067394323685</v>
       </c>
-      <c r="F83" s="7" t="n">
+      <c r="F83" s="6" t="n">
         <v>-0.006868188794175809</v>
       </c>
-      <c r="G83" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H83" s="7" t="n">
+      <c r="G83" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H83" s="6" t="n">
         <v>-0.04266160815402043</v>
       </c>
-      <c r="I83" s="7" t="n">
+      <c r="I83" s="6" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="J83" s="7" t="n">
+      <c r="J83" s="6" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83" s="7" t="n">
         <v>23.5277463193658</v>
       </c>
       <c r="L83" t="n">
@@ -8849,7 +8822,7 @@
           <t xml:space="preserve">We cut our FY23 EBITDA by c3.5%, largely for a 1.8% FX headwind since our last update, with the loss of the 2022 OTI (although ongoing settlement income is likely) and second year of below-trend ad growth (6%) offset by the our assumption of an average US subscription price rise of c7%. Our longer-term EBITDA forecasts fall by 2-3%, largely for FX. </t>
         </is>
       </c>
-      <c r="O83" t="n">
+      <c r="O83" s="7" t="n">
         <v>0.8453298</v>
       </c>
       <c r="P83" t="n">
@@ -8860,28 +8833,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R83" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S83" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T83" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U83" s="7" t="n">
+      <c r="R83" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S83" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T83" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U83" s="6" t="n">
         <v>-0.03915843276345988</v>
       </c>
-      <c r="V83" s="7" t="n">
+      <c r="V83" s="6" t="n">
         <v>0.01796810289902097</v>
       </c>
-      <c r="W83" s="7" t="inlineStr">
+      <c r="W83" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -8898,33 +8871,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E84" s="7" t="n">
+      <c r="E84" s="6" t="n">
         <v>-0.0255295440605192</v>
       </c>
-      <c r="F84" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G84" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H84" s="7" t="n">
+      <c r="F84" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G84" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H84" s="6" t="n">
         <v>0.0698395061728395</v>
       </c>
-      <c r="I84" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J84" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K84" t="n">
+      <c r="I84" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J84" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K84" s="7" t="n">
         <v>21.794399</v>
       </c>
       <c r="L84" t="inlineStr">
@@ -8942,7 +8915,7 @@
           <t>Updating for Q3 results</t>
         </is>
       </c>
-      <c r="O84" t="n">
+      <c r="O84" s="7" t="n">
         <v>0.953227</v>
       </c>
       <c r="P84" t="inlineStr">
@@ -8955,28 +8928,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R84" s="7" t="n">
+      <c r="R84" s="6" t="n">
         <v>0.0129497967000993</v>
       </c>
-      <c r="S84" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T84" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U84" s="7" t="n">
+      <c r="S84" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T84" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U84" s="6" t="n">
         <v>-0.0581687262119664</v>
       </c>
-      <c r="V84" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W84" s="7" t="inlineStr">
+      <c r="V84" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W84" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9003,33 +8976,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E85" s="7" t="n">
+      <c r="E85" s="6" t="n">
         <v>0.00557674808694642</v>
       </c>
-      <c r="F85" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G85" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H85" s="7" t="n">
+      <c r="F85" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G85" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H85" s="6" t="n">
         <v>-0.00716188083273514</v>
       </c>
-      <c r="I85" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J85" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K85" t="n">
+      <c r="I85" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J85" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K85" s="7" t="n">
         <v>16.200013</v>
       </c>
       <c r="L85" t="inlineStr">
@@ -9047,7 +9020,7 @@
           <t>Updating for Q3 results</t>
         </is>
       </c>
-      <c r="O85" t="n">
+      <c r="O85" s="7" t="n">
         <v>2.766047</v>
       </c>
       <c r="P85" t="inlineStr">
@@ -9060,28 +9033,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R85" s="7" t="n">
+      <c r="R85" s="6" t="n">
         <v>0.0139448211367372</v>
       </c>
-      <c r="S85" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T85" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U85" s="7" t="n">
+      <c r="S85" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T85" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U85" s="6" t="n">
         <v>0.0165010540411326</v>
       </c>
-      <c r="V85" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W85" s="7" t="inlineStr">
+      <c r="V85" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W85" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9108,27 +9081,27 @@
           <t>SEK</t>
         </is>
       </c>
-      <c r="E86" s="7" t="n">
+      <c r="E86" s="6" t="n">
         <v>-0.221475864257249</v>
       </c>
-      <c r="F86" s="7" t="n">
+      <c r="F86" s="6" t="n">
         <v>-0.006868188794175809</v>
       </c>
-      <c r="G86" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H86" s="7" t="n">
+      <c r="G86" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H86" s="6" t="n">
         <v>0.1305027636524432</v>
       </c>
-      <c r="I86" s="7" t="n">
+      <c r="I86" s="6" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="J86" s="7" t="n">
+      <c r="J86" s="6" t="n">
         <v>0.2268749475451113</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86" s="7" t="n">
         <v>9.728056599602034</v>
       </c>
       <c r="L86" t="n">
@@ -9144,7 +9117,7 @@
           <t xml:space="preserve">We are trimming our FY23 earnings estimates by 7% in FY23 and take down the PT to Skr 60. </t>
         </is>
       </c>
-      <c r="O86" t="n">
+      <c r="O86" s="7" t="n">
         <v>5.113264</v>
       </c>
       <c r="P86" t="n">
@@ -9155,28 +9128,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R86" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S86" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T86" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U86" s="7" t="n">
+      <c r="R86" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S86" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T86" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U86" s="6" t="n">
         <v>-0.2673727668133168</v>
       </c>
-      <c r="V86" s="7" t="n">
+      <c r="V86" s="6" t="n">
         <v>0.01796810289902097</v>
       </c>
-      <c r="W86" s="7" t="inlineStr">
+      <c r="W86" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9203,33 +9176,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E87" s="7" t="n">
+      <c r="E87" s="6" t="n">
         <v>0.07132578764591302</v>
       </c>
-      <c r="F87" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G87" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H87" s="7" t="n">
+      <c r="F87" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G87" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H87" s="6" t="n">
         <v>-0.01820113439721505</v>
       </c>
-      <c r="I87" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J87" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K87" t="n">
+      <c r="I87" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J87" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K87" s="7" t="n">
         <v>9.232283603221919</v>
       </c>
       <c r="L87" t="inlineStr">
@@ -9247,7 +9220,7 @@
           <t>Post Q3 results, we update our estimates to reflect our latest thinking around pricing and volumes over our forecast period. While we leave our FY22 estimates largely unchanged, we do moderately raise +5% EBITDA for FY'23 and '24 to reflect a slightly more supportive view on Polysilicon earnings. Accounting for these changes and marking to market our SOTP, we leave our PT unchanged at €150 and we remain EW.</t>
         </is>
       </c>
-      <c r="O87" t="n">
+      <c r="O87" s="7" t="n">
         <v>12.4688454058921</v>
       </c>
       <c r="P87" t="inlineStr">
@@ -9260,28 +9233,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R87" s="7" t="n">
+      <c r="R87" s="6" t="n">
         <v>0.04807614865476206</v>
       </c>
-      <c r="S87" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T87" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U87" s="7" t="n">
+      <c r="S87" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T87" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U87" s="6" t="n">
         <v>0.06942161018011195</v>
       </c>
-      <c r="V87" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W87" s="7" t="inlineStr">
+      <c r="V87" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W87" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9393,7 +9366,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
@@ -9402,7 +9375,6 @@
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data_Formatted/Combined_OUTPUT.xlsx
+++ b/Data_Formatted/Combined_OUTPUT.xlsx
@@ -15,10 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -111,12 +110,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +498,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44904.65909675655</v>
+        <v>44904.6757290204</v>
       </c>
     </row>
     <row r="3">
@@ -3141,8 +3140,10 @@
       <c r="E29" s="6" t="n">
         <v>0.1012840208006442</v>
       </c>
-      <c r="F29" s="6" t="n">
-        <v>-0.006868188794175809</v>
+      <c r="F29" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="G29" s="6" t="inlineStr">
         <is>
@@ -3152,17 +3153,23 @@
       <c r="H29" s="6" t="n">
         <v>-0.1825853658536585</v>
       </c>
-      <c r="I29" s="6" t="n">
-        <v>0.2268749475451113</v>
-      </c>
-      <c r="J29" s="6" t="n">
-        <v>0.2268749475451113</v>
+      <c r="I29" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J29" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="K29" s="7" t="n">
         <v>8.785569105691057</v>
       </c>
-      <c r="L29" t="n">
-        <v>11.01972303818716</v>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3177,8 +3184,10 @@
       <c r="O29" s="7" t="n">
         <v>1.608672</v>
       </c>
-      <c r="P29" t="n">
-        <v>2.923643</v>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -3203,8 +3212,10 @@
       <c r="U29" s="6" t="n">
         <v>-0.01336559296712238</v>
       </c>
-      <c r="V29" s="6" t="n">
-        <v>0.01796810289902097</v>
+      <c r="V29" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="W29" s="6" t="inlineStr">
         <is>
@@ -8789,8 +8800,10 @@
       <c r="E83" s="6" t="n">
         <v>-0.03953067394323685</v>
       </c>
-      <c r="F83" s="6" t="n">
-        <v>-0.006868188794175809</v>
+      <c r="F83" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="G83" s="6" t="inlineStr">
         <is>
@@ -8800,17 +8813,23 @@
       <c r="H83" s="6" t="n">
         <v>-0.04266160815402043</v>
       </c>
-      <c r="I83" s="6" t="n">
-        <v>0.2268749475451113</v>
-      </c>
-      <c r="J83" s="6" t="n">
-        <v>0.2268749475451113</v>
+      <c r="I83" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J83" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="K83" s="7" t="n">
         <v>23.5277463193658</v>
       </c>
-      <c r="L83" t="n">
-        <v>11.01972303818716</v>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8825,8 +8844,10 @@
       <c r="O83" s="7" t="n">
         <v>0.8453298</v>
       </c>
-      <c r="P83" t="n">
-        <v>2.923643</v>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -8851,8 +8872,10 @@
       <c r="U83" s="6" t="n">
         <v>-0.03915843276345988</v>
       </c>
-      <c r="V83" s="6" t="n">
-        <v>0.01796810289902097</v>
+      <c r="V83" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="W83" s="6" t="inlineStr">
         <is>
@@ -9084,8 +9107,10 @@
       <c r="E86" s="6" t="n">
         <v>-0.221475864257249</v>
       </c>
-      <c r="F86" s="6" t="n">
-        <v>-0.006868188794175809</v>
+      <c r="F86" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="G86" s="6" t="inlineStr">
         <is>
@@ -9095,17 +9120,23 @@
       <c r="H86" s="6" t="n">
         <v>0.1305027636524432</v>
       </c>
-      <c r="I86" s="6" t="n">
-        <v>0.2268749475451113</v>
-      </c>
-      <c r="J86" s="6" t="n">
-        <v>0.2268749475451113</v>
+      <c r="I86" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J86" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="K86" s="7" t="n">
         <v>9.728056599602034</v>
       </c>
-      <c r="L86" t="n">
-        <v>11.01972303818716</v>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -9120,8 +9151,10 @@
       <c r="O86" s="7" t="n">
         <v>5.113264</v>
       </c>
-      <c r="P86" t="n">
-        <v>2.923643</v>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -9146,8 +9179,10 @@
       <c r="U86" s="6" t="n">
         <v>-0.2673727668133168</v>
       </c>
-      <c r="V86" s="6" t="n">
-        <v>0.01796810289902097</v>
+      <c r="V86" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="W86" s="6" t="inlineStr">
         <is>
@@ -9281,33 +9316,33 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="E88" t="n">
+      <c r="E88" s="6" t="n">
         <v>-0.0249568865666264</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
+      <c r="F88" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G88" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H88" s="6" t="n">
         <v>-0.144889390519187</v>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K88" t="n">
+      <c r="I88" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J88" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K88" s="7" t="n">
         <v>28.622754</v>
       </c>
       <c r="L88" t="inlineStr">
@@ -9325,7 +9360,7 @@
           <t>Updating for Q3 results</t>
         </is>
       </c>
-      <c r="O88" t="n">
+      <c r="O88" s="7" t="n">
         <v>0.378814</v>
       </c>
       <c r="P88" t="inlineStr">
@@ -9338,28 +9373,28 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R88" t="n">
+      <c r="R88" s="6" t="n">
         <v>-0.00751411098964805</v>
       </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U88" t="n">
+      <c r="S88" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T88" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U88" s="6" t="n">
         <v>-0.0191762555895486</v>
       </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
+      <c r="V88" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W88" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>

--- a/Data_Formatted/Combined_OUTPUT.xlsx
+++ b/Data_Formatted/Combined_OUTPUT.xlsx
@@ -498,7 +498,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44904.6757290204</v>
+        <v>44904.68279453081</v>
       </c>
     </row>
     <row r="3">
